--- a/articles_ecofin.xlsx
+++ b/articles_ecofin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,13 +478,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(agence ecofin) - au burkina faso, les céréales constituent la base de l’alimentation de la population. dans la filière, les minotiers jouent un rôle important dans le développement du segment de la transformation. au burkina faso, le gouvernement a consenti à une exonération de taxe au profit de la production locale de farine de blé, de maïs, de sorgho et d’autres céréales produites localement. l’annonce a été faite le jeudi 19 septembre dans un communiqué publié sur le site du gouvernement. cette décision est en lien avec l’adoption le même jour, en conseil des ministres d’un projet de loi de finances rectificative de la loi de finances pour l’exécution du budget de l’état pour l’exercice de 2024. « la nouvelle loi de finances rectificative va permettre de renforcer le dispositif de protection sociale du capital humain et d’accompagner l’industrialisation du pays », peut-on lire dans le communiqué. globalement, l’exonération de taxes sur la production locale de farine de céréales est un coup de pouce qui devrait réduire les charges fiscales des minotiers et pourrait encourager l’investissement des opérateurs privés dans le secteur. il faut rappeler qu’en avril dernier, le gouvernement burkinabè avait déjà posé un ban sur l’importation de farine de blé. d’après les données compilées par l’institut national de la statistique et de la démographie (insd), les achats de farines de blé effectués par le pays en 2023 ont augmenté de 31 % pour atteindre 16 360 tonnes. il faut également noter que sur la même année, les achats de blé sur le marché international ont grimpé de 26 %, atteignant plus de 270 000 tonnes. rappelons que le burkina faso importe la quasi-totalité de ses besoins en blé.
-stéphanas assocle</t>
+          <t>(agence ecofin) - au burkina faso, les céréales constituent la base de l’alimentation de la population. dans la filière, les minotiers jouent un rôle important dans le développement du segment de la transformation. 
+au burkina faso, le gouvernement a consenti à une exonération de taxe au profit de la production locale de farine de blé, de maïs, de sorgho et d’autres céréales produites localement. l’annonce a été faite le jeudi 19 septembre dans un communiqué publié sur le site du gouvernement. 
+cette décision est en lien avec l’adoption le même jour, en conseil des ministres d’un projet de loi de finances rectificative de la loi de finances pour l’exécution du budget de l’état pour l’exercice de 2024. « la nouvelle loi de finances rectificative va permettre de renforcer le dispositif de protection sociale du capital humain et d’accompagner l’industrialisation du pays », peut-on lire dans le communiqué.
+globalement, l’exonération de taxes sur la production locale de farine de céréales est un coup de pouce qui devrait réduire les charges fiscales des minotiers et pourrait encourager l’investissement des opérateurs privés dans le secteur. 
+il faut rappeler qu’en avril dernier, le gouvernement burkinabè avait déjà posé un ban sur l’importation de farine de blé. d’après les données compilées par l’institut national de la statistique et de la démographie (insd), les achats de farines de blé effectués par le pays en 2023 ont augmenté de 31 % pour atteindre 16 360 tonnes. 
+il faut également noter que sur la même année, les achats de blé sur le marché international ont grimpé de 26 %, atteignant plus de 270 000 tonnes. rappelons que le burkina faso importe la quasi-totalité de ses besoins en blé.
+stéphanas assocle
+lire aussi:
+19/09/2024 - burkina faso : le gouvernement suspend l’exportation de karité
+5/07/2024 - burkina faso : le gouvernement injectera 200 millions $ dans la production agricole</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>blé, maïs, sorgho</t>
+          <t>blé, maïs, sorgho, karité, mil</t>
         </is>
       </c>
     </row>
@@ -506,144 +514,172 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(agence ecofin) - au burkina faso, la production d’amande de karité est la 2ème plus importante au monde après le nigéria. alors que la production est principalement exportée sous forme brute, le gouvernement promeut la transformation locale pour améliorer la création de valeur ajoutée dans la filière. au burkina faso, l’exportation d’amandes de karité est interdite jusqu’à nouvel ordre. l’annonce a été faite dans un communiqué conjoint publié le 18 septembre par le ministère de l’industrie, du commerce et de l’artisanat et celui en charge de l’économie et des finances. cette décision a pour objectif de rendre disponible l’amande de karité utilisée comme matière première par les unités industrielles de transformation au niveau national. « la suspension des exportations s’aligne sur la dynamique du gouvernement visant à soutenir le développement de l’industrie locale », souligne le communiqué. cette annonce est à inscrire dans un contexte où les exportations burkinabè de beurre de karité ont baissé de 14,35 % en moyenne par an entre 2020 et 2023, passant de 22 700 tonnes à 12 215 tonnes, d’après les données compilées par l’institut national de la statistique et de la démographie (insd). parallèlement, les expéditions d’amande de karité ont grimpé de 19,37 % en moyenne par an sur la même période, passant de 104 700 tonnes en 2020 à 212 600 tonnes en 2023. en ce qui concerne les derniers développements sur le segment de la transformation, il faut noter qu’en avril 2024, le président ibrahim traoré a inauguré une huilerie de 18 de francs cfa (30,6 $) dans la ville de bobo-dioulasso. il s’agit d’un complexe industriel doté d’une capacité de production de 25 000 tonnes de beurre de karité appartenant à l’agence deli internationale prod industries (adiprod industries sa). au burkina faso, les expéditions d’amandes de karité et de beurre de karité ont généré 60,9 de francs cfa (103,5 $) de recettes en 2023, selon l’insd.
-stéphanas assocle</t>
+          <t>(agence ecofin) - au burkina faso, la production d’amande de karité est la 2ème plus importante au monde après le nigéria. alors que la production est principalement exportée sous forme brute, le gouvernement promeut la transformation locale pour améliorer la création de valeur ajoutée dans la filière. 
+au burkina faso, l’exportation d’amandes de karité est interdite jusqu’à nouvel ordre. l’annonce a été faite dans un communiqué conjoint publié le 18 septembre par le ministère de l’industrie, du commerce et de l’artisanat et celui en charge de l’économie et des finances. 
+cette décision a pour objectif de rendre disponible l’amande de karité utilisée comme matière première par les unités industrielles de transformation au niveau national. « la suspension des exportations s’aligne sur la dynamique du gouvernement visant à soutenir le développement de l’industrie locale », souligne le communiqué. 
+cette annonce est à inscrire dans un contexte où les exportations burkinabè de beurre de karité ont baissé de 14,35 % en moyenne par an entre 2020 et 2023, passant de 22 700 tonnes à 12 215 tonnes, d’après les données compilées par l’institut national de la statistique et de la démographie (insd). 
+parallèlement, les expéditions d’amande de karité ont grimpé de 19,37 % en moyenne par an sur la même période, passant de 104 700 tonnes en 2020 à 212 600 tonnes en 2023. en ce qui concerne les derniers développements sur le segment de la transformation, il faut noter qu’en avril 2024, le président ibrahim traoré a inauguré une huilerie de 18 milliards de francs cfa (30,6 millions $) dans la ville de bobo-dioulasso. il s’agit d’un complexe industriel doté d’une capacité de production de 25 000 tonnes de beurre de karité appartenant à l’agence deli internationale prod industries (adiprod industries sa).  
+au burkina faso, les expéditions d’amandes de karité et de beurre de karité ont généré 60,9 milliards de francs cfa (103,5 millions $) de recettes en 2023, selon l’insd.
+stéphanas assocle
+lire aussi:
+25/07/2024 - burkina faso : le gouvernement injectera 200 millions $ dans la production agricole
+18/07/2024 - burkina faso : vers la relance des brasseries du faso
+04/07/2024 - mali : un complexe agro-industriel de 23 millions $ lancé à sanankoroba</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>karité</t>
+          <t>karité, mil</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Guinée</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Guinée-Bissau : le gouvernement veut mettre un terme à la subvention pour les prix du riz</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>04-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - le riz est l’une des principales denrées de base pour les populations en afrique de l’ouest. dans la sous-région, la guinée-bissau affiche l’un des plus grands niveaux de consommation de la céréale par habitant, avec plus de 100 kg par an.
+en guinée-bissau, le gouvernement envisage de supprimer la subvention des prix d’achat à la consommation du riz sur le marché local. c’est ce qu’a révélé lassana fati, directeur général des affaires extérieures au ministère du commerce et de l’industrie, le 8 avril. 
+la mesure en vigueur depuis août 2023 a permis de faire baisser de 22 % à 17 500 fcfa (28,5 $) le prix d’achat du sac de 50 kg de riz brisé 100 % et de 6,3 % à 22 500 francs cfa (36,7 $) le tarif du sac de 50 kg du riz brisé à 5 %.  
+selon le responsable, cette politique représente un fardeau financier important pour les caisses publiques. d’après les données officielles, une enveloppe de 4 milliards de francs cfa (6,6 millions $) a été déjà déboursée dans ce cadre.  
+« le gouvernement n’arrive plus à supporter le coût de cette subvention qui asphyxie le trésor public. le fonds monétaire international nous avait déjà prévenus sur un risque de déséquilibre de la masse salariale lié à cette initiative », a précisé le responsable. 
+si la décision de suppression des subventions venait à être confirmée, cela aurait pour conséquence une réduction de l’accessibilité économique aux populations les plus vulnérables. 
+dans le pays, le riz fournit la majorité de l’apport calorique aussi bien en milieu rural qu’en zone urbaine comme en témoigne la consommation par tête qui est parmi les plus importantes du monde avec 100 kg par an contre environ 57 kg pour la moyenne mondiale selon les données du département américain de l’agriculture (usda).  
+lire aussi:
+28/02/2024 - nigeria : les prix du riz ont fortement progressé en janvier
+26/02/2024 - l’inde autorise l’exportation de 130 000 tonnes de riz vers la guinée-bissau, la tanzanie et djibouti</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>riz, mil</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Ghana : déploiement commercial du niébé transgénique</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>07-2024</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>(agence ecofin) - au ghana, le niébé transgénique a été approuvé en juin 2022 pour l’alimentation humaine, animale et la culture. ce feu vert obtenu auprès de l’autorité nationale de biosécurité (nba) a fait du pays, le second d’afrique de l’ouest à opter pour cette variété après le nigéria.
-au ghana, la ville de tamale située dans le nord a été le 25 juillet dernier, le lieu du lancement de la diffusion commerciale du niébé génétiquement modifiée (niébé bt), première culture ogm du pays. la cérémonie rapportée par plusieurs médias locaux a réuni des représentants de diverses institutions, dont le conseil de la recherche scientifique et industrielle (csir) et la fondation africaine pour la technologie agricole (aatf). elle fait suite à la validation et l’approbation au catalogue national des semences par le comité national de diffusion et d’enregistrement des variétés.
+au ghana, la ville de tamale située dans le nord a été le 25 juillet dernier, le lieu du lancement de la diffusion commerciale du niébé génétiquement modifiée (niébé bt), première culture ogm du pays.  
+la cérémonie rapportée par plusieurs médias locaux a réuni des représentants de diverses institutions, dont le conseil de la recherche scientifique et industrielle (csir) et la fondation africaine pour la technologie agricole (aatf). elle fait suite à la validation et l’approbation au catalogue national des semences par le comité national de diffusion et d’enregistrement des variétés.
 développé par l’institut de la recherche agricole de savannah (sari) à partir de gènes fournis par monsanto (bayer), le niébé bt est résistant à l’insecte « maruca vitrata », principal ravageur de la culture (foreur de gousses).
 en outre, selon les chercheurs, la légumineuse génétiquement modifiée peut afficher un rendement de 2 tonnes par hectare, soit un niveau quatre fois supérieur à celui des variétés conventionnelles utilisées jusqu’ici. « il s’agit d’un jour exceptionnel pour le secteur agricole ghanéen et pour la marche vers la sécurité alimentaire […] », s’est réjoui paul bosu, directeur général du csir en parlant du lancement.
 plus globalement, cet enthousiasme du responsable par rapport à la percée de la biotechnologie dans le pays tranche avec les critiques adressées par l’association des paysans du ghana (pfag) sur l’approbation de nouvelles variétés notamment de soja et de maïs.
 le groupement voit dans l’introduction des cultures ogm, une menace pour la diversité variétale et a exprimé ses craintes d’une « perte du système agricole indigène au profit d’une poignée de multinationales du génie génétique ».
-pour rappel, le niébé est la légumineuse la plus cultivée au ghana avec une récolte dépassant les 365 000 tonnes en 2022, selon les données du département américain de l’agriculture (usda).</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+pour rappel, le niébé est la légumineuse la plus cultivée au ghana avec une récolte dépassant les 365 000 tonnes en 2022, selon les données du département américain de l’agriculture (usda).
+lire aussi :
+23/07/2024 - ghana : 81 % de la superficie cacaoyère du nord-ouest infectée par le swollen shoot (icco)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>soja, niébé, maïs</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Niger</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Le Nigeria discute avec l’Arabie saoudite pour exporter de la viande et du soja</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>07-2024</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>(agence ecofin) - le nigeria dispose d’un grand potentiel agricole qui est encore sous-exploité. le gouvernement compte tirer parti des différentes opportunités commerciales qui se présentent pour stimuler la production locale et accroître les recettes d’exportation du secteur. l’arabie saoudite négocie un accord d’approvisionnement en viande rouge et soja avec le nigeria. c’est ce qu’a révélé abubakar kyari (photo), ministre nigérian de l’agriculture, dans un communiqué publié le 29 juin sur sa page x (anciennement twitter). i had the honor of briefing the national economic council on the commendable efforts of our president, who has taken on the role of marketer-in-chief for nigeria. in november 2023, during his attendance at the saudi-africa summit, i had the opportunity to meet with my… pic.twitter.com/5dctddnhdg — sen. abubakar kyari, con (@senatorakyari) june 29, 2024
-dans le cadre de cet accord, il est prévu que la partie nigériane expédie 1 de tonnes de soja et 200 000 tonnes de viandes rouges à destination du pays arabe chaque année. « l’exportation de ces produits n’affectera pas la consommation intérieure. cette initiative renforcera le secteur agricole et augmentera la capacité de production du pays. la semaine dernière, nous avons organisé une réunion avec nos entrepreneurs et les parties prenantes et ensemble, nous avons élaboré une feuille de route complète pour garantir que nous pourrons répondre à la demande du pays asiatique et même la dépasser », a déclaré m. kyari. en outre, le ministre de l’agriculture a révélé que l’arabie saoudite souhaite également investir dans la création d’usines de fabrication d’équipements agricoles au nigeria pour soutenir le secteur agricole. au nigeria, la production totale de viande (ovins, caprins, porcs, bovins, volailles…) s’élève à 1,6 de tonnes par an, soit presque autant que la consommation annuelle, d’après les dernières données compilées par la fao.
-stéphanas assocle</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>soja</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bénin</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le Bénin interdit l’exportation de produits vivriers jusqu’à nouvel ordre</t>
+          <t>Togo : croissance consécutive de la production de céréales sur les 5 dernières années, à 1,5 millions de tonnes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(agence ecofin) - au bénin, le maïs est la principale céréale cultivée et consommée. dans le pays, les prix de la céréale ont augmenté depuis quelques mois créant de multiples tensions pour l’approvisionnement des consommateurs et des industriels. au bénin, les exportations de produits vivriers comme le maïs, le riz, le mil, le niébé, les tubercules et leurs dérivés (farines dont le gari) sont désormais interdites jusqu’à nouvel ordre. c’est ce qu’indique un communiqué du conseil des ministres publié ce 8 mai. cette décision vise selon les autorités à garantir l’approvisionnement confortable des consommateurs à un « coût raisonnable » sur le marché intérieur. elle s’inscrit dans un contexte où le prix moyen du kg de maïs sur le marché local a grimpé de 57 % depuis janvier pour atteindre 365 fcfa (0,59 $) à la mi-avril, selon les données de l’institut national de la statistique et de la démographie (instad). « de nombreux producteurs et commerçants sont portés à satisfaire les demandes en produits vivriers venant de pays étrangers au détriment du marché national. s’il est vrai que dans un contexte de libéralisme économique c’est l’offre et la demande sur les marchés qui déterminent les prix et que la libre circulation des biens est admise dans notre espace communautaire, il n’en demeure pas moins que le phénomène prend une ampleur telle que le consommateur béninois en subit les conséquences », indique le gouvernement. dans une déclaration datant d’avril dernier, gaston dossouhoui, ministre de l’agriculture avait notamment mise en lumière les sorties vers le nigeria.
-« l'importante production avicole au nigeria ne peut se passer du maïs béninois. avec toutes ces pressions, il se pose un problème entre l’offre et la demande », avait alors déclaré le responsable.
-en dehors de ce facteur, le dirigeant avait aussi indiqué que la décision du gouvernement d’interdire les importations de poulets congelés d’ici fin 2024 avait aussi incité les éleveurs à constituer des réserves stratégiques. au bénin, la production de maïs est attendue à 2,5 de tonnes pour le compte de la campagne 2024/2025, soit 25 % de plus que la récolte enregistrée en an plus tôt (2 de tonnes) d’après les données de la direction des statistiques agricoles (dsa). espoir olodo</t>
+          <t>(agence ecofin) - le togo applique une politique intensive d’appui aux producteurs agricoles locaux, sur divers segments de cultures. la croissance soutenue de production céréalière est également le résultat de cette stratégie.
+selon des données de la bceao, ces 5 dernières années, la production céréalière togolaise a régulièrement crû, passant de 1,26 million de tonnes lors de la saison 2019-2020 à 1,5 million t pour 2023-2024.
+dans le détail, la campagne agricole 2020/2021 a affiché 1 350,6 milliers t de céréales produites, tandis que celle de 2021/2022 a produit près de 1,4 million de tonnes. en 2022/2023, on a enregistré 1,44 million de tonnes.
+le maïs demeure la principale céréale cultivée au togo, informe togofirst, suivie du riz paddy, puis du duo mil-sorgho. la production est essentiellement dédiée à la consommation domestique, ainsi qu’à la satisfaction des besoins alimentaires internes.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>tubercules, maïs, riz, niébé, mil</t>
+          <t>riz, sorgho, maïs, mil</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sénégal</t>
+          <t>Bénin</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sénégal : le gouvernement lance un projet de 3 millions $ pour stimuler la production de semences de riz pluvial</t>
+          <t>Le Bénin interdit l’exportation de produits vivriers jusqu’à nouvel ordre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>05-2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(agence ecofin) - le sénégal dépend à hauteur de 60 % des importations pour ses besoins en riz. dans le pays qui cible l’autosuffisance depuis près d’une décennie, la production de paddy dépend essentiellement des précipitations. au sénégal, pape ndao, secrétaire général du ministère de l’agriculture, de la souveraineté alimentaire et de l’élevage, a donné le coup d’envoi du projet d’appui à la production de semences certifiées de riz pluvial (2psrp), le 27 avril dernier.
-selon les informations relayées par les médias locaux, cette initiative sera mise en œuvre en partenariat avec l’agence japonaise de la coopération internationale (jica) sur une durée de 3 ans et pour un coût total de 1,8 de francs cfa (3 $). « ce projet est destiné à accompagner les contrôleurs semenciers, les techniciens et les acteurs impliqués dans la production de semences certifiées de riz pluvial, par des formations aux procédures et technologies appropriées ainsi qu’à travers des dotations d’équipements indispensables à une prise en charge correcte de leurs tâches quotidiennes », précise m. ndao. les interventions devraient toucher environ 1 500 petits agriculteurs dans les zones d’intervention ciblées que sont thiès, fatick, kaolack, kaffrine, tambacounda, kédougou, kolda, sédhiou et ziguinchor. d’après les autorités, ce projet devrait permettre d’augmenter l’offre en semences certifiées pour la production de riz pluvial. s’il s’agit d’une importante contribution dans un contexte où 70 % de la récolte de paddy dépend des précipitations, il faut noter que plusieurs observateurs ont souligné, ces dernières années, la nécessité de mettre un accent plus important sur l’irrigation et d’accroître les investissements publics afin de valoriser les atouts de plusieurs zones à fort potentiel comme la vallée du fleuve sénégal (vfs). les données de la direction de l’analyse, de la prévision et des statistiques agricoles (dapsa) indiquent ainsi que le rendement du riz pluvial s’affichait en moyenne à 3 tonnes par hectare en 2022 soit 2 fois moins que celui du riz irrigué. stéphanas assocle</t>
+          <t>(agence ecofin) - au bénin, le maïs est la principale céréale cultivée et consommée. dans le pays, les prix de la céréale ont augmenté depuis quelques mois créant de multiples tensions pour l’approvisionnement des consommateurs et des industriels. 
+au bénin, les exportations de produits vivriers comme le maïs, le riz, le mil, le niébé, les tubercules et leurs dérivés (farines dont le gari) sont désormais interdites jusqu’à nouvel ordre. c’est ce qu’indique un communiqué du conseil des ministres publié ce 8 mai.    
+cette décision vise selon les autorités à garantir l’approvisionnement confortable des consommateurs à un « coût raisonnable » sur le marché intérieur. 
+elle s’inscrit dans un contexte où le prix moyen du kg de maïs sur le marché local a grimpé de 57 % depuis janvier pour atteindre 365 fcfa (0,59 $) à la mi-avril, selon les données de l’institut national de la statistique et de la démographie (instad).  
+« de nombreux producteurs et commerçants sont portés à satisfaire les demandes en produits vivriers venant de pays étrangers au détriment du marché national. s’il est vrai que dans un contexte de libéralisme économique c’est l’offre et la demande sur les marchés qui déterminent les prix et que la libre circulation des biens est admise dans notre espace communautaire, il n’en demeure pas moins que le phénomène prend une ampleur telle que le consommateur béninois en subit les conséquences », indique le gouvernement.   
+dans une déclaration datant d’avril dernier, gaston dossouhoui, ministre de l’agriculture avait notamment mise en lumière les sorties vers le nigeria.
+« l'importante production avicole au nigeria ne peut se passer du maïs béninois. avec toutes ces pressions, il se pose un problème entre l’offre et la demande », avait alors déclaré le responsable.
+en dehors de ce facteur, le dirigeant avait aussi indiqué que la décision du gouvernement d’interdire les importations de poulets congelés d’ici fin 2024 avait aussi incité les éleveurs à constituer des réserves stratégiques. 
+au bénin, la production de maïs est attendue à 2,5 millions de tonnes pour le compte de la campagne 2024/2025, soit 25 % de plus que la récolte enregistrée en an plus tôt (2 millions de tonnes) d’après les données de la direction des statistiques agricoles (dsa). 
+espoir olodo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>riz, blé</t>
+          <t>tubercules, maïs, riz, niébé, mil</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Sénégal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Togo : croissance consécutive de la production de céréales sur les 5 dernières années, à 1,5 millions de tonnes</t>
+          <t>Sénégal : le gouvernement lance un projet de 3 millions $ pour stimuler la production de semences de riz pluvial</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -653,26 +689,33 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(agence ecofin) - le togo applique une politique intensive d’appui aux producteurs agricoles locaux, sur divers segments de cultures. la croissance soutenue de production céréalière est également le résultat de cette stratégie.
-selon des données de la bceao, ces 5 dernières années, la production céréalière togolaise a régulièrement crû, passant de 1,26 de tonnes lors de la saison 2019-2020 à 1,5 t pour 2023-2024. dans le détail, la campagne agricole 2020/2021 a affiché 1 350,6 t de céréales produites, tandis que celle de 2021/2022 a produit près de 1,4 de tonnes. en 2022/2023, on a enregistré 1,44 de tonnes.
-le maïs demeure la principale céréale cultivée au togo, informe togofirst, suivie du riz paddy, puis du duo mil-sorgho. la production est essentiellement dédiée à la consommation domestique, ainsi qu’à la satisfaction des besoins alimentaires internes.</t>
+          <t>(agence ecofin) - le sénégal dépend à hauteur de 60 % des importations pour ses besoins en riz. dans le pays qui cible l’autosuffisance depuis près d’une décennie, la production de paddy dépend essentiellement des précipitations. 
+au sénégal, pape ndao, secrétaire général du ministère de l’agriculture, de la souveraineté alimentaire et de l’élevage, a donné le coup d’envoi du projet d’appui à la production de semences certifiées de riz pluvial (2psrp), le 27 avril dernier.
+selon les informations relayées par les médias locaux, cette initiative sera mise en œuvre en partenariat avec l’agence japonaise de la coopération internationale (jica) sur une durée de 3 ans et pour un coût total de 1,8 milliard de francs cfa (3 millions $). 
+« ce projet est destiné à accompagner les contrôleurs semenciers, les techniciens et les acteurs impliqués dans la production de semences certifiées de riz pluvial, par des formations aux procédures et technologies appropriées ainsi qu’à travers des dotations d’équipements indispensables à une prise en charge correcte de leurs tâches quotidiennes », précise m. ndao. 
+les interventions devraient toucher environ 1 500 petits agriculteurs dans les zones d’intervention ciblées que sont thiès, fatick, kaolack, kaffrine, tambacounda, kédougou, kolda, sédhiou et ziguinchor. d’après les autorités, ce projet devrait permettre d’augmenter l’offre en semences certifiées pour la production de riz pluvial. 
+s’il s’agit d’une importante contribution dans un contexte où 70 % de la récolte de paddy dépend des précipitations, il faut noter que plusieurs observateurs ont souligné, ces dernières années, la nécessité de mettre un accent plus important sur l’irrigation et d’accroître les investissements publics afin de valoriser les atouts de plusieurs zones à fort potentiel comme la vallée du fleuve sénégal (vfs).  
+les données de la direction de l’analyse, de la prévision et des statistiques agricoles (dapsa) indiquent ainsi que le rendement du riz pluvial s’affichait en moyenne à 3 tonnes par hectare en 2022 soit 2 fois moins que celui du riz irrigué. 
+stéphanas assocle
+lire aussi:
+16/04/2024 - sénégal : les achats de riz pakistanais ont augmenté à 100 000 tonnes entre novembre et décembre 2023</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>riz, sorgho, maïs, mil</t>
+          <t>riz, blé, mil</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Guinée</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Guinée-Bissau : le gouvernement veut mettre un terme à la subvention pour les prix du riz</t>
+          <t>Le Burkina Faso suspend les importations de farine de blé</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -682,329 +725,384 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(agence ecofin) - le riz est l’une des principales denrées de base pour les populations en afrique de l’ouest. dans la sous-région, la guinée-bissau affiche l’un des plus grands niveaux de consommation de la céréale par habitant, avec plus de 100 kg par an.
-en guinée-bissau, le gouvernement envisage de supprimer la subvention des prix d’achat à la consommation du riz sur le marché local. c’est ce qu’a révélé lassana fati, directeur général des affaires extérieures au ministère du commerce et de l’industrie, le 8 avril. la mesure en vigueur depuis août 2023 a permis de faire baisser de 22 % à 17 500 fcfa (28,5 $) le prix d’achat du sac de 50 kg de riz brisé 100 % et de 6,3 % à 22 500 francs cfa (36,7 $) le tarif du sac de 50 kg du riz brisé à 5 %. selon le responsable, cette politique représente un fardeau financier important pour les caisses publiques. d’après les données officielles, une enveloppe de 4 de francs cfa (6,6 $) a été déjà déboursée dans ce cadre. « le gouvernement n’arrive plus à supporter le coût de cette subvention qui asphyxie le trésor public. le fonds monétaire international nous avait déjà prévenus sur un risque de déséquilibre de la masse salariale lié à cette initiative », a précisé le responsable. si la décision de suppression des subventions venait à être confirmée, cela aurait pour conséquence une réduction de l’accessibilité économique aux populations les plus vulnérables. dans le pays, le riz fournit la majorité de l’apport calorique aussi bien en rural qu’en zone urbaine comme en témoigne la consommation par tête qui est parmi les plus importantes du monde avec 100 kg par an contre environ 57 kg pour la moyenne mondiale selon les données du département américain de l’agriculture (usda).</t>
+          <t>(agence ecofin) - au burkina faso, le blé est la 2ème céréale importée après le riz. le pays dépend fortement du marché international pour la satisfaction de ses besoins dans la graminée et ses produits dérivés. 
+au burkina faso, le gouvernement a décidé d’interdire les importations de farine de blé jusqu’à nouvel ordre. c’est ce qu’a annoncé le ministère du développement industriel, du commerce, de l’artisanat et des petites et moyennes entreprises dans un communiqué publié le 8 avril.
+communiqué portant suspension temporaire de l'importation de la farine de blé pic.twitter.com/nl2xhb0smq
+— sig burkina faso (@sigbf) april 9, 2024
+selon les autorités, cette décision s’inscrit dans le cadre de l’assainissement du marché des produits de grande consommation. « l’importation de la farine de blé étant soumise à une autorisation spéciale d’importation (asi), la délivrance des asi de la farine de blé est aussi suspendue. en tout état de cause, tout contrevenant à cette décision s’expose à des sanctions conformément à la réglementation en vigueur », précise le communiqué.
+s’il est encore trop tôt pour évoquer les répercussions de cette restriction sur l’approvisionnement local, il faut souligner que les importations de farine de blé du pays proviennent principalement de la côte d’ivoire, du ghana et du togo. ces trois pays fournissent chaque année la quasi-totalité des envois via des réexportations. 
+selon les données compilées sur la plateforme trademap, le pays des hommes intègres a importé plus de 12 400 tonnes de farine de blé d’une valeur de plus de 5,5 millions $ en 2022.
+stéphanas assocle
+lire aussi:
+09/04/2024 - burkina faso : le gouvernement table sur une récolte de 250 tonnes de blé en 2023/2024 
+28/03/2024 - burkina faso : sourgou abritera un complexe industriel textile de 272 millions $ 
+06/03/2024 - burkina faso : un foyer de grippe aviaire déclaré sous contrôle à ouagadougou</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>riz</t>
+          <t>riz, blé, mil</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Nigéria</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Le Burkina Faso suspend les importations de farine de blé</t>
+          <t>Le Nigéria approuve la commercialisation du maïs transgénique</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>01-2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>(agence ecofin) - au burkina faso, le blé est la 2ème céréale importée après le riz. le pays dépend fortement du marché international pour la satisfaction de ses besoins dans la graminée et ses produits dérivés. au burkina faso, le gouvernement a décidé d’interdire les importations de farine de blé jusqu’à nouvel ordre. c’est ce qu’a annoncé le ministère du développement industriel, du commerce, de l’artisanat et des petites et moyennes entreprises dans un communiqué publié le 8 avril. communiqué portant suspension temporaire de l'importation de la farine de blé pic.twitter.com/nl2xhb0smq — sig burkina faso (@sigbf) april 9, 2024
-selon les autorités, cette décision s’inscrit dans le cadre de l’assainissement du marché des produits de grande consommation. « l’importation de la farine de blé étant soumise à une autorisation spéciale d’importation (asi), la délivrance des asi de la farine de blé est aussi suspendue. en tout état de cause, tout contrevenant à cette décision s’expose à des sanctions conformément à la réglementation en vigueur », précise le communiqué.
-s’il est encore trop tôt pour évoquer les répercussions de cette restriction sur l’approvisionnement local, il faut souligner que les importations de farine de blé du pays proviennent principalement de la côte d’ivoire, du ghana et du togo. ces trois pays fournissent chaque année la quasi-totalité des envois via des réexportations. selon les données compilées sur la plateforme trademap, le pays des hommes intègres a importé plus de 12 400 tonnes de farine de blé d’une valeur de plus de 5,5 $ en 2022.
-stéphanas assocle</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>riz, blé</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Niger</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Nigeria : la production de maïs devrait chuter de 8 % à 11 millions de tonnes en 2024/2025 (USDA)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>03-2024</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>(agence ecofin) - principale céréale cultivée et consommée, le maïs est une denrée stratégique pour la sécurité alimentaire au nigeria. le pays est, dans le même temps, confronté à de nombreux défis, dont l’insécurité croissante dans les bassins de production. au nigeria, la récolte de maïs est attendue à 11 de tonnes au cours de la campagne de 2024/2025, soit 8 % de moins qu’un an plus tôt. c’est ce que révèle le département américain de l’agriculture (usda) dans un rapport publié le 13 mars dernier.
-selon l’organisme américain, ce recul sera principalement lié à la baisse d’environ 600 000 hectares des superficies cultivées durant la saison prochaine à 5,1 d’hectares. en effet, l’insécurité liée à la recrudescence des attaques de groupes criminels et de « bandits », conduit des d’agriculteurs à abandonner leurs champs.
-d’après les données officielles, les états de sokoto, zamfara, katsina, kebbi, niger et kaduna qui ont fourni plus de 20 % de la récolte en 2021 sont parmi les plus touchés par les attaques. si la contraction des superficies reste problématique, l’usda indique que les producteurs actifs doivent également faire face à une hausse des prix des intrants agricoles. « dans l’ensemble, on s’attend à ce que les producteurs limitent leurs emblavures en raison de la hausse des prix des intrants importés [engrais, pesticides, semences], dont certains sont devenus près de 300 % plus chers en raison de la dévaluation du naira par rapport au dollar américain et à l’euro », peut-on lire dans le rapport.
-il faut noter que la perspective de réduction de la production de maïs pourrait encore ajouter des tensions sur le marché nigérian où l’inflation alimentaire, principal moteur de cette croissance, a atteint 35,41 % en janvier contre 24,32 % un an plus tôt. le prix du kilogramme de maïs jaune vendu en vrac a déjà vu son prix passé à 641 nairas (0,4 $) durant le même mois soit 87 % de plus qu’en 2023 et plus que le double du tarif de 2022 (280 nairas).</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>blé, maïs</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Nigéria</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Le Nigéria approuve la commercialisation du maïs transgénique</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>01-2024</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
         <is>
           <t>(agence ecofin) - le nigéria est le deuxième producteur africain de maïs derrière l’afrique du sud. alors que l’offre locale est instable depuis plusieurs années, les autorités misent sur les progrès de la biotechnologie pour améliorer la productivité.
 au nigéria, le comité national sur la dénomination, l’enregistrement et la dissémination des variétés de cultures, des races de bétail et des pêches (ncnrrcvlf) a approuvé le 11 janvier dernier la commercialisation sur le marché local de 4 variétés du maïs transgénique « tela ».
 il s’agit notamment des variétés « sammaz 72t », « sammaz 73t », « sammaz 74t » et « sammaz 75t ». ces nouvelles variétés sont réputées pour être tolérantes à la sécheresse et particulièrement résistantes aux attaques des principaux ravageurs de la culture, dont le foreur de tige et à la chenille légionnaire d’automne.
 cette décision intervient plus de deux ans après que l’agence nigériane de gestion de la biosécurité (nbma) a délivré un permis à l’institut de recherche agricole (iar) de l’université ahmadu bello pour réaliser la culture en plein air du maïs transgénique à des fins expérimentales.
 selon les autorités, l’adoption des différentes variétés du maïs transgénique devrait permettre aux agriculteurs d’obtenir un rendement pouvant atteindre 10 tonnes par hectare, soit 4 tonnes de plus que la moyenne nationale pour des semences hybrides conventionnelles.
-avec cette autorisation, le maïs devient la 3ème culture transgénique commercialisée chez le géant ouest-africain après le coton bt en 2018 et le niébé en 2019. le nigéria devient également le 3ème pays du continent à commercialiser du maïs génétiquement modifié après l’afrique du sud et l’égypte. le projet de développement de la variété « tela » a été initié en 2018 par un consortium d’acteurs de la recherche, dont bayer, la fondation africaine pour la technologie agricole (aatf) et le centre international d’amélioration du maïs et du blé (cimmyt).
-stéphanas assocle</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>blé, niébé, maïs</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+avec cette autorisation, le maïs devient la 3ème culture transgénique commercialisée chez le géant ouest-africain après le coton bt en 2018 et le niébé en 2019. le nigéria devient également le 3ème pays du continent à commercialiser du maïs génétiquement modifié après l’afrique du sud et l’égypte. 
+le projet de développement de la variété « tela » a été initié en 2018 par un consortium d’acteurs de la recherche, dont bayer, la fondation africaine pour la technologie agricole (aatf) et le centre international d’amélioration du maïs et du blé (cimmyt).
+stéphanas assocle
+lire aussi:
+17/01/2024 - sénégal : les importations de maïs ont atteint un nouveau record en 2022
+17/01/2024 - céréales : le blé et le maïs ont essuyé de fortes baisses en 2023 alors que les prix du riz ont augmenté
+14/12/2023 - zimbabwe : la récolte de maïs devrait chuter de 300 000 tonnes en 2023/2024 en raison du phénomène el niño</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>riz, blé, niébé, maïs</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Bénin</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Bénin : les exportations de soja peuvent désormais démarrer pour le compte de la campagne 2023/2024</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>11-2023</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>(agence ecofin) - au bénin, le soja est la première légumineuse cultivée avec plus de 45 % du volume total. dans la filière, des changements s’annoncent pour la saison 2023/2024.
-au bénin, les acteurs du soja peuvent désormais commercialiser la denrée sur le territoire national et procéder à son exportation dans le cadre de la campagne de commercialisation 2023/2024. c’est ce qu’a indiqué le 16 novembre, le secrétariat général du gouvernement. #gouvbenin | #commercebenin | #wasexo | ? campagne de commercialisation du soja 2023-2024 : les nouvelles mesures du gouvernement au profit des producteurs? lire l'intégralité du communiqué du sgg sur ce lien =&gt; https://t.co/v4i54d0dok pic.twitter.com/pdnyplle7y — gouvernement du bénin ?? (@gouvbenin) november 16, 2023
+au bénin, les acteurs du soja peuvent désormais commercialiser la denrée sur le territoire national et procéder à son exportation dans le cadre de la campagne de commercialisation 2023/2024. c’est ce qu’a indiqué le 16 novembre, le secrétariat général du gouvernement.
+#gouvbenin | #commercebenin | #wasexo | ? campagne de commercialisation du soja 2023-2024 : les nouvelles mesures du gouvernement au profit des producteurs? lire l'intégralité du communiqué du sgg sur ce lien =&gt; https://t.co/v4i54d0dok pic.twitter.com/pdnyplle7y
+— gouvernement du bénin ?? (@gouvbenin) november 16, 2023
 dans le cadre de cette mesure, les autorités soulignent que la commercialisation extérieure se fera sans agrément, mais exclusivement via le port de cotonou. en outre, le prélèvement réalisé à l’export pour contribution à la recherche et à la promotion agricole (cra) a été fixé à 30 fcfa/kg contre 140 fcfa/kg initialement.« les opérations d’achat, de vente, de transport, les prix, les dates de démarrage et de fin des opérations sont librement fixés par les acteurs », souligne le communiqué.
 globalement, cette annonce des autorités pose encore de nombreuses questions parmi les observateurs notamment sur l’application effective de l’interdiction d’exportation de soja sous forme brute à partir du1er avril prochain.la mesure annoncée en octobre 2022 est censée améliorer la valeur ajoutée dans la filière à travers une priorité accordée à l’approvisionnement des usines de transformation.
 dans ce contexte, le gouvernement avait indiqué qu’une période transitoire serait respectée avec « les acteurs possédant un agrément qui devraient prioriser la satisfaction des besoins des industries locales avant de s’orienter vers l’écoulement à l’extérieur de leurs stocks restants sous réserve de l’obtention d’une autorisation expresse ».
-pour rappel, le bénin anticipait 327 000 tonnes de soja en 2022/2023 contre 291 279 tonnes un an plus tôt.</t>
+pour rappel, le bénin anticipait 327 000 tonnes de soja en 2022/2023 contre 291 279 tonnes un an plus tôt.
+lire aussi :
+02/11/2023 - chine : les importations de soja pourraient atteindre 105 millions de tonnes d’ici la fin 2023</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>soja, mil</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Burkina Faso : l’exécutif lance un projet de 16 millions $ pour le développement des filières riz et maïs</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10-2023</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au burkina faso, le riz et le maïs font partie des principales céréales cultivées avec le sorgho et le mil. la région des hauts bassins située dans l’ouest du pays est l’une des principales zones de production. 
+au burkina faso, gaoussou sanou (photo), secrétaire général du ministère de l’agriculture, des ressources animales et halieutiques, a donné le 29 septembre le coup d’envoi du « projet de développement intégré des chaînes de valeurs agricoles » (pdi-cva).
+ce programme gouvernemental qui cible principalement les filières riz et maïs sera mis en œuvre dans la région des hauts-bassins sur une durée de 5 ans couvrant la période 2023-2028. d’un coût total de 10 milliards de francs cfa (16,1 millions $), il est financé à hauteur de 84 % par la banque islamique de développement (bid).
+les interventions portent notamment sur l’aménagement de 729 hectares de terres agricoles, de 32 km de route, la construction de 10 serres agricoles, d’unités d’étuvage de riz, de transformation de maïs et de magasins de stockage.
+d’après boukary sawadogo, coordonnateur du projet, cette initiative devrait également permettre la création d’au moins 28 000 emplois directs et indirects au profit des jeunes et des femmes. plus largement le pdi-cva devrait contribuer à la réalisation des objectifs du plan « offensive agro-pastorale et halieutique 2023-2025 » annoncé par l’exécutif en août dernier.
+au burkina faso, le maïs est la deuxième céréale cultivée après le sorgho avec une production d’environ 1,8 million de tonnes par an, soit 90 % des besoins de consommation qui s’élèvent à plus de 2 millions de tonnes, d’après les données du département américain de l’agriculture (usda).
+en ce qui concerne le riz, le pays d’afrique de l’ouest dépend encore à hauteur de 60 % des importations pour la couverture de ses besoins en riz blanchi qui tournent autour de 1 million de tonnes par an. les brisures de riz représentent d’ailleurs le premier produit agricole d’importation du pays avec des achats qui ont totalisé 71,4 milliards de francs cfa (115,2 millions $) en 2022, selon les données de l’institut national de la statistique et de la démographie (insd).
+stéphanas assocle
+lire aussi:
+25/09/2023 - burkina faso : bobo-dioulasso abritera une unité de transformation de tomates de 8 millions $
+31/08/2023 - burkina faso : l’exécutif annonce une stratégie de 981 millions $ pour la souveraineté alimentaire
+https://www.agenceecofin.com/analyse/1907-110445-le-burkina-faso-face-au-defi-de-l-augmentation-de-la-demande-de-riz</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>riz, sorgho, maïs, mil</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Guinée</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Guinée-Bissau : l’exécutif revoit à la baisse les prix du riz et de la farine de blé</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>09-2023</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - en afrique de l’ouest, les céréales constituent la base de l’alimentation des populations de la sous-région. en guinée-bissau, la disponibilité et l’accessibilité du riz principale céréale consommée est cruciale pour assurer la sécurité alimentaire dans le pays.
+en guinée-bissau, l’exécutif a revu à la baisse les prix de certaines denrées de première nécessité, dont le riz et la farine de blé. c’est ce qu’a révélé jamel joao handem, ministre du commerce le 18 septembre dernier.
+dans les détails, le prix du sac de 50 kg de riz brisé 100 % sera désormais commercialisé à 17 500 fcfa (28,4 $), soit 22 % de moins que le tarif de 22 500 fcfa (36,5 $) en vigueur précédemment tandis que le prix du sac de 50 kg de riz avec 5 % de brisure a été fixé à 22 500 fcfa (36,5 $) contre 24 000 fcfa (38,9 $) précédemment.  
+en ce qui concerne la farine de blé, le sac de 50 kg sera échangé à 24 600 francs cfa (39,9 $), soit une baisse de 15 % par rapport au tarif de 29 000 francs cfa (47 $) appliqué précédemment. selon m. handem cette décision vise à « amortir les charges qui pèsent sur le quotidien de la population » alors que le pays est en proie à une crise alimentaire.
+d’après joao manja, représentant résident du programme alimentaire mondial (pam) en guinée-bissau, les données de la dernière enquête de surveillance de la sécurité alimentaire et nutritionnelle effectuée dans le pays indiquent que plus de 380 000 personnes sont en situation d’insécurité alimentaire. 
+il faut rappeler que la guinée-bissau affiche l’un des plus grands niveaux de consommation de riz par habitant de la sous-région ouest-africaine, avec plus de 100 kg par an.
+stéphanas assocle
+lire aussi:
+19/09/2023 - la côte d'ivoire suspend les exportations de riz et de sucre pour lutter contre la flambée des prix</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>soja</t>
+          <t>riz, blé</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Burkina Faso : l’exécutif lance un projet de 16 millions $ pour le développement des filières riz et maïs</t>
+          <t>Togo Soja, l’usine de transformation de la Plateforme industrielle d’Adetikope est désormais opérationnelle</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10-2023</t>
+          <t>09-2023</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(agence ecofin) - au burkina faso, le riz et le maïs font partie des principales céréales cultivées avec le sorgho et le mil. la région des hauts bassins située dans l’ouest du pays est l’une des principales zones de production. au burkina faso, gaoussou sanou (photo), secrétaire général du ministère de l’agriculture, des ressources animales et halieutiques, a donné le 29 septembre le coup d’envoi du « projet de développement intégré des chaînes de valeurs agricoles » (pdi-cva).
-ce programme gouvernemental qui cible principalement les filières riz et maïs sera mis en œuvre dans la région des hauts-bassins sur une durée de 5 ans couvrant la période 2023-2028. d’un coût total de 10 de francs cfa (16,1 $), il est financé à hauteur de 84 % par la banque islamique de développement (bid).
-les interventions portent notamment sur l’aménagement de 729 hectares de terres agricoles, de 32 km de route, la construction de 10 serres agricoles, d’unités d’étuvage de riz, de transformation de maïs et de magasins de stockage.
-d’après boukary sawadogo, coordonnateur du projet, cette initiative devrait également permettre la création d’au moins 28 000 emplois directs et indirects au profit des jeunes et des femmes. plus largement le pdi-cva devrait contribuer à la réalisation des objectifs du plan « offensive agro-pastorale et halieutique 2023-2025 » annoncé par l’exécutif en août dernier.
-au burkina faso, le maïs est la deuxième céréale cultivée après le sorgho avec une production d’environ 1,8 de tonnes par an, soit 90 % des besoins de consommation qui s’élèvent à plus de 2 de tonnes, d’après les données du département américain de l’agriculture (usda).
-en ce qui concerne le riz, le pays d’afrique de l’ouest dépend encore à hauteur de 60 % des importations pour la couverture de ses besoins en riz blanchi qui tournent autour de 1 de tonnes par an. les brisures de riz représentent d’ailleurs le premier produit agricole d’importation du pays avec des achats qui ont totalisé 71,4 de francs cfa (115,2 $) en 2022, selon les données de l’institut national de la statistique et de la démographie (insd).
-stéphanas assocle</t>
+          <t>(agence ecofin) - le gouvernement togolais multiplie les actions et initiatives en faveur de la filière soja, dont veut manifestement faire un pilier de sa politique agricole au cours des années à venir.
+la plateforme industrielle d’adetikope (pia) au togo a annoncé l'opérationnalisation de la plus grande usine de transformation de soja du pays, baptisée togo soja.
+« en ayant atteint avec succès notre premier objectif de produire 50 000 tonnes de soja, ce projet démontre notre engagement envers la vision du gouvernement en faveur de l’industrialisation du togo » relaie togofirst.
+le gouvernement togolais vient de relever un défi important dans l’agro-alimentaire, avec la mise en service ce 31 août 2023, de l’usine de transformation du soja, dénommée ‘’togo soja’’.les précisions dans le document ci-dessous ?? pic.twitter.com/gzzjz5n7nn
+— présidence togolaise/togolese presidency (@presidencetg) september 2, 2023
+le soja transformé devrait être exporté vers la sous-région et dans le monde. ayant coûté un investissement total de 25 millions usd (environ 15,2 milliards fcfa), togo soja est dotée de 2 unités de transformation qui serviront à produire non seulement de l’huile de soja, mais aussi des tourteaux et autres produits dérivés qui seront fournis aux producteurs comme fertilisants.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>riz, sorgho, maïs, mil</t>
+          <t>soja, mil</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Guinée</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Guinée-Bissau : l’exécutif revoit à la baisse les prix du riz et de la farine de blé</t>
+          <t>Burkina Faso : l’Observatoire national du riz entre en service</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>09-2023</t>
+          <t>07-2023</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
-        <is>
-          <t>(agence ecofin) - en afrique de l’ouest, les céréales constituent la base de l’alimentation des populations de la sous-région. en guinée-bissau, la disponibilité et l’accessibilité du riz principale céréale consommée est cruciale pour assurer la sécurité alimentaire dans le pays.
-en guinée-bissau, l’exécutif a revu à la baisse les prix de certaines denrées de première nécessité, dont le riz et la farine de blé. c’est ce qu’a révélé jamel joao handem, ministre du commerce le 18 septembre dernier.
-dans les détails, le prix du sac de 50 kg de riz brisé 100 % sera désormais commercialisé à 17 500 fcfa (28,4 $), soit 22 % de moins que le tarif de 22 500 fcfa (36,5 $) en vigueur précédemment tandis que le prix du sac de 50 kg de riz avec 5 % de brisure a été fixé à 22 500 fcfa (36,5 $) contre 24 000 fcfa (38,9 $) précédemment. en ce qui concerne la farine de blé, le sac de 50 kg sera échangé à 24 600 francs cfa (39,9 $), soit une baisse de 15 % par rapport au tarif de 29 000 francs cfa (47 $) appliqué précédemment. selon m. handem cette décision vise à « amortir les charges qui pèsent sur le quotidien de la population » alors que le pays est en proie à une crise alimentaire.
-d’après joao manja, représentant résident du programme alimentaire mondial (pam) en guinée-bissau, les données de la dernière enquête de surveillance de la sécurité alimentaire et nutritionnelle effectuée dans le pays indiquent que plus de 380 000 personnes sont en situation d’insécurité alimentaire. il faut rappeler que la guinée-bissau affiche l’un des plus grands niveaux de consommation de riz par habitant de la sous-région ouest-africaine, avec plus de 100 kg par an.
-stéphanas assocle</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>riz, blé</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Togo Soja, l’usine de transformation de la Plateforme industrielle d’Adetikope est désormais opérationnelle</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>09-2023</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>(agence ecofin) - le gouvernement togolais multiplie les actions et initiatives en faveur de la filière soja, dont veut manifestement faire un pilier de sa politique agricole au cours des années à venir.
-la plateforme industrielle d’adetikope (pia) au togo a annoncé l'opérationnalisation de la plus grande usine de transformation de soja du pays, baptisée togo soja. « en ayant atteint avec succès notre premier objectif de produire 50 000 tonnes de soja, ce projet démontre notre engagement envers la vision du gouvernement en faveur de l’industrialisation du togo » relaie togofirst. le gouvernement togolais vient de relever un défi important dans l’agro-alimentaire, avec la mise en service ce 31 août 2023, de l’usine de transformation du soja, dénommée ‘’togo soja’’.les précisions dans le document ci-dessous ?? pic.twitter.com/gzzjz5n7nn — présidence togolaise/togolese presidency (@presidencetg) september 2, 2023
-le soja transformé devrait être exporté vers la sous-région et dans le monde. ayant coûté un investissement total de 25 usd (environ 15,2 fcfa), togo soja est dotée de 2 unités de transformation qui serviront à produire non seulement de l’huile de soja, mais aussi des tourteaux et autres produits dérivés qui seront fournis aux producteurs comme fertilisants.</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>soja</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Burkina Faso</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Burkina Faso : l’Observatoire national du riz entre en service</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>07-2023</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
         <is>
           <t>(agence ecofin) - au burkina faso, le riz est le 3ème produit de grande consommation le plus importé après les hydrocarbures et les médicaments essentiels. dans le pays, l’industrie locale est confrontée à de nombreux défis qui limitent la production de la céréale.
 au burkina faso, l’observatoire national du riz (onar-bf) a été officiellement mis en place au cours d’une cérémonie de lancement qui s’est tenue le 25 juillet, rapporte le quotidien local lefaso.net.
 ce nouvel organisme public est mandaté pour accompagner l’ensemble des parties prenantes impliquées dans la filière riz, dont les pouvoirs publics, le secteur privé et les partenaires au développement, à mieux coordonner les politiques, le financement et la recherche, afin de renforcer les synergies pour une meilleure compétitivité du riz local.
 « de façon concrète, l’onar-bf devrait permettre d’aligner les priorités de développement du secteur rizicole burkinabè qui portent essentiellement sur l’accroissement durable de la production, l’amélioration de la compétitivité et de la qualité du riz ainsi que le renforcement des capacités des acteurs nationaux, afin qu’ils soient à la hauteur des enjeux de la filière riz », explique gaoussou sanou, secrétaire général du ministère de l’agriculture.
-d’après les données compilées sur la plateforme trademap, le pays a importé pour plus de 138 $ de la denrée sur le marché international en vue de combler son déficit de production en 2022.
-stéphanas assocle</t>
+d’après les données compilées sur la plateforme trademap, le pays a importé pour plus de 138 millions $ de la denrée sur le marché international en vue de combler son déficit de production en 2022.
+stéphanas assocle 
+lire aussi:
+19/07/2023 - le burkina faso face au défi de l’augmentation de la demande de riz</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>riz, mil</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Le Burkina Faso face au défi de l’augmentation de la demande de riz</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>07-2023</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - sur la dernière décennie, le riz a gagné en importance dans les ménages burkinabè devant peu à peu un composant essentiel de la ration alimentaire quotidienne. un tel contexte met sous pression l’appareil productif qui doit s’adapter à cette situation impulsée notamment par l’urbanisation et la croissance démographique.  
+si au burkina faso, le riz est la 4ème céréale la plus produite derrière le sorgho, le mil et le maïs, elle est la denrée de base dont la croissance de l’utilisation est la plus importante depuis quelques années. selon les données du département américain de l’agriculture (usda) consultées par l’agence ecofin, la consommation a augmenté au total de près de 300 000 tonnes entre 2015 et 2022.
+la céréale est de plus en plus plébiscitée dans les principaux centres urbains de bobo-dioulasso et de ouagadougou avec une préférence de moins en moins marquée pour les graminées traditionnelles.
+sur le plan national, la consommation frôle les 1 million de tonnes chaque année avec un volume par tête qui dépasse désormais les 60 kg d’après l’usda. un niveau inférieur à celui de pays comme la côte d’ivoire ou la gambie (117 kg), mais qui dépasse celui du ghana estimé à 43 kg par an.
+des importations en hausse 
+avec la dynamique de sa consommation et la faiblesse de l’offre locale, le riz est devenu sur la dernière décennie, la principale céréale importée. d’après les statistiques de l’usda, les achats de riz blanchi du pays ont presque doublé entre 2015/2016 et 2022/2023 passant de 350 000 tonnes à 600 000 tonnes. un tel volume fait du pays, le 6ème importateur de la région derrière le nigéria, la côte d’ivoire, le sénégal, la guinée et le ghana.                                 
+cette dépendance vis-à-vis de l’extérieur qui permet de satisfaire près de 60 % des besoins nationaux a un coût financier important. d’après les données de la direction générale du commerce consultées par l’agence ecofin, les achats de riz ont ainsi coûté en moyenne annuellement 68 milliards fcfa sur la période 2016-2020, ce qui en fait le 3ème produit de grande consommation le plus importé après les hydrocarbures et les médicaments essentiels.
+une production qui doit suivre le rythme
+au burkina faso, le riz représente encore moins de 10 % de l’offre céréalière. à l’heure où d’après certaines prévisions des autorités, la demande nationale pourrait grimper à 1,5 million de tonnes dès 2025, les observateurs soulignent que la filière a encore une énorme marge de progression.      
+en effet, si actuellement la production de riz paddy avoisine les 520 000 tonnes sur seulement 230 000 hectares, la filière peut compter sur la forte disponibilité des terres cultivables pour combler le gap dans les prochaines années.
+selon les données officielles, le pays dispose d’un potentiel d’environ 500 000 hectares de bas-fonds et de plus de 233 500 hectares de terres irrigables pouvant servir à la culture du riz. sur ce total, la fao rapporte que seulement 10 % des bas-fonds et moins de 5 % des superficies irrigables sont mis en valeur.
+il s’agit pour les acteurs privés d’une véritable opportunité pour accroître la performance de la filière avec des investissements dans les aménagements pour améliorer les rendements aussi bien en riziculture irriguée que de bas-fonds notamment dans les trois régions les plus importantes pour le riz (hauts-bassins, cascades, boucle du mouhoun).
+d’après la fao, la productivité moyenne varie dans les deux systèmes de culture respectivement de 5 tonnes/ha à 2,6 tonnes/ha contre des potentiels de 9 tonnes et de 4 tonnes à l’hectare.  
+lire aussi :
+17/07/2023 - afrique subsaharienne : la production rizicole pourrait atteindre un nouveau record en 2023/2024</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>blé, maïs, riz, sorgho, mil</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Niger</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Le Niger interdit les exportations de mil et de riz jusqu’à nouvel ordre</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>07-2023</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au niger, les céréales constituent la base de l’alimentation de la population. alors que le marché mondial de cette catégorie de denrées s’apprête à connaitre de nouveaux troubles, l’exécutif prend déjà des dispositions pour en assurer la disponibilité sur le marché local. 
+au niger, le ministère du commerce intérieur a publié le 21 juillet dernier un arrêté interdisant jusqu’à nouvel ordre les exportations de deux céréales de base, en l’occurrence le mil et le riz. « les agents du ministère du commerce, les agents des douanes, les forces de défense et de sécurité, sont habilités à constater et réprimer les infractions aux dispositions du présent arrêté conformément aux textes en vigueur », peut-on lire dans le document.
+selon l’organisme public, cette initiative vise à assurer l’approvisionnement régulier du marché national et devrait permettre de juguler les risques d’inflations des produits alimentaires. il faut noter qu’avec une production annuelle de 3,6 millions de tonnes, le mil est la première céréale cultivée au niger ainsi que la première céréale consommée avec une demande intérieure avoisinant les 3,1 millions de tonnes par an.
+en ce qui concerne le riz, le pays dépend à hauteur de 80 % des importations pour satisfaire ses besoins de consommation qui se chiffre à plus de 500 000 tonnes de riz blanchi par an alors qu’il n’en produit que 83 000 tonnes.
+par ailleurs, l’annonce intervient alors que le marché mondial des céréales devrait connaitre de nouvelles perturbations notamment avec les décisions de la russie le 17 juillet de se retirer de l’accord sur l'initiative céréalière de la mère noir d’un côté et celle de l’inde premier exportateur mondial de riz, le 20 juillet de restreindre de près de 45 % ses expéditions de la céréale.
+stéphanas assocle 
+lire aussi:
+21/07/2023 - inde : après le riz brisé, les expéditions de riz blanc non-basmati sont désormais suspendues</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>riz</t>
+          <t>riz, mil</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Le Niger interdit les exportations de mil et de riz jusqu’à nouvel ordre</t>
+          <t>Sierra Leone : la FAO et le Vietnam s’associent pour soutenir la filière rizicole</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>07-2023</t>
+          <t>06-2023</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(agence ecofin) - au niger, les céréales constituent la base de l’alimentation de la population. alors que le marché mondial de cette catégorie de denrées s’apprête à connaitre de nouveaux troubles, l’exécutif prend déjà des dispositions pour en assurer la disponibilité sur le marché local. au niger, le ministère du commerce intérieur a publié le 21 juillet dernier un arrêté interdisant jusqu’à nouvel ordre les exportations de deux céréales de base, en l’occurrence le mil et le riz. « les agents du ministère du commerce, les agents des douanes, les forces de défense et de sécurité, sont habilités à constater et réprimer les infractions aux dispositions du présent arrêté conformément aux textes en vigueur », peut-on lire dans le document.
-selon l’organisme public, cette initiative vise à assurer l’approvisionnement régulier du marché national et devrait permettre de juguler les risques d’inflations des produits alimentaires. il faut noter qu’avec une production annuelle de 3,6 de tonnes, le mil est la première céréale cultivée au niger ainsi que la première céréale consommée avec une demande intérieure avoisinant les 3,1 de tonnes par an.
-en ce qui concerne le riz, le pays dépend à hauteur de 80 % des importations pour satisfaire ses besoins de consommation qui se chiffre à plus de 500 000 tonnes de riz blanchi par an alors qu’il n’en produit que 83 000 tonnes.
-par ailleurs, l’annonce intervient alors que le marché mondial des céréales devrait connaitre de nouvelles perturbations notamment avec les décisions de la russie le 17 juillet de se retirer de l’accord sur l'initiative céréalière de la mère noir d’un côté et celle de l’inde premier exportateur mondial de riz, le 20 juillet de restreindre de près de 45 % ses expéditions de la céréale.
-stéphanas assocle</t>
+          <t>(agence ecofin) - en sierra leone, le riz est un produit de grande consommation. le pays qui cible l’autosuffisance dans la denrée multiplie les coopérations internationales pour améliorer le niveau de sa production. 
+en sierra leone, abu bakarr karim, ministre de l’agriculture, des forêts et de la sécurité alimentaire a signé le 9 juin un accord avec saeed abubakar bancie, représentant-pays de la fao, pour la mise en œuvre en collaboration avec le vietnam d’un programme visant à renforcer la filière rizicole. l’annonce a été faite dans un communiqué publié sur le site de l’organisme onusien.
+today, the government of sierra leone @gosl signed a tripartite agreement #tpa with the food and agriculture organization @fao, to facilitate a south-south cooperation project with vietnam to strengthen the rice value chain in sierra leone. pic.twitter.com/cc44h48mmu
+— fao in sierra leone (@faosierraleone) june 9, 2023
+d’un coût total de 5 millions $, ce nouveau programme s’étendra sur une période de 4 ans. il devrait permettre selon les responsables d’aider les différents acteurs de la filière sierra-léonaise à accroître leur productivité et leur production de riz grâce à un meilleur accès aux technologies améliorées et à la transposition à plus grande échelle des meilleures pratiques tout au long de la chaîne de valeur.
+« des experts et des techniciens spécialisés dans la production de riz, l’irrigation, la sélection du riz, la mécanisation et la gestion post-récolte seront déployés sur différents sites nationaux, y compris des stations de recherche. en outre, des initiatives de renforcement des capacités telles que des voyages d’études, des formations sur le terrain et des formations de formateurs seront mises en œuvre pour renforcer les capacités des parties prenantes locales », peut-on lire dans le communiqué.
+dans le cadre de ce partenariat tripartite, le vietnam, 5ème producteur mondial de riz blanchi et 3ème fournisseur du continent africain après l’inde et la thaïlande, s’engage à mettre à contribution son expertise dans le secteur.
+en sierra leone, la culture du riz est réalisée sur une superficie de plus de 820 000 hectares. dans le pays, la production locale de riz blanchi couvre environ 70 % des besoins de consommation qui sont évalués à plus de 1,4 million de tonnes par an d’après les données de l’usda.
+stéphanas assocle 
+lire aussi : 
+02/06/2023 - nigeria : tingo mobile accorde 6,5 millions $ pour financer la production de riz et de blé
+01/06/2023 - en 2022, l’afrique a importé pour près de 570 millions $ de riz depuis le vietnam</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>riz, mil</t>
+          <t>riz, blé, mil</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Le Burkina Faso face au défi de l’augmentation de la demande de riz</t>
+          <t>Guinness Ghana Breweries et SNV lancent un plan quinquennal pour la production locale de sorgho</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>07-2023</t>
+          <t>06-2023</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(agence ecofin) - sur la dernière décennie, le riz a gagné en importance dans les ménages burkinabè devant peu à peu un composant essentiel de la ration alimentaire quotidienne. un tel contexte met sous pression l’appareil productif qui doit s’adapter à cette situation impulsée notamment par l’urbanisation et la croissance démographique. si au burkina faso, le riz est la 4ème céréale la plus produite derrière le sorgho, le mil et le maïs, elle est la denrée de base dont la croissance de l’utilisation est la plus importante depuis quelques années. selon les données du département américain de l’agriculture (usda) consultées par l’agence ecofin, la consommation a augmenté au total de près de 300 000 tonnes entre 2015 et 2022.
-la céréale est de plus en plus plébiscitée dans les principaux centres urbains de bobo-dioulasso et de ouagadougou avec une préférence de moins en moins marquée pour les graminées traditionnelles.
-sur le plan national, la consommation frôle les 1 de tonnes chaque année avec un volume par tête qui dépasse désormais les 60 kg d’après l’usda. un niveau inférieur à celui de pays comme la côte d’ivoire ou la gambie (117 kg), mais qui dépasse celui du ghana estimé à 43 kg par an.
-des importations en hausse avec la dynamique de sa consommation et la faiblesse de l’offre locale, le riz est devenu sur la dernière décennie, la principale céréale importée. d’après les statistiques de l’usda, les achats de riz blanchi du pays ont presque doublé entre 2015/2016 et 2022/2023 passant de 350 000 tonnes à 600 000 tonnes. un tel volume fait du pays, le 6ème importateur de la région derrière le nigéria, la côte d’ivoire, le sénégal, la guinée et le ghana. cette dépendance vis-à-vis de l’extérieur qui permet de satisfaire près de 60 % des besoins nationaux a un coût financier important. d’après les données de la direction générale du commerce consultées par l’agence ecofin, les achats de riz ont ainsi coûté en moyenne annuellement 68 fcfa sur la période 2016-2020, ce qui en fait le 3ème produit de grande consommation le plus importé après les hydrocarbures et les médicaments essentiels.
-une production qui doit suivre le rythme
-au burkina faso, le riz représente encore moins de 10 % de l’offre céréalière. à l’heure où d’après certaines prévisions des autorités, la demande nationale pourrait grimper à 1,5 de tonnes dès 2025, les observateurs soulignent que la filière a encore une énorme marge de progression. en effet, si actuellement la production de riz paddy avoisine les 520 000 tonnes sur seulement 230 000 hectares, la filière peut compter sur la forte disponibilité des terres cultivables pour combler le gap dans les prochaines années.
-selon les données officielles, le pays dispose d’un potentiel d’environ 500 000 hectares de bas-fonds et de plus de 233 500 hectares de terres irrigables pouvant servir à la culture du riz. sur ce total, la fao rapporte que seulement 10 % des bas-fonds et moins de 5 % des superficies irrigables sont mis en valeur.
-il s’agit pour les acteurs privés d’une véritable opportunité pour accroître la performance de la filière avec des investissements dans les aménagements pour améliorer les rendements aussi bien en riziculture irriguée que de bas-fonds notamment dans les trois régions les plus importantes pour le riz (hauts-bassins, cascades, boucle du mouhoun).
-d’après la fao, la productivité moyenne varie dans les deux systèmes de culture respectivement de 5 tonnes/ha à 2,6 tonnes/ha contre des potentiels de 9 tonnes et de 4 tonnes à l’hectare.</t>
+          <t>(agence ecofin) - au ghana, le sorgho est la troisième céréale cultivée après le maïs et le riz. alors que le pays produit la denrée presque autant qu’il n’en consomme, la filière peine à couvrir la demande de plus en plus croissante de la céréale dans l’industrie brassicole. 
+guinness ghana breweries (ggb plc), la filiale locale du géant britannique des boissons diageo vient de lancer un programme de 5 ans en collaboration avec l’organisation néerlandaise de développement (snv) pour améliorer son approvisionnement en sorgho auprès des agriculteurs.  
+dénommé « partnership for sustainable sorghum sourcing in ghana » (p3sg), ce nouveau projet sera mis en œuvre entre 2023 et 2028 et permettra selon les autorités d’aider plus de 12 500 petits exploitants agricoles à produire 72 375 tonnes de sorgho au cours de la période considérée.
+selon les détails relayés par le quotidien local ghanaian times le 23 juin dernier, la snv mettra à contribution son expertise dans le renforcement des systèmes agroalimentaires. les interventions prévues dans le cadre du p3sg porteront entre autres sur la réorganisation des agriculteurs opérant dans la filière, l’amélioration des contrats de production ou encore la mise œuvre de formation sur les techniques de production améliorée de sorgho.
+« actuellement, l’incapacité des agriculteurs à répondre à notre demande de sorgho découle de faibles rendements résultant d’un accès inadéquat aux ressources de production, y compris les semences améliorées, les intrants agricoles, tels que les engrais, les services financiers pour l’investissement dans la production, et les variations climatiques », a déclaré hélène weesie, directrice générale de la ggb.
+pour rappel, la compagnie met en œuvre actuellement un programme d’approvisionnement qui implique près de 30 000 producteurs auprès desquels elle achète 55 % de ses matières premières, dont le sorgho, le maïs et le manioc. elle a réalisé un chiffre d’affaires de 1,3 milliard de cédis (113,5 millions $) et un profit de 5,3 millions de cédis (463 000 $) durant son exercice financier 2022. 
+lire aussi : 
+20/06/2023 - sorgho : les usa devraient détrôner le nigeria pour redevenir le premier producteur mondial en 2023/2024
+09/06/2023 - face aux changements climatiques, le sorgho pourrait être un atout majeur dans le futur</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>blé, maïs, riz, sorgho, mil</t>
+          <t>riz, sorgho, maïs, mil</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1114,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Guinness Ghana Breweries et SNV lancent un plan quinquennal pour la production locale de sorgho</t>
+          <t>Ghana : avec près de 368 000 tonnes, la production de niébé a atteint en 2022, un niveau historique</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1026,142 +1124,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(agence ecofin) - au ghana, le sorgho est la troisième céréale cultivée après le maïs et le riz. alors que le pays produit la denrée presque autant qu’il n’en consomme, la filière peine à couvrir la demande de plus en plus croissante de la céréale dans l’industrie brassicole. guinness ghana breweries (ggb plc), la filiale locale du géant britannique des boissons diageo vient de lancer un programme de 5 ans en collaboration avec l’organisation néerlandaise de développement (snv) pour améliorer son approvisionnement en sorgho auprès des agriculteurs. dénommé « partnership for sustainable sorghum sourcing in ghana » (p3sg), ce nouveau projet sera mis en œuvre entre 2023 et 2028 et permettra selon les autorités d’aider plus de 12 500 petits exploitants agricoles à produire 72 375 tonnes de sorgho au cours de la période considérée.
-selon les détails relayés par le quotidien local ghanaian times le 23 juin dernier, la snv mettra à contribution son expertise dans le renforcement des systèmes agroalimentaires. les interventions prévues dans le cadre du p3sg porteront entre autres sur la réorganisation des agriculteurs opérant dans la filière, l’amélioration des contrats de production ou encore la mise œuvre de formation sur les techniques de production améliorée de sorgho.
-« actuellement, l’incapacité des agriculteurs à répondre à notre demande de sorgho découle de faibles rendements résultant d’un accès inadéquat aux ressources de production, y compris les semences améliorées, les intrants agricoles, tels que les engrais, les services financiers pour l’investissement dans la production, et les variations climatiques », a déclaré hélène weesie, directrice générale de la ggb.
-pour rappel, la compagnie met en œuvre actuellement un programme d’approvisionnement qui implique près de 30 000 producteurs auprès desquels elle achète 55 % de ses matières premières, dont le sorgho, le maïs et le manioc. elle a réalisé un chiffre d’affaires de 1,3 de cédis (113,5 $) et un profit de 5,3 de cédis (463 000 $) durant son exercice financier 2022.</t>
+          <t>(agence ecofin) - en afrique de l’ouest, les légumineuses représentent une importance source de protéines pour les populations à bas revenus. dans plusieurs pays de la région, elles permettent une diversification des rations alimentaires et participent à la sécurité alimentaire. 
+au ghana, l’année 2022 a été historique pour la filière niébé. selon les données officielles relayées par le département américain de l’agriculture (usda), la production s’est en effet établie à 367 787 tonnes, soit le plus important volume jamais enregistré.       
+ce niveau record vient couronner une décennie de développement de cette culture qui aura vu la récolte progresser de 5 % en moyenne par an entre 2012 et 2022 d’après les calculs de l’agence ecofin. dans le pays d’afrique de l’ouest, cette tendance positive de l’appareil productif a été d’abord portée par l’essor de la consommation du niébé.
+il s’agit en effet de la légumineuse la plus nutritive étant donné sa forte teneur en protéines et en énergies. ces différentes caractéristiques couplées à son accessibilité économique en font une denrée de choix pour de nombreux ménages à bas revenu aussi bien en milieu urbain que rural.
+réduite en farine ou en semoule, le niébé peut ainsi servir à la fabrication de pain ou peut être préparé sous forme de bouillie ou être associé à des céréales comme le riz. au ghana, la consommation annuelle globale est estimée 325 000 tonnes pour une utilisation par tête atteignant les 10 kg par an.
+le niébé bt, un coup d’accélérateur au développement de la filière ? 
+ces dernières décennies, la croissance de la filière s’est faite en dépit des nombreuses contraintes liées aux ravageurs de la légumineuse dont le principal est le foreur de gousses « maruca vitrata ». 
+l’insecte lépidoptère (papillon) qui peut réduire les rendements de 20 à 80 % selon la sévérité des attaques est une menace majeure pour la culture de la denrée qui s’effectue principalement dans les régions du nord, du nord est, du haut-ghana occidental, du haut-ghana oriental et de savannah. 
+dans un tel contexte, il faut noter que les autorités ont donné en juin 2022, le feu vert au niébé génétiquement modifié (niébé bt) pour la culture et l’alimentation humaine et animale. comme détaillé dans un des rapports ecofin pro revenant sur l’état du marché des ogm en afrique de l’ouest, cette approbation de l’autorité nationale de biosécurité (nba) pourrait changer la donne dans la filière.
+actuellement les producteurs doivent traiter les champs avec les insecticides entre 8 et 12 fois durant un cycle de culture s’étalant sur 3 mois. ce nombre d’applications pourrait être divisé par 3 avec la nouvelle variété. une situation qui devrait réduire les coûts de production chez les exploitants et leur permettre d’investir dans le développement de leurs exploitations.
+dans un tel contexte, plusieurs analystes pronostiquent déjà une hausse de la récolte dans les prochaines années dans l’hypothèse d’un accès massif des producteurs au niébé bt. il faut noter que le ghana n’est pas le premier pays en afrique de l’ouest à miser sur le niébé bt. déjà en 2019, le nigéria est devenu le premier pays à approuver la culture de la légumineuse génétiquement modifiée. 
+espoir olodo 
+lire aussi :
+17/05/2023 - l’ue pourrait interdire les importations de niébé en provenance de madagascar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>riz, sorgho, maïs</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sierra Leone</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Sierra Leone : la FAO et le Vietnam s’associent pour soutenir la filière rizicole</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>06-2023</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>(agence ecofin) - en sierra leone, le riz est un produit de grande consommation. le pays qui cible l’autosuffisance dans la denrée multiplie les coopérations internationales pour améliorer le niveau de sa production. en sierra leone, abu bakarr karim, ministre de l’agriculture, des forêts et de la sécurité alimentaire a signé le 9 juin un accord avec saeed abubakar bancie, représentant-pays de la fao, pour la mise en œuvre en collaboration avec le vietnam d’un programme visant à renforcer la filière rizicole. l’annonce a été faite dans un communiqué publié sur le site de l’organisme onusien. today, the government of sierra leone @gosl signed a tripartite agreement #tpa with the food and agriculture organization @fao, to facilitate a south-south cooperation project with vietnam to strengthen the rice value chain in sierra leone. pic.twitter.com/cc44h48mmu — fao in sierra leone (@faosierraleone) june 9, 2023
-d’un coût total de 5 $, ce nouveau programme s’étendra sur une période de 4 ans. il devrait permettre selon les responsables d’aider les différents acteurs de la filière sierra-léonaise à accroître leur productivité et leur production de riz grâce à un meilleur accès aux technologies améliorées et à la transposition à plus grande échelle des meilleures pratiques tout au long de la chaîne de valeur.
-« des experts et des techniciens spécialisés dans la production de riz, l’irrigation, la sélection du riz, la mécanisation et la gestion post-récolte seront déployés sur différents sites nationaux, y compris des stations de recherche. en outre, des initiatives de renforcement des capacités telles que des voyages d’études, des formations sur le terrain et des formations de formateurs seront mises en œuvre pour renforcer les capacités des parties prenantes locales », peut-on lire dans le communiqué.
-dans le cadre de ce partenariat tripartite, le vietnam, 5ème producteur mondial de riz blanchi et 3ème fournisseur du continent africain après l’inde et la thaïlande, s’engage à mettre à contribution son expertise dans le secteur.
-en sierra leone, la culture du riz est réalisée sur une superficie de plus de 820 000 hectares. dans le pays, la production locale de riz blanchi couvre environ 70 % des besoins de consommation qui sont évalués à plus de 1,4 de tonnes par an d’après les données de l’usda.
-stéphanas assocle</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>riz</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Ghana : avec près de 368 000 tonnes, la production de niébé a atteint en 2022, un niveau historique</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>06-2023</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>(agence ecofin) - en afrique de l’ouest, les légumineuses représentent une importance source de protéines pour les populations à bas revenus. dans plusieurs pays de la région, elles permettent une diversification des rations alimentaires et participent à la sécurité alimentaire. au ghana, l’année 2022 a été historique pour la filière niébé. selon les données officielles relayées par le département américain de l’agriculture (usda), la production s’est en effet établie à 367 787 tonnes, soit le plus important volume jamais enregistré. ce niveau record vient couronner une décennie de développement de cette culture qui aura vu la récolte progresser de 5 % en moyenne par an entre 2012 et 2022 d’après les calculs de l’agence ecofin. dans le pays d’afrique de l’ouest, cette tendance positive de l’appareil productif a été d’abord portée par l’essor de la consommation du niébé.
-il s’agit en effet de la légumineuse la plus nutritive étant donné sa forte teneur en protéines et en énergies. ces différentes caractéristiques couplées à son accessibilité économique en font une denrée de choix pour de nombreux ménages à bas revenu aussi bien en urbain que rural.
-réduite en farine ou en semoule, le niébé peut ainsi servir à la fabrication de pain ou peut être préparé sous forme de bouillie ou être associé à des céréales comme le riz. au ghana, la consommation annuelle globale est estimée 325 000 tonnes pour une utilisation par tête atteignant les 10 kg par an.
-le niébé bt, un coup d’accélérateur au développement de la filière ? ces dernières décennies, la croissance de la filière s’est faite en dépit des nombreuses contraintes liées aux ravageurs de la légumineuse dont le principal est le foreur de gousses « maruca vitrata ». l’insecte lépidoptère (papillon) qui peut réduire les rendements de 20 à 80 % selon la sévérité des attaques est une menace majeure pour la culture de la denrée qui s’effectue principalement dans les régions du nord, du nord est, du haut-ghana occidental, du haut-ghana oriental et de savannah. dans un tel contexte, il faut noter que les autorités ont donné en juin 2022, le feu vert au niébé génétiquement modifié (niébé bt) pour la culture et l’alimentation humaine et animale. comme détaillé dans un des rapports ecofin pro revenant sur l’état du marché des ogm en afrique de l’ouest, cette approbation de l’autorité nationale de biosécurité (nba) pourrait changer la donne dans la filière.
-actuellement les producteurs doivent traiter les champs avec les insecticides entre 8 et 12 fois durant un cycle de culture s’étalant sur 3 mois. ce nombre d’applications pourrait être divisé par 3 avec la nouvelle variété. une situation qui devrait réduire les coûts de production chez les exploitants et leur permettre d’investir dans le développement de leurs exploitations.
-dans un tel contexte, plusieurs analystes pronostiquent déjà une hausse de la récolte dans les prochaines années dans l’hypothèse d’un accès massif des producteurs au niébé bt. il faut noter que le ghana n’est pas le premier pays en afrique de l’ouest à miser sur le niébé bt. déjà en 2019, le nigéria est devenu le premier pays à approuver la culture de la légumineuse génétiquement modifiée. espoir olodo</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>riz, niébé</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Niger</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Nigeria : Port Harcourt abritera un hub pour les céréales importées d’Ukraine</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>03-2023</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>(agence ecofin) - le nigeria est le principal importateur de blé en afrique subsaharienne. comme pour la plupart des pays du continent, la russie et l’ukraine comptent parmi les principaux fournisseurs de la céréale. au nigeria, l’exécutif a décidé de faire de la ville de port harcourt, capitale de l’état de rivers, l’une de ces plateformes commerciales pour la distribution des céréales qui seront importées d’ukraine. c’est ce qu’a révélé mohammed abubakar, ministre de l’agriculture et du développement rural, le 22 mars dernier.
-cette initiative intervient après la décision de la russie de reconduire sur une période de 60 jours l’accord sur le corridor maritime ukrainien et d’accroître son approvisionnement en céréales vers le pays d’afrique de l’ouest.
-d’après m. abubakar, une cargaison de 25 000 tonnes de blé ukrainien est attendue dans le port de la ville dans le cadre de l’initiative « grain from ukraine » mise en œuvre depuis novembre 2022 et dont la viabilité dépend principalement de cet accord. au nigeria, le blé constitue l’un des principaux postes des dépenses alimentaires avec une facture record des importations qui s’est élevée à 3 $ en 2021.
-il faut rappeler qu’en janvier dernier l’ukraine avait annoncé une stratégie visant à développer des projets logistiques conjointement avec des pays d’afrique de l’ouest dont le nigeria et le sénégal en vue d’accroître les expéditions de produits agricoles et de consolider leurs relations commerciales dans la région.
-stéphanas assocle</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>blé</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Niger</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Nigeria : FMN obtient 1,2 million $ pour accroître son approvisionnement local en maïs et soja</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>12-2022</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>(agence ecofin) - au nigeria, la demande croissante des consommateurs stimule les investissements des entreprises dans les projets de diversification de leur offre sur le marché intérieur. elles s’appuient au passage de plus en plus sur l’approvisionnement local en matières premières. au nigeria, west africa trade &amp; investment hub (trade hub) financé par l’agence américaine pour le développement international (usaid) vient d’allouer une subvention de 563 de nairas (1,2 $) au fournisseur d’intrants agricoles golden agri inputs limited (gail), filiale du conglomérat agroalimentaire flour mills of nigeria (fmn). l’annonce a été faite dans un communiqué publié le jeudi 15 décembre.
-ce soutien s’inscrit dans le cadre de la mise en œuvre d’un programme d’approvisionnement local en matière première agricole qui verra gail investir un montant total de 3 de nairas (6,7 $). l’initiative baptisée « yalwa abundance » engagera 10 000 petits exploitants agricoles pour la production de 22 500 tonnes de maïs et 12 500 tonnes de soja sur une superficie cumulée de 10 000 hectares.
-avec cette initiative, les agriculteurs bénéficieront d’un accès privilégié aux intrants agricoles (semences, engrais), à des formations sur les bonnes pratiques de production ainsi qu’aux services de vulgarisation en vue d’augmenter leur productivité et de minimiser les pertes post-récolte.
-selon les détails du communiqué, il est prévu la création de 151 nouveaux emplois et l’amélioration des revenus de près de 70 000 personnes opérants au sein des différentes chaînes de valeurs des deux cultures ciblées.
-fondée en 1960, flour mills of nigeria est l’une des principales entreprises agroalimentaires du nigeria et opère entre autres dans les céréales, le sucre, les huiles comestibles et l’industrie des aliments pour animaux. elle a réalisé un chiffre d’affaires de près de 772 de nairas en 2021 (1,7 $).
-stéphanas assocle (stagiaire)</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>soja, blé, maïs, mil</t>
+          <t>riz, niébé, mil</t>
         </is>
       </c>
     </row>

--- a/articles_ecofin.xlsx
+++ b/articles_ecofin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,328 +459,323 @@
           <t>produits</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>action_detectee</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Nigéria</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Burkina Faso : exonération de taxes sur la production locale de farines de céréales</t>
+          <t>Le Nigéria se dote d’un groupe de travail pour la loi de l’UE sur la déforestation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(agence ecofin) - au burkina faso, les céréales constituent la base de l’alimentation de la population. dans la filière, les minotiers jouent un rôle important dans le développement du segment de la transformation. 
-au burkina faso, le gouvernement a consenti à une exonération de taxe au profit de la production locale de farine de blé, de maïs, de sorgho et d’autres céréales produites localement. l’annonce a été faite le jeudi 19 septembre dans un communiqué publié sur le site du gouvernement. 
-cette décision est en lien avec l’adoption le même jour, en conseil des ministres d’un projet de loi de finances rectificative de la loi de finances pour l’exécution du budget de l’état pour l’exercice de 2024. « la nouvelle loi de finances rectificative va permettre de renforcer le dispositif de protection sociale du capital humain et d’accompagner l’industrialisation du pays », peut-on lire dans le communiqué.
-globalement, l’exonération de taxes sur la production locale de farine de céréales est un coup de pouce qui devrait réduire les charges fiscales des minotiers et pourrait encourager l’investissement des opérateurs privés dans le secteur. 
-il faut rappeler qu’en avril dernier, le gouvernement burkinabè avait déjà posé un ban sur l’importation de farine de blé. d’après les données compilées par l’institut national de la statistique et de la démographie (insd), les achats de farines de blé effectués par le pays en 2023 ont augmenté de 31 % pour atteindre 16 360 tonnes. 
-il faut également noter que sur la même année, les achats de blé sur le marché international ont grimpé de 26 %, atteignant plus de 270 000 tonnes. rappelons que le burkina faso importe la quasi-totalité de ses besoins en blé.
-stéphanas assocle
-lire aussi:
-19/09/2024 - burkina faso : le gouvernement suspend l’exportation de karité
-5/07/2024 - burkina faso : le gouvernement injectera 200 millions $ dans la production agricole</t>
+          <t>(agence ecofin) - le nigéria est le 3ème producteur africain de cacao après la côte d’ivoire et le ghana. alors que l’union européenne est la principale destination du cacao nigérian, l’entrée en vigueur de la règlementation du bloc économique relative à la déforestation inquiète les autorités. au nigéria, abubakar kyari, ministre de l’agriculture, a lancé le mardi 8 octobre un groupe de travail national (ntf) composé d’experts pour s’assurer de la conformité du secteur agricole, à la règlementation de l’ue sur la déforestation (eudr).
+ladite règlementation prévue pour entrer en vigueur à partir du 30 décembre prochain, interdira en effet l’importation de matières premières agricoles liées à la déforestation comme le café, le cacao ou encore l’huile de palme par les pays du bloc. dans un communiqué publié sur son site, le ministère de l’agriculture a indiqué que la nouvelle task force ainsi constituée a pour mission de coordonner les efforts entre les secteurs public et privé pour mettre en place une approche nationale de l’eudr. le mandat du groupe de travail d’expert inclut également la mise en place d’un système de traçabilité dans les chaînes de valeurs cibles, ainsi que la conception d’une stratégie de financement pour assurer la mise en œuvre des exigences de l’eudr.
+pour le gouvernement nigérian, la conformité à cette règlementation est d’autant plus importante quand on sait que l’ue est un partenaire commercial majeur dans le secteur agricole. selon les données compilées sur la plateforme trade map, le bloc économique européen a représenté près de 60 % des expéditions nigérianes en valeurs de cacao et produits dérivés sur le marché international qui ont généré plus de 758 $ de recettes en 2023. d’après les données du ministère de l’agriculture, le cacao fournit par ailleurs environ 80 % des recettes issues des exportations agricoles à destination de l’ue. en dehors du cacao, les autres produits agricoles associés à la déforestation et expédiés vers le bloc économique sont le caoutchouc, le soja et le bois.
+rappelons que la commission européenne a proposé le mercredi 2 octobre le report d’un an de l’entrée en vigueur de l’eudr. cette proposition, si elle est approuvée par les états membres et le parlement européen, offrirait un délai supplémentaire au nigéria pour mieux se préparer.
+stéphanas assocle
+lire aussi:
+03/10/2024 - ue : la commission souhaite le report d’un an de la mise en œuvre de la loi anti-déforestation
+10/09/2024 - tanzanie : le régulateur veut renforcer la traçabilité dans la filière café
+06/09/2024 - ghana : le régulateur se dote d’un système de traçabilité du cacao
+05/09/2024 - ouganda : le régulateur veut enregistrer tous les producteurs de café d’ici décembre
+30/08/2024 - cameroun : une initiative lancée pour renforcer la traçabilité dans le cacao</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>blé, maïs, sorgho, karité, mil</t>
-        </is>
+          <t>soja</t>
+        </is>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Burkina Faso : le gouvernement suspend l’exportation de karité</t>
+          <t>Le Togo prépare un plan à 36,7 millions $ pour les filières cacao et café</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(agence ecofin) - au burkina faso, la production d’amande de karité est la 2ème plus importante au monde après le nigéria. alors que la production est principalement exportée sous forme brute, le gouvernement promeut la transformation locale pour améliorer la création de valeur ajoutée dans la filière. 
-au burkina faso, l’exportation d’amandes de karité est interdite jusqu’à nouvel ordre. l’annonce a été faite dans un communiqué conjoint publié le 18 septembre par le ministère de l’industrie, du commerce et de l’artisanat et celui en charge de l’économie et des finances. 
-cette décision a pour objectif de rendre disponible l’amande de karité utilisée comme matière première par les unités industrielles de transformation au niveau national. « la suspension des exportations s’aligne sur la dynamique du gouvernement visant à soutenir le développement de l’industrie locale », souligne le communiqué. 
-cette annonce est à inscrire dans un contexte où les exportations burkinabè de beurre de karité ont baissé de 14,35 % en moyenne par an entre 2020 et 2023, passant de 22 700 tonnes à 12 215 tonnes, d’après les données compilées par l’institut national de la statistique et de la démographie (insd). 
-parallèlement, les expéditions d’amande de karité ont grimpé de 19,37 % en moyenne par an sur la même période, passant de 104 700 tonnes en 2020 à 212 600 tonnes en 2023. en ce qui concerne les derniers développements sur le segment de la transformation, il faut noter qu’en avril 2024, le président ibrahim traoré a inauguré une huilerie de 18 milliards de francs cfa (30,6 millions $) dans la ville de bobo-dioulasso. il s’agit d’un complexe industriel doté d’une capacité de production de 25 000 tonnes de beurre de karité appartenant à l’agence deli internationale prod industries (adiprod industries sa).  
-au burkina faso, les expéditions d’amandes de karité et de beurre de karité ont généré 60,9 milliards de francs cfa (103,5 millions $) de recettes en 2023, selon l’insd.
-stéphanas assocle
-lire aussi:
-25/07/2024 - burkina faso : le gouvernement injectera 200 millions $ dans la production agricole
-18/07/2024 - burkina faso : vers la relance des brasseries du faso
-04/07/2024 - mali : un complexe agro-industriel de 23 millions $ lancé à sanankoroba</t>
+          <t>(agence ecofin) - les exportations togolaises de café et de cacao ont augmenté de 9% et 63% respectivement lors de la campagne commerciale 2022-2023. pour s’assurer de maintenir le cap, les autorités et divers acteurs des filières préparent des investissements stratégiques.
+le togo peaufine un plan d’investissement global de 22 fcfa pour développer ses filières cacaoyère et caféière à l’horizon 2030. les discussions entre autorités et consultants spécialisés locaux s’achèvent ce vendredi, en vue d’adopter ces programmes.
+prévoyant 10,3 fcfa pour le cacao et 11,7 fcfa pour le café, ils mettent l'accent sur la réorganisation des filières et l’implémentation d’un mécanisme de financement des petits exploitants défavorisés dans la chaine de valeur. un cadre stratégique est ainsi proposé pour améliorer leur rentabilité et leur garantir un revenu vital.
+« à l’horizon 2030, l’ambition est d’avoir des filières cacao et café performantes sur toute leur chaîne de valeur, créatrices de richesses et d’emplois décents, notamment en rural » a affirmé enselme gouthon, le président du comité de coordination de ces filières (ccfcc), pour qui l’objectif est d’encourager la production et la transformation locale de ces 2 produits importants dans l'économie agricole togolaise.
+il souhaite de bâtir une agriculture professionnalisée, compétitive et durable via ces plans de développement qui doivent permettre au pays de mieux se positionner sur les marchés régionaux et internationaux. l’initiative survient alors que, rappelle togofirst, les filières café et cacao ont été secouées au togo par des difficultés commerciales et des baisses de production ces dernières années.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>karité, mil</t>
-        </is>
+          <t>riz</t>
+        </is>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Guinée</t>
+          <t>Maroc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Guinée-Bissau : le gouvernement veut mettre un terme à la subvention pour les prix du riz</t>
+          <t>Maroc : Gharb Papier et Carton veut installer une fabrique d’emballage à Meknès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(agence ecofin) - le riz est l’une des principales denrées de base pour les populations en afrique de l’ouest. dans la sous-région, la guinée-bissau affiche l’un des plus grands niveaux de consommation de la céréale par habitant, avec plus de 100 kg par an.
-en guinée-bissau, le gouvernement envisage de supprimer la subvention des prix d’achat à la consommation du riz sur le marché local. c’est ce qu’a révélé lassana fati, directeur général des affaires extérieures au ministère du commerce et de l’industrie, le 8 avril. 
-la mesure en vigueur depuis août 2023 a permis de faire baisser de 22 % à 17 500 fcfa (28,5 $) le prix d’achat du sac de 50 kg de riz brisé 100 % et de 6,3 % à 22 500 francs cfa (36,7 $) le tarif du sac de 50 kg du riz brisé à 5 %.  
-selon le responsable, cette politique représente un fardeau financier important pour les caisses publiques. d’après les données officielles, une enveloppe de 4 milliards de francs cfa (6,6 millions $) a été déjà déboursée dans ce cadre.  
-« le gouvernement n’arrive plus à supporter le coût de cette subvention qui asphyxie le trésor public. le fonds monétaire international nous avait déjà prévenus sur un risque de déséquilibre de la masse salariale lié à cette initiative », a précisé le responsable. 
-si la décision de suppression des subventions venait à être confirmée, cela aurait pour conséquence une réduction de l’accessibilité économique aux populations les plus vulnérables. 
-dans le pays, le riz fournit la majorité de l’apport calorique aussi bien en milieu rural qu’en zone urbaine comme en témoigne la consommation par tête qui est parmi les plus importantes du monde avec 100 kg par an contre environ 57 kg pour la moyenne mondiale selon les données du département américain de l’agriculture (usda).  
-lire aussi:
-28/02/2024 - nigeria : les prix du riz ont fortement progressé en janvier
-26/02/2024 - l’inde autorise l’exportation de 130 000 tonnes de riz vers la guinée-bissau, la tanzanie et djibouti</t>
+          <t>(agence ecofin) - au maroc, la demande croissante pour les emballages en carton dans les secteurs agricoles et industriels offre de nombreuses opportunités d’investissement. acteur majeur de l’industrie des emballages carton, gharb papier et carton souhaite renforcer sa présence dans le pays. au maroc, le fabricant d’emballages gharb papier et carton (gpc), filiale du groupe ynna holding, à l’intention d’implanter une nouvelle unité de production d’emballage papier dans la zone industrielle d’agropolis à meknès. l’information relayée par les médias locaux a été révélée dans un communiqué publié par l’entreprise.
+d’un coût total de 180 de dirhams (18,3 $), cette nouvelle usine sera dotée d’une capacité de production de 20 000 tonnes de carton ondulé et de 10 000 tonnes de papier transformé (mandrins, cornières, bobinots de kraft, papier journal et manilla découpés) annuellement. selon les responsables de l’entreprise, la production de l’usine sera dédiée à la satisfaction des besoins des secteurs agricole et industriel (textile, confection, agroalimentaire, automobile), dans les régions de fès-meknès et de l’oriental.
+ce nouvel investissement permettra à gpc de faire passer à 8 le nombre de sites de production d’emballages papier qu’il exploite au maroc, notamment à travers les villes de kénitra, agadir, mohammedia, dakhla et meknès. il s’agit en outre d’une opportunité pour l’entreprise de consolider sa présence sur le marché local. selon les données officielles, les emballages en papier carton représentent une part significative des importations marocaines en achats d’intrants manufacturés pour le secteur agroalimentaire avec une facture estimée à 1,35 de dirhams (133 $) par an.
+stéphanas assocle
+lire aussi:
+09/10/2024 - le maroc anticipe une hausse des exportations de tomates en 2024
+02/10/2024 - maroc : les achats de blé français attendus en baisse de 46 % en 2024/2025
+24/09/2024 - horticulture : la marocaine spms lève 15,6 $ pour sa croissance
+16/09/2024 - maroc : l'ocp obtient un prêt de 108 $ de la sfi pour un pipeline</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>riz, mil</t>
-        </is>
+          <t>blé</t>
+        </is>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Afrique du Sud</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ghana : déploiement commercial du niébé transgénique</t>
+          <t>Afrique du Sud : l’industrie agrumicole en état d’alerte face à une maladie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(agence ecofin) - au ghana, le niébé transgénique a été approuvé en juin 2022 pour l’alimentation humaine, animale et la culture. ce feu vert obtenu auprès de l’autorité nationale de biosécurité (nba) a fait du pays, le second d’afrique de l’ouest à opter pour cette variété après le nigéria.
-au ghana, la ville de tamale située dans le nord a été le 25 juillet dernier, le lieu du lancement de la diffusion commerciale du niébé génétiquement modifiée (niébé bt), première culture ogm du pays.  
-la cérémonie rapportée par plusieurs médias locaux a réuni des représentants de diverses institutions, dont le conseil de la recherche scientifique et industrielle (csir) et la fondation africaine pour la technologie agricole (aatf). elle fait suite à la validation et l’approbation au catalogue national des semences par le comité national de diffusion et d’enregistrement des variétés.
-développé par l’institut de la recherche agricole de savannah (sari) à partir de gènes fournis par monsanto (bayer), le niébé bt est résistant à l’insecte « maruca vitrata », principal ravageur de la culture (foreur de gousses).
-en outre, selon les chercheurs, la légumineuse génétiquement modifiée peut afficher un rendement de 2 tonnes par hectare, soit un niveau quatre fois supérieur à celui des variétés conventionnelles utilisées jusqu’ici. « il s’agit d’un jour exceptionnel pour le secteur agricole ghanéen et pour la marche vers la sécurité alimentaire […] », s’est réjoui paul bosu, directeur général du csir en parlant du lancement.
-plus globalement, cet enthousiasme du responsable par rapport à la percée de la biotechnologie dans le pays tranche avec les critiques adressées par l’association des paysans du ghana (pfag) sur l’approbation de nouvelles variétés notamment de soja et de maïs.
-le groupement voit dans l’introduction des cultures ogm, une menace pour la diversité variétale et a exprimé ses craintes d’une « perte du système agricole indigène au profit d’une poignée de multinationales du génie génétique ».
-pour rappel, le niébé est la légumineuse la plus cultivée au ghana avec une récolte dépassant les 365 000 tonnes en 2022, selon les données du département américain de l’agriculture (usda).
-lire aussi :
-23/07/2024 - ghana : 81 % de la superficie cacaoyère du nord-ouest infectée par le swollen shoot (icco)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>soja, niébé, maïs</t>
-        </is>
+          <t>(agence ecofin) - l’afrique du sud est le deuxième exportateur mondial d’agrumes frais après l’espagne. dans la filière, la sécurité sanitaire et phytosanitaire des fruits est un sujet très sensible sur le marché de l’union européenne, son premier débouché commercial. en afrique du sud, le département de l’agriculture, de la réforme agraire et du développement rural (dalrrd) prévoit de lancer un programme national de surveillance de la souche africaine de la « maladie du greening des agrumes », dans la province du cap-oriental. il s’agit d’une maladie bactérienne transmise par un insecte, le psylle africain des agrumes (trioza erytreae) et qui provoque des marbrures et un jaunissement des nervures des feuilles des plantes.
+dans un communiqué publié sur son site le vendredi 4 octobre, le dalrrd a révélé que cette maladie a été détectée à gqeberha notamment dans les districts d’alfred nzo, or tambo et les municipalités de buffalo city, great kei, et nelson mandela bay. « dans le cas présent, une enquête de délimitation sera menée pour déterminer la distribution géographique de cette maladie dans la région, afin de déterminer si l’organisme nuisible est largement répandu ou non, pour permettre la mise en œuvre de mesures phytosanitaires efficaces et efficientes. pour cette enquête, le dalrrd collaborera avec le citrus research international (cri), afin d’examiner les arbres à la recherche de symptômes suspects, et des échantillons pourraient être prélevés pour être analysés en laboratoire », souligne le communiqué.
+en attendant, le dalrrd indique aussi que les mouvements intraprovinciaux de matériel de multiplication d’agrumes des zones infestées vers les zones non infestées de la province du cap-oriental sont interdits. il faut noter que la souche africaine de la maladie du greening des agrumes affecte la qualité des agrumes produits, les rendant impropres à la vente en tant que fruits frais ou à la transformation. s’il est encore trop tôt pour parler des répercussions sur la filière sud-africaine, cette situation a de quoi préoccuper l’industrie agrumicole. d’après les données du département américain de l’agriculture, la province du cap oriental est la 2ème zone de production d’agrumes du pays après la province de limpopo concentrant 26 % des plantations qui couvrent près de 96 000 hectares.
+sur le marché de l’union européenne (ue), cette nouvelle pathologie pourrait renforcer les mesures de prévention de la part des autorités de contrôle alors que les deux partenaires commerciaux se disputent déjà à propos de prescriptions phytosanitaires sur le faux carpocapse (un lépidoptère qui attaque les agrumes) et la réglementation de l’ue sur la maladie des taches noires des agrumes causée par le champignon « phyllosticta citricarpa ». en 2024, les expéditions sud-africaines d’agrumes devraient stagner à 150,4 de cartons, soit 2,25 de tonnes (1 carton= 15 kg) selon les dernières projections formulées par l’association sud-africaine des producteurs d’agrumes (cga).
+stéphanas assocle
+lire aussi:
+08/10/2024 - afrique du sud : le royaume-uni fait son retour parmi les fournisseurs de volailles
+25/07/2024 - l’afrique du sud revoit à la baisse ses prévisions d’exportations d’oranges en 2024</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Namibie</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Togo : croissance consécutive de la production de céréales sur les 5 dernières années, à 1,5 millions de tonnes</t>
+          <t>Namibie : AB InBev veut injecter 3,4 millions $ dans ses activités d’ici à 2029</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(agence ecofin) - le togo applique une politique intensive d’appui aux producteurs agricoles locaux, sur divers segments de cultures. la croissance soutenue de production céréalière est également le résultat de cette stratégie.
-selon des données de la bceao, ces 5 dernières années, la production céréalière togolaise a régulièrement crû, passant de 1,26 million de tonnes lors de la saison 2019-2020 à 1,5 million t pour 2023-2024.
-dans le détail, la campagne agricole 2020/2021 a affiché 1 350,6 milliers t de céréales produites, tandis que celle de 2021/2022 a produit près de 1,4 million de tonnes. en 2022/2023, on a enregistré 1,44 million de tonnes.
-le maïs demeure la principale céréale cultivée au togo, informe togofirst, suivie du riz paddy, puis du duo mil-sorgho. la production est essentiellement dédiée à la consommation domestique, ainsi qu’à la satisfaction des besoins alimentaires internes.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>riz, sorgho, maïs, mil</t>
-        </is>
+          <t>(agence ecofin) - en afrique australe, la namibie est l’un des principaux marchés pour la bière avec l’afrique du sud, la zambie et le zimbabwe. comme pour la majorité des pays africains, la croissance de la consommation nourrit les investissements privés dans le développement de la production.
+en namibie, le groupe brassicole belge ab inbev a l’intention d’investir 60 de dollars namibiens (3,4 $) pour le développement de ses activités au cours des 5 prochaines années. c’est ce qu’a annoncé kevin louw, directeur de ab inbev namibia, la filiale locale du brasseur, le mercredi 9 octobre. selon les informations relayées par les médias locaux, cette enveloppe sera utilisée pour accroître la production de sa brasserie basée à okahandja, en l’occurrence la marque phare de bière « lion lager ». s’exprimant sur le sujet, m. louw a d’ailleurs révélé que l’entreprise voulait augmenter ses volumes de production de 50 000 hectolitres au cours de l’exercice fiscal de 2024.
+« ab inbev namibia prévoit de développer ses marques locales en augmentant sa capacité de production par la construction de deux cuves de brassage supplémentaires et a déjà obtenu des terrains pour l’extension future de sa brasserie », explique le responsable. globalement, ce projet d’investissement vise à renforcer la présence du groupe brassicole en namibie. selon les projections formulées sur la plateforme statista, les ventes sur le marché namibien de la bière devraient générer 475 $ en 2024 et afficher une croissance moyenne de 4,7 % par an jusqu’en 2029.
+il faut noter qu’en 2023, l’afrique du sud était le principal débouché d’écoulement des produits de ab inbev en afrique, suivi du nigéria, de la tanzanie, du botswana et de la zambie. opérant dans plus de 50 pays à travers le monde, le groupe brassicole a enregistré une croissance de 7,8 % de son chiffre d’affaires à 59,4 $ sur l’ensemble de ses marchés au cours de son exercice fiscal de 2023.
+stéphanas assocle
+lire aussi:
+03/09/2024 - 2023, année record pour l’industrie africaine de la bière
+20/09/2024 - nigeria : coca-cola veut injecter 1 $ dans ses activités d’ici à 2029
+17/09/2024 - côte d’ivoire : bgfibank a investi plus de 50 $ dans l’usine de coca-cola
+23/05/2024 - kenya : coca-cola annonce un investissement de 175 $ sur 5 ans</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bénin</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Le Bénin interdit l’exportation de produits vivriers jusqu’à nouvel ordre</t>
+          <t>Hausse de 35 % du chiffre d’affaires de Guinness Ghana en 2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>05-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(agence ecofin) - au bénin, le maïs est la principale céréale cultivée et consommée. dans le pays, les prix de la céréale ont augmenté depuis quelques mois créant de multiples tensions pour l’approvisionnement des consommateurs et des industriels. 
-au bénin, les exportations de produits vivriers comme le maïs, le riz, le mil, le niébé, les tubercules et leurs dérivés (farines dont le gari) sont désormais interdites jusqu’à nouvel ordre. c’est ce qu’indique un communiqué du conseil des ministres publié ce 8 mai.    
-cette décision vise selon les autorités à garantir l’approvisionnement confortable des consommateurs à un « coût raisonnable » sur le marché intérieur. 
-elle s’inscrit dans un contexte où le prix moyen du kg de maïs sur le marché local a grimpé de 57 % depuis janvier pour atteindre 365 fcfa (0,59 $) à la mi-avril, selon les données de l’institut national de la statistique et de la démographie (instad).  
-« de nombreux producteurs et commerçants sont portés à satisfaire les demandes en produits vivriers venant de pays étrangers au détriment du marché national. s’il est vrai que dans un contexte de libéralisme économique c’est l’offre et la demande sur les marchés qui déterminent les prix et que la libre circulation des biens est admise dans notre espace communautaire, il n’en demeure pas moins que le phénomène prend une ampleur telle que le consommateur béninois en subit les conséquences », indique le gouvernement.   
-dans une déclaration datant d’avril dernier, gaston dossouhoui, ministre de l’agriculture avait notamment mise en lumière les sorties vers le nigeria.
-« l'importante production avicole au nigeria ne peut se passer du maïs béninois. avec toutes ces pressions, il se pose un problème entre l’offre et la demande », avait alors déclaré le responsable.
-en dehors de ce facteur, le dirigeant avait aussi indiqué que la décision du gouvernement d’interdire les importations de poulets congelés d’ici fin 2024 avait aussi incité les éleveurs à constituer des réserves stratégiques. 
-au bénin, la production de maïs est attendue à 2,5 millions de tonnes pour le compte de la campagne 2024/2025, soit 25 % de plus que la récolte enregistrée en an plus tôt (2 millions de tonnes) d’après les données de la direction des statistiques agricoles (dsa). 
-espoir olodo</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>tubercules, maïs, riz, niébé, mil</t>
-        </is>
+          <t>(agence ecofin) - en afrique de l’ouest, le ghana est l’un des principaux marchés pour la bière avec le nigéria, la côte d’ivoire et le burkina faso. dans le pays, guinness ghana breweries est l’un des principaux acteurs de poids dans le secteur. au ghana, guinness ghana breweries ltd (ggbl), filiale locale du fabricant britannique de spiritueux diageo, a déclaré un chiffre d’affaires à 2,3 de cedis (148,5 $) au terme de son exercice fiscal de 2024, clôturé le 30 juin dernier. cette enveloppe affiche une hausse de 35,2 % par rapport aux revenus de 1,7 de cedis (110,7 $) générés un an plus tôt. cette performance a été stimulée par une forte croissance des ventes de produits sur tous les segments d’activité de l’entreprise. dans les détails, les ventes sur le segment des boissons non alcoolisées, principalement représentées par la marque phare de boissons « malta guinness », ont augmenté de 27 %, atteignant 1,1 de cedis (69 $). ce segment compte généralement pour près de la moitié du chiffre d’affaires de l’entreprise.
+en outre, les ventes sur le segment des boissons alcoolisées, principalement la bière, ont progressé de 37 % à 930 de cedis (58,3 $) alors que le segment des spiritueux a connu la plus forte croissance avec une augmentation de 57 % de ses recettes atteignant 290 de cedis (18,2 $).
+en dépit de cette embellie, le bénéfice net de guinness ghana a chuté de 12,15 %, passant de 39,5 de cedis (2,4 $) à 34,7 de cedis (2,1 $). pour expliquer cette situation, l’entreprise met en avant un climat des affaires difficile marqué par la dépréciation du cedi, la persistance de l’inflation et la montée en flèche des coûts de l’énergie et des carburants.
+l’effet combiné de ces facteurs a exercé une forte pression sur les coûts d’exploitation du brasseur qui ont grimpé de 39 % d’une année sur l’autre à 2,1 de cedis (131,6 $).
+stéphanas assocle
+lire aussi:
+11/10/2024 - namibie : ab inbev veut injecter 3,4 $ dans ses activités d’ici à 2029
+01/10/2024 - diageo cède ses parts dans guinness nigeria à tolaram
+05/09/2024 - ouganda : eabl veut racheter le reste des actions d’uganda breweries limited</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sénégal</t>
+          <t>Algérie</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sénégal : le gouvernement lance un projet de 3 millions $ pour stimuler la production de semences de riz pluvial</t>
+          <t>L’Algérie prévoit d’investir 5,4 milliards $ dans le dessalement de l’eau de mer</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(agence ecofin) - le sénégal dépend à hauteur de 60 % des importations pour ses besoins en riz. dans le pays qui cible l’autosuffisance depuis près d’une décennie, la production de paddy dépend essentiellement des précipitations. 
-au sénégal, pape ndao, secrétaire général du ministère de l’agriculture, de la souveraineté alimentaire et de l’élevage, a donné le coup d’envoi du projet d’appui à la production de semences certifiées de riz pluvial (2psrp), le 27 avril dernier.
-selon les informations relayées par les médias locaux, cette initiative sera mise en œuvre en partenariat avec l’agence japonaise de la coopération internationale (jica) sur une durée de 3 ans et pour un coût total de 1,8 milliard de francs cfa (3 millions $). 
-« ce projet est destiné à accompagner les contrôleurs semenciers, les techniciens et les acteurs impliqués dans la production de semences certifiées de riz pluvial, par des formations aux procédures et technologies appropriées ainsi qu’à travers des dotations d’équipements indispensables à une prise en charge correcte de leurs tâches quotidiennes », précise m. ndao. 
-les interventions devraient toucher environ 1 500 petits agriculteurs dans les zones d’intervention ciblées que sont thiès, fatick, kaolack, kaffrine, tambacounda, kédougou, kolda, sédhiou et ziguinchor. d’après les autorités, ce projet devrait permettre d’augmenter l’offre en semences certifiées pour la production de riz pluvial. 
-s’il s’agit d’une importante contribution dans un contexte où 70 % de la récolte de paddy dépend des précipitations, il faut noter que plusieurs observateurs ont souligné, ces dernières années, la nécessité de mettre un accent plus important sur l’irrigation et d’accroître les investissements publics afin de valoriser les atouts de plusieurs zones à fort potentiel comme la vallée du fleuve sénégal (vfs).  
-les données de la direction de l’analyse, de la prévision et des statistiques agricoles (dapsa) indiquent ainsi que le rendement du riz pluvial s’affichait en moyenne à 3 tonnes par hectare en 2022 soit 2 fois moins que celui du riz irrigué. 
-stéphanas assocle
-lire aussi:
-16/04/2024 - sénégal : les achats de riz pakistanais ont augmenté à 100 000 tonnes entre novembre et décembre 2023</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>riz, blé, mil</t>
-        </is>
+          <t>(agence ecofin) - l’algérie, dont le territoire est majoritairement désertique, subit de plein fouet les effets du dérèglement climatique, avec des épisodes de sécheresse plus fréquents qui accentuent la pression sur les réserves d'eau du pays.
+l'algérie prévoit d’investir 5,4 de dollars dans la construction d’usines de dessalement de l’eau de mer, d’ici 2030 pour sécuriser l’accès de sa population à l’eau potable, dans un contexte marqué par une forte baisse des précipitations, a rapporté bloomberg ce lundi 14 octobre, citant un dirigeant de l’opérateur public des installations de dessalement du pays. « cinq nouvelles usines de dessalement entreront en service cette année pour porter la quantité d'eau potable que l’algérie aura la capacité de produire à partir de la méditerranée de 2,2 à 3,7 m³ par jour », a déclaré lotfi zennadi (photo), pdg de l’entreprise publique algerian energy company (aec), qui possède et exploite les usines.
+« six autres installations sont prévues d'ici 2030 », a-t-il ajouté, indiquant que les onze usines prévues utiliseront le processus de l’osmose inverse, très gourmand en énergie.
+m.zennadi a également précisé que la capacité de production de l’eau potable grâce au dessalement de l’eau de mer devrait atteindre environ 5,8 m³, d'ici la fin de la décennie en cours.
+filiale de la compagnie pétrolière nationale sonatrach, l’aec facturera à la société de distribution publique l’algérienne des eaux entre 52 et 100 dinars (0,39-0,76 dollar) par m³ d'eau. mais les consommateurs ne paieront qu’une petite fraction de cette somme, vu que le gouvernement subventionne environ 95 % du coût de l’eau. l’algérie ambitionne de couvrir 60% de ses besoins en eau potable grâce au dessalement de l’eau de mer d’ici 2030 contre 18% actuellement. ce pays d’afrique du nord, où le désert couvre 84% du territoire, est touché de plein fouet par les effets néfastes du changement climatique. ces effets se manifestent notamment par une baisse des précipitations et des épisodes de sécheresse plus fréquents.
+lire aussi:
+22/12/2023 - l’algérie envisage la construction de stations mobiles de dessalement de l’eau de mer
+02/01/2023 - algérie : l’exécutif annonce des formations universitaires et professionnelles sur le dessalement de l’eau de mer
+07/07/2023 - maroc : les énergies renouvelables pour réduire les émissions liées au dessalement à grande échelle (rapport)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Le Burkina Faso suspend les importations de farine de blé</t>
+          <t>Le Rwanda veut augmenter sa production de viande porcine de 36 % d’ici à 2029</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>04-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(agence ecofin) - au burkina faso, le blé est la 2ème céréale importée après le riz. le pays dépend fortement du marché international pour la satisfaction de ses besoins dans la graminée et ses produits dérivés. 
-au burkina faso, le gouvernement a décidé d’interdire les importations de farine de blé jusqu’à nouvel ordre. c’est ce qu’a annoncé le ministère du développement industriel, du commerce, de l’artisanat et des petites et moyennes entreprises dans un communiqué publié le 8 avril.
-communiqué portant suspension temporaire de l'importation de la farine de blé pic.twitter.com/nl2xhb0smq
-— sig burkina faso (@sigbf) april 9, 2024
-selon les autorités, cette décision s’inscrit dans le cadre de l’assainissement du marché des produits de grande consommation. « l’importation de la farine de blé étant soumise à une autorisation spéciale d’importation (asi), la délivrance des asi de la farine de blé est aussi suspendue. en tout état de cause, tout contrevenant à cette décision s’expose à des sanctions conformément à la réglementation en vigueur », précise le communiqué.
-s’il est encore trop tôt pour évoquer les répercussions de cette restriction sur l’approvisionnement local, il faut souligner que les importations de farine de blé du pays proviennent principalement de la côte d’ivoire, du ghana et du togo. ces trois pays fournissent chaque année la quasi-totalité des envois via des réexportations. 
-selon les données compilées sur la plateforme trademap, le pays des hommes intègres a importé plus de 12 400 tonnes de farine de blé d’une valeur de plus de 5,5 millions $ en 2022.
-stéphanas assocle
-lire aussi:
-09/04/2024 - burkina faso : le gouvernement table sur une récolte de 250 tonnes de blé en 2023/2024 
-28/03/2024 - burkina faso : sourgou abritera un complexe industriel textile de 272 millions $ 
-06/03/2024 - burkina faso : un foyer de grippe aviaire déclaré sous contrôle à ouagadougou</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>riz, blé, mil</t>
-        </is>
+          <t>(agence ecofin) - au rwanda, l’élevage contribue à hauteur de 4 % au pib. si dans le secteur, la production de viande provient principalement de l’élevage des bovins et ovins, le gouvernement nourrit des ambitions de croissance dans d’autres filières. au rwanda, le gouvernement souhaite faire passer la production locale de viande porcine à 31 144 tonnes d’ici 2029, soit 36 % de plus que le stock de 22 839 tonnes fournit en 2023. c’est ce qu’a révélé claire hirwa d’andre, chercheure spécialisée en sélection animale, génétique et reproduction au sein de l’office rwandais de développement de l’agriculture et des ressources animales (rab) qui se confiait au quotidien local the new times le dimanche 6 octobre. cette perspective se fonde notamment sur une amélioration de la productivité de la filière porcine grâce à l’augmentation significative du nombre de personnes élevant des races de porcs améliorées par l’adoption de l’insémination artificielle dans les élevages locaux. alors que seules les races traditionnelles de porcs étaient utilisées au rwanda en 2022, les données compilées par le rab indiquent que 65 % des éleveurs de porcs du pays ont depuis adopté la technologie de l’insémination artificielle.
+pour expliquer cette dynamique, mme d’andre met en avant l’appui du gouvernement qui injecte environ 150 de francs rwandais (111 000 $) par an dans la modernisation de l’élevage porcin pour soutenir l’achat de consommables, la formation des techniciens, l’achat d’équipements et d’aliments pour animaux. « il y a un changement plus radical dans l’industrie de l’élevage de porcs. nous avons de meilleures races de porcs qu’en 2022. il y a une amélioration génétique et le gouvernement fait plus d’efforts pour moderniser l’industrie », a ainsi déclaré la responsable.
+au rwanda, le cheptel porcin était estimé à plus de 1,1 de têtes d’animaux en 2023, d’après le ministère de l’agriculture.
+stéphanas assocle
+lire aussi:
+03/09/2024 - le rwanda prévoit des tests sur la pomme de terre transgénique 19/07/2024 - rwanda : une nouvelle unité dans l’industrie des aliments pour animaux
+24/06/2024 - rwanda : un nouveau plan quinquennal de 5 $ dédié à l’agriculture</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nigéria</t>
+          <t>Afrique du Sud</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Le Nigéria approuve la commercialisation du maïs transgénique</t>
+          <t>Afrique du Sud : le Royaume-Uni fait son retour parmi les fournisseurs de volailles</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01-2024</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(agence ecofin) - le nigéria est le deuxième producteur africain de maïs derrière l’afrique du sud. alors que l’offre locale est instable depuis plusieurs années, les autorités misent sur les progrès de la biotechnologie pour améliorer la productivité.
-au nigéria, le comité national sur la dénomination, l’enregistrement et la dissémination des variétés de cultures, des races de bétail et des pêches (ncnrrcvlf) a approuvé le 11 janvier dernier la commercialisation sur le marché local de 4 variétés du maïs transgénique « tela ».
-il s’agit notamment des variétés « sammaz 72t », « sammaz 73t », « sammaz 74t » et « sammaz 75t ». ces nouvelles variétés sont réputées pour être tolérantes à la sécheresse et particulièrement résistantes aux attaques des principaux ravageurs de la culture, dont le foreur de tige et à la chenille légionnaire d’automne.
-cette décision intervient plus de deux ans après que l’agence nigériane de gestion de la biosécurité (nbma) a délivré un permis à l’institut de recherche agricole (iar) de l’université ahmadu bello pour réaliser la culture en plein air du maïs transgénique à des fins expérimentales.
-selon les autorités, l’adoption des différentes variétés du maïs transgénique devrait permettre aux agriculteurs d’obtenir un rendement pouvant atteindre 10 tonnes par hectare, soit 4 tonnes de plus que la moyenne nationale pour des semences hybrides conventionnelles.
-avec cette autorisation, le maïs devient la 3ème culture transgénique commercialisée chez le géant ouest-africain après le coton bt en 2018 et le niébé en 2019. le nigéria devient également le 3ème pays du continent à commercialiser du maïs génétiquement modifié après l’afrique du sud et l’égypte. 
-le projet de développement de la variété « tela » a été initié en 2018 par un consortium d’acteurs de la recherche, dont bayer, la fondation africaine pour la technologie agricole (aatf) et le centre international d’amélioration du maïs et du blé (cimmyt).
-stéphanas assocle
-lire aussi:
-17/01/2024 - sénégal : les importations de maïs ont atteint un nouveau record en 2022
-17/01/2024 - céréales : le blé et le maïs ont essuyé de fortes baisses en 2023 alors que les prix du riz ont augmenté
-14/12/2023 - zimbabwe : la récolte de maïs devrait chuter de 300 000 tonnes en 2023/2024 en raison du phénomène el niño</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>riz, blé, niébé, maïs</t>
-        </is>
+          <t>(agence ecofin) - face à la recrudescence des cas de grippe aviaire à travers le monde, l’afrique du sud avait restreint ses importations de volailles de plusieurs origines dont le royaume-uni, depuis 8 ans. le royaume-uni peut à nouveau exporter de la viande de volaille vers l’afrique du sud. c’est ce qu’a révélé daniel zeichner, ministre britannique de la sécurité alimentaire et des affaires rurales, le lundi 7 octobre. selon le responsable, un accord d’approvisionnement d’une valeur de 160 de livres sterling (209 $) a été conclu avec les autorités sud-africaines pour les 5 prochaines années. cette annonce marque la fin du ban imposé par pretoria sur les importations de volaille britannique depuis 2016 à la suite de l’apparition de foyers de grippe aviaire au royaume-uni. la démarche des autorités sud-africaines intervient après que l’organisation mondiale de la santé animale (omsa) a déclaré le pays européen indemne d’infection par le virus de l’influenza aviaire hautement pathogène (iahp) chez les volailles le 29 mars dernier.
+après 8 ans d’absence sur le marché sud-africain, le royaume-uni devra faire face pour son retour à la concurrence du brésil qui a assuré 80 % des achats du pays en 2023, selon le département américain de l’agriculture (usda), mais aussi des usa, de l’argentine et des pays de l’union européenne (ue). pour les éleveurs sud-africains, il s’agit d’un nouveau coup dur après la réduction par la commission de l’administration du commerce international (itac) des droits de douane respectivement de 30 % et de 25 % sur le poulet désossé et les morceaux de poulet non désossé en début d’année. alors que la filière compte mettre en œuvre entre 2024 et 2030, la seconde phase de son plan directeur, le nouvel accord avec le royaume-uni ne devrait pas manquer de susciter des réactions du côté de l’association sud-africaine de la volaille (sapa).
+en 2024, l’afrique du sud devrait importer 320 000 tonnes de viandes de poulets, soit environ 17 % de sa consommation attendue à 1,8 de tonnes, d’après les dernières projections formulées par l’usda.
+stéphanas assocle
+lire aussi:
+02/10/2024 - afrique du sud : rainbow chicken renoue avec le profit en 2023/2024
+25/09/2024 - afrique du sud : daybreak foods bénéficie d’un prêt de 14,5 $
+20/09/2024 - afrique du sud : légère hausse attendue de l’offre en viande de poulet en 2024</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -791,359 +786,2055 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bénin : les exportations de soja peuvent désormais démarrer pour le compte de la campagne 2023/2024</t>
+          <t>Au Bénin, le Fonds africain de développement contribue à moderniser l’activité agricole dans la vallée de l’Ouémé</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11-2023</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(agence ecofin) - au bénin, le soja est la première légumineuse cultivée avec plus de 45 % du volume total. dans la filière, des changements s’annoncent pour la saison 2023/2024.
-au bénin, les acteurs du soja peuvent désormais commercialiser la denrée sur le territoire national et procéder à son exportation dans le cadre de la campagne de commercialisation 2023/2024. c’est ce qu’a indiqué le 16 novembre, le secrétariat général du gouvernement.
-#gouvbenin | #commercebenin | #wasexo | ? campagne de commercialisation du soja 2023-2024 : les nouvelles mesures du gouvernement au profit des producteurs? lire l'intégralité du communiqué du sgg sur ce lien =&gt; https://t.co/v4i54d0dok pic.twitter.com/pdnyplle7y
-— gouvernement du bénin ?? (@gouvbenin) november 16, 2023
-dans le cadre de cette mesure, les autorités soulignent que la commercialisation extérieure se fera sans agrément, mais exclusivement via le port de cotonou. en outre, le prélèvement réalisé à l’export pour contribution à la recherche et à la promotion agricole (cra) a été fixé à 30 fcfa/kg contre 140 fcfa/kg initialement.« les opérations d’achat, de vente, de transport, les prix, les dates de démarrage et de fin des opérations sont librement fixés par les acteurs », souligne le communiqué.
-globalement, cette annonce des autorités pose encore de nombreuses questions parmi les observateurs notamment sur l’application effective de l’interdiction d’exportation de soja sous forme brute à partir du1er avril prochain.la mesure annoncée en octobre 2022 est censée améliorer la valeur ajoutée dans la filière à travers une priorité accordée à l’approvisionnement des usines de transformation.
-dans ce contexte, le gouvernement avait indiqué qu’une période transitoire serait respectée avec « les acteurs possédant un agrément qui devraient prioriser la satisfaction des besoins des industries locales avant de s’orienter vers l’écoulement à l’extérieur de leurs stocks restants sous réserve de l’obtention d’une autorisation expresse ».
-pour rappel, le bénin anticipait 327 000 tonnes de soja en 2022/2023 contre 291 279 tonnes un an plus tôt.
-lire aussi :
-02/11/2023 - chine : les importations de soja pourraient atteindre 105 millions de tonnes d’ici la fin 2023</t>
+          <t>(banque africaine de developpement) - aux premières lueurs du jour, le soleil pointe déjà ses rayons à djeffa, petite commune de l’arrondissement de sèmè-podji, dans le sud-est du bénin. la main devant les yeux pour se protéger de la lumière crue du matin, justine gantekpin observe l’étendue de sa ferme maraîchère. il y a encore quelques années, cette agricultrice âgée de cinquante ans disposait d’une petite surface cultivée. aujourd’hui, elle exploite deux hectares de terre. ses plants de tomates, d’aubergines et de salade bénéficient d’un arrosage régulier grâce à un forage construit dans les environs et à l’installation de tuyaux de qualité.
+« ce projet a été très bien pensé et mis en œuvre. j’en suis fière ! il a mis à notre disposition les moyens matériels adéquats pour réaliser une agriculture moderne. aujourd’hui, nos activités ont prospéré », se réjouit-elle.
+à une dizaine de mètres de justine, jean loupeda arpente sa parcelle, satisfait lui aussi de l’appui qu’il a reçu pour exploiter son potager. « avant, j’avais un sérieux problème de main d’œuvre. pour arroser un hectare, il fallait employer au moins six ouvriers durant six heures. grâce au matériel déployé par le projet, je n’ai besoin que de deux ouvriers seulement. cela me fait gagner du temps, de l’énergie et de l’argent », confie jean.
+« le projet ne s’est pas arrêté là, poursuit-il. au moment où nous avions eu du mal à acheter des intrants, le projet nous a apporté un appui salutaire. nous travaillons maintenant avec beaucoup plus de facilité. tout cela nous a permis de stimuler notre production, tout en faisant des économies. » comme d’autres agriculteurs de la région, justine et jean bénéficient du projet d’appui aux infrastructures agricoles dans la vallée de l’ouémé (paia-vo). lancé en 2014 et financé à hauteur de 63,63 d’euros par le fonds africain de développement, le projet a couvert 14 communes situées dans les départements de l’ouémé, du zou et de l’atlantique, en bordure du golfe de guinée.
+en favorisant la promotion de trois filières porteuses, le riz, le maïs et le maraîchage, le projet, financé par le guichet concessionnel du groupe de la banque africaine de développement, a permis notamment de réaliser des aménagements hydro-agricoles pour sécuriser les productions et de construire des infrastructures de stockage et de commercialisation pour assurer une meilleure prise en compte des chaînes de valeur.
+au terme du projet en décembre 2023, la production agricole vivrière (riz, maïs) additionnelle produite est passée de 70 100 tonnes avant le projet à 90 300 tonnes pendant les campagnes 2021-2022 et 2022-2023. le revenu annuel moyen des producteurs rizicoles a fortement progressé, passant de quelque 108 euros à 358 euros, pour un objectif initial de 220 euros.
+« le projet nous a permis de développer notre productivité, témoigne enock koumagnon, agriculteur à sèmè-podji. nous avons pu scolariser nos enfants et les inscrire dans de grandes universités. moi qui suis un paysan, j’ai pu envoyer mes enfants à l’université… c’est vous dire si ce projet nous a fait du bien ! nous pouvons dire que le projet est notre bienfaiteur. »</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>soja, mil</t>
-        </is>
+          <t>riz, maïs</t>
+        </is>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Burkina Faso : l’exécutif lance un projet de 16 millions $ pour le développement des filières riz et maïs</t>
+          <t>Tunisie : un nouveau programme pour financer la campagne céréalière 2024/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10-2023</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(agence ecofin) - au burkina faso, le riz et le maïs font partie des principales céréales cultivées avec le sorgho et le mil. la région des hauts bassins située dans l’ouest du pays est l’une des principales zones de production. 
-au burkina faso, gaoussou sanou (photo), secrétaire général du ministère de l’agriculture, des ressources animales et halieutiques, a donné le 29 septembre le coup d’envoi du « projet de développement intégré des chaînes de valeurs agricoles » (pdi-cva).
-ce programme gouvernemental qui cible principalement les filières riz et maïs sera mis en œuvre dans la région des hauts-bassins sur une durée de 5 ans couvrant la période 2023-2028. d’un coût total de 10 milliards de francs cfa (16,1 millions $), il est financé à hauteur de 84 % par la banque islamique de développement (bid).
-les interventions portent notamment sur l’aménagement de 729 hectares de terres agricoles, de 32 km de route, la construction de 10 serres agricoles, d’unités d’étuvage de riz, de transformation de maïs et de magasins de stockage.
-d’après boukary sawadogo, coordonnateur du projet, cette initiative devrait également permettre la création d’au moins 28 000 emplois directs et indirects au profit des jeunes et des femmes. plus largement le pdi-cva devrait contribuer à la réalisation des objectifs du plan « offensive agro-pastorale et halieutique 2023-2025 » annoncé par l’exécutif en août dernier.
-au burkina faso, le maïs est la deuxième céréale cultivée après le sorgho avec une production d’environ 1,8 million de tonnes par an, soit 90 % des besoins de consommation qui s’élèvent à plus de 2 millions de tonnes, d’après les données du département américain de l’agriculture (usda).
-en ce qui concerne le riz, le pays d’afrique de l’ouest dépend encore à hauteur de 60 % des importations pour la couverture de ses besoins en riz blanchi qui tournent autour de 1 million de tonnes par an. les brisures de riz représentent d’ailleurs le premier produit agricole d’importation du pays avec des achats qui ont totalisé 71,4 milliards de francs cfa (115,2 millions $) en 2022, selon les données de l’institut national de la statistique et de la démographie (insd).
-stéphanas assocle
-lire aussi:
-25/09/2023 - burkina faso : bobo-dioulasso abritera une unité de transformation de tomates de 8 millions $
-31/08/2023 - burkina faso : l’exécutif annonce une stratégie de 981 millions $ pour la souveraineté alimentaire
-https://www.agenceecofin.com/analyse/1907-110445-le-burkina-faso-face-au-defi-de-l-augmentation-de-la-demande-de-riz</t>
+          <t>(agence ecofin) - en tunisie, le blé est la principale céréale cultivée et consommée par la population. le pays qui ambitionne d’accroître la production dans cette filière en 2024/2025 renforce son appui à l’appareil productif. en tunisie, le ministère de l’agriculture a signé le lundi 30 septembre dernier une convention de financement d’une valeur de 20 de dinars (6,5 $) avec la banque tunisienne de solidarité (bts). selon les médias locaux, cette enveloppe sera utilisée pour la mise en place d’un nouveau programme de financement spécifique dédié à la filière céréalière en 2024/2025. ledit programme permettra aux petits exploitants agricoles ainsi qu’aux sociétés mutuelles de services agricoles (smsa) d’accéder à des prêts saisonniers pour financer l’achat de semences, d’intrants et de moderniser leurs équipements de tri et de traitement des semences. dans le cadre de ce partenariat, la bts s’engage à accorder des prêts préférentiels à un taux d’intérêt fixe de 5 % aux bénéficiaires, sans fournir de garanties et sans autofinancement.
+globalement, cette nouvelle initiative devrait encourager les agriculteurs à accroître les superficies de céréales ensemencées. rappelons que pour la campagne 2024/2025, le gouvernement tunisien veut consacrer 200 000 hectares supplémentaires au blé. l’ambition affichée étant d’augmenter la récolte de la céréale qui s’est établie à 600 000 tonnes au cours de la campagne précédente alors que la consommation s’est élevée à plus de 2,8 de tonnes, d’après la fao.
+stéphanas assocle
+lire aussi:
+02/10/2024 - huit accords pour relancer le projet de production d’engrais mdhilla en tunisie
+12/09/2024 - la tunisie veut consacrer 200 000 hectares supplémentaires au blé en 2024/2025
+25/07/2024 - la tunisie enregistre un rebond de sa production céréalière en 2023/2024</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>riz, sorgho, maïs, mil</t>
-        </is>
+          <t>blé</t>
+        </is>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Guinée</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Guinée-Bissau : l’exécutif revoit à la baisse les prix du riz et de la farine de blé</t>
+          <t>Le Mali veut coopérer avec OCP Africa dans le secteur agricole</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09-2023</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(agence ecofin) - en afrique de l’ouest, les céréales constituent la base de l’alimentation des populations de la sous-région. en guinée-bissau, la disponibilité et l’accessibilité du riz principale céréale consommée est cruciale pour assurer la sécurité alimentaire dans le pays.
-en guinée-bissau, l’exécutif a revu à la baisse les prix de certaines denrées de première nécessité, dont le riz et la farine de blé. c’est ce qu’a révélé jamel joao handem, ministre du commerce le 18 septembre dernier.
-dans les détails, le prix du sac de 50 kg de riz brisé 100 % sera désormais commercialisé à 17 500 fcfa (28,4 $), soit 22 % de moins que le tarif de 22 500 fcfa (36,5 $) en vigueur précédemment tandis que le prix du sac de 50 kg de riz avec 5 % de brisure a été fixé à 22 500 fcfa (36,5 $) contre 24 000 fcfa (38,9 $) précédemment.  
-en ce qui concerne la farine de blé, le sac de 50 kg sera échangé à 24 600 francs cfa (39,9 $), soit une baisse de 15 % par rapport au tarif de 29 000 francs cfa (47 $) appliqué précédemment. selon m. handem cette décision vise à « amortir les charges qui pèsent sur le quotidien de la population » alors que le pays est en proie à une crise alimentaire.
-d’après joao manja, représentant résident du programme alimentaire mondial (pam) en guinée-bissau, les données de la dernière enquête de surveillance de la sécurité alimentaire et nutritionnelle effectuée dans le pays indiquent que plus de 380 000 personnes sont en situation d’insécurité alimentaire. 
-il faut rappeler que la guinée-bissau affiche l’un des plus grands niveaux de consommation de riz par habitant de la sous-région ouest-africaine, avec plus de 100 kg par an.
-stéphanas assocle
-lire aussi:
-19/09/2023 - la côte d'ivoire suspend les exportations de riz et de sucre pour lutter contre la flambée des prix</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>riz, blé</t>
-        </is>
+          <t>(agence ecofin) - au mali, le secteur agricole contribue à hauteur de 36,8 % au pib et emploie environ 68 % de la population active. comme dans la majorité des pays d’afrique de l’ouest, le recours aux engrais est encore limité. au mali, le ministère de l’agriculture a signé le mercredi 2 octobre un protocole d’accord pour entamer une coopération, avec la filiale du groupe marocain ocp dédiée à l’afrique (ocp africa). l’annonce a été faite dans un communiqué publié sur la page facebook du ministère. ce nouveau partenariat porte sur la mise en œuvre d’une initiative visant à renforcer l’utilisation des engrais dans le secteur agricole. les interventions seront menées sur 3 principaux axes, à savoir la gestion et l’amélioration de la santé et de la fertilité des sols, le développement des centres de services agricoles et la promotion de l’entrepreneuriat des jeunes et des femmes dans l’agri-tech. « cette initiative cadre parfaitement avec la politique nationale dans le domaine agricole pour promouvoir une agriculture durable, moderne et compétitive par le biais de la valorisation de notre potentiel agroécologique », souligne siméon kelema, ministre malien de l’agriculture dans le communiqué. ocp africa est spécialisée dans la production et la commercialisation d’engrais phosphatés et propose des solutions adaptées aux conditions locales et aux besoins des différentes cultures. au mali, le niveau d’utilisation des engrais chimiques s’élevait à 28,6 kg par hectare de terres cultivables en 2021, selon les données compilées par la banque mondiale. si ce taux est supérieur à la moyenne africaine de 26 kg, il reste encore loin de la recommandation de 50 kg formulée pour les pays africains par la déclaration d’abuja sur les engrais pour la révolution verte en 2006.
+stéphanas assocle
+lire aussi:
+02/10/2024 - huit accords pour relancer le projet de production d’engrais mdhilla en tunisie
+28/08/2024 - utilisation d’engrais : la tanzanie cible le de tonnes en 2024/2025
+19/08/2024 - mali : 2,8 $ au profit de la filière mangue d’ici 2027
+04/07/2024 - mali : un complexe agro-industriel de 23 $ lancé à sanankoroba</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Togo Soja, l’usine de transformation de la Plateforme industrielle d’Adetikope est désormais opérationnelle</t>
+          <t>Huit accords pour relancer le projet de production d’engrais Mdhilla en Tunisie</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09-2023</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(agence ecofin) - le gouvernement togolais multiplie les actions et initiatives en faveur de la filière soja, dont veut manifestement faire un pilier de sa politique agricole au cours des années à venir.
-la plateforme industrielle d’adetikope (pia) au togo a annoncé l'opérationnalisation de la plus grande usine de transformation de soja du pays, baptisée togo soja.
-« en ayant atteint avec succès notre premier objectif de produire 50 000 tonnes de soja, ce projet démontre notre engagement envers la vision du gouvernement en faveur de l’industrialisation du togo » relaie togofirst.
-le gouvernement togolais vient de relever un défi important dans l’agro-alimentaire, avec la mise en service ce 31 août 2023, de l’usine de transformation du soja, dénommée ‘’togo soja’’.les précisions dans le document ci-dessous ?? pic.twitter.com/gzzjz5n7nn
-— présidence togolaise/togolese presidency (@presidencetg) september 2, 2023
-le soja transformé devrait être exporté vers la sous-région et dans le monde. ayant coûté un investissement total de 25 millions usd (environ 15,2 milliards fcfa), togo soja est dotée de 2 unités de transformation qui serviront à produire non seulement de l’huile de soja, mais aussi des tourteaux et autres produits dérivés qui seront fournis aux producteurs comme fertilisants.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>soja, mil</t>
-        </is>
+          <t>(agence ecofin) - huit accords pour relancer le projet de production d’engrais mdhilla en tunisieen afrique du nord, le maroc, l’algérie et l’égypte dominent les segments de la production et de l’exportation d’engrais. derrière ce trio, la tunisie affiche également des ambitions de croissance dans le secteur. le groupe chimique tunisien (gct) opérant sous l’autorité du ministère de l’industrie, des mines et de l’énergie a officialisé le lundi 30 septembre la signature de 8 accords avec des entreprises locales et étrangères spécialisées dans la construction industrielle et les travaux publics. selon les médias locaux, ces accords visent notamment à relancer le projet de production d’engrais chimiques « mdhilla 2 » basé dans le gouvernorat de gafsa dont le chantier est à l’arrêt depuis 2020. ledit projet porte sur la construction d’une usine de production de superphosphate triple (tsp) et d’acide phosphorique. l'usine, une fois opérationnelle, est prévue pour produire annuellement 400 000 tonnes de tsp et 180 000 tonnes d’acide phosphorique concentré et générer un chiffre d’affaires attendu à 520 de dinars (171 $). d’après fatma thabet (photo), ministre chargée de l’industrie, le principal enjeu de l’usine est de renforcer la position de l’industrie tunisienne des engrais chimiques sur le marché international. les données compilées sur la plateforme trade map indiquent que les expéditions d’engrais du pays d’afrique du nord ont rapporté près de 362 $ en 2023. parmi les principaux acheteurs de l’engrais tunisien, figurent principalement les usa, l’italie, le bangladesh, la turquie et l’inde comptant ensemble pour plus de 76 % des envois en valeur. stéphanas assocle</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Bénin</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Burkina Faso : l’Observatoire national du riz entre en service</t>
+          <t>Bénin : la BAD premier partenaire du développement et la modernisation de la filière ovine</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>07-2023</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(agence ecofin) - au burkina faso, le riz est le 3ème produit de grande consommation le plus importé après les hydrocarbures et les médicaments essentiels. dans le pays, l’industrie locale est confrontée à de nombreux défis qui limitent la production de la céréale.
-au burkina faso, l’observatoire national du riz (onar-bf) a été officiellement mis en place au cours d’une cérémonie de lancement qui s’est tenue le 25 juillet, rapporte le quotidien local lefaso.net.
-ce nouvel organisme public est mandaté pour accompagner l’ensemble des parties prenantes impliquées dans la filière riz, dont les pouvoirs publics, le secteur privé et les partenaires au développement, à mieux coordonner les politiques, le financement et la recherche, afin de renforcer les synergies pour une meilleure compétitivité du riz local.
-« de façon concrète, l’onar-bf devrait permettre d’aligner les priorités de développement du secteur rizicole burkinabè qui portent essentiellement sur l’accroissement durable de la production, l’amélioration de la compétitivité et de la qualité du riz ainsi que le renforcement des capacités des acteurs nationaux, afin qu’ils soient à la hauteur des enjeux de la filière riz », explique gaoussou sanou, secrétaire général du ministère de l’agriculture.
-d’après les données compilées sur la plateforme trademap, le pays a importé pour plus de 138 millions $ de la denrée sur le marché international en vue de combler son déficit de production en 2022.
-stéphanas assocle 
-lire aussi:
-19/07/2023 - le burkina faso face au défi de l’augmentation de la demande de riz</t>
+          <t>(banque africaine de developpement) - au début des années 2000, le bénin a engagé une réforme de sa filière ovine, dont la production de viande et de lait ne suffisait pas à répondre à la demande locale. l’objectif affiché par les autorités était de réduire ses importations estimées, chaque année, à 60 000 tonnes de viande et 40 000 tonnes de lait en moyenne. le fonds africain de développement, guichet concessionnel du groupe de la banque africaine de développement, s’est positionné comme un acteur clé de cette réforme.
+partenaire financier principal du projet d’appui aux filières lait et viande, approuvé en décembre 2008 le fonds a accordé un financement de 39,24 de dollars américains pour la réalisation de plusieurs infrastructures modernes au profit des populations de 18 communes du bénin. « le projet a réalisé la plupart des infrastructures prévues. il y a des retenues d’eau construites ainsi que des fermes d’élevage, des de laiteries et des petits abattoirs dans les communes de calavey et de sanvè », explique émile godonou, coordonnateur du projet. ces infrastructures ont été réalisées avec le concours des structures décentralisées du ministère béninois de l'agriculture, de l'élevage, de la pêche, des élus communaux et des bénéficiaires directs. « ce projet a fait établir dans notre commune trois infrastructures de grande importance, souligne timothée biaou, maire de savè. il y a le marché à bétail qui nous permet, toutes les semaines, d'acheter et de vendre des bovins et des petits ruminants. il contribue énormément à l’activité et capitalise les ressources financières pour l'économie de notre commune. nous avons l'aire d'abattage pour améliorer de façon très sensible l'abattage des animaux dans des conditions hygiéniques requises. enfin, nous bénéficions de la remise en état du barrage pour que le bétail puisse trouver de l'eau et que les éleveurs arrivent facilement à abreuver leurs troupeaux. ». le maire de banikoara se réjouit également des 30 kilomètres de routes aménagées sur l'étendue du territoire communal. « ce sont des routes bien aménagées avec des ouvrages qui permettent l'évacuation des produits laitiers et autres produits agricoles. nous avons également bénéficié de la construction du marché à bétail de l'alborie », précise bio sarako.
+le projet, achevé en 2017, a enregistré des résultats satisfaisants entre 2012 et 2017 : le taux de mortalité annuel a reculé de 12 % à 3 % chez les bovins, de 15 % à 8 % chez les ovins, de 15 % à 9 % chez les caprins et de 19 % à 6 % chez les porcins.
+par ailleurs, il a été noté un accroissement du rendement laitier (de 212 litres de lait par vache et par lactation à 316 litres en fin du projet) et de la productivité en viande - générant une production additionnelle de plus de 79 000 tonnes de viande. aussi, le taux de couverture des besoins de la population en produits animaux par la production nationale, qui était de 35,6 % (2012) est passé à 36,3 % (2017) pour le lait et de 52,3 % à 69,83 % pour la viande.
+les filières viande et lait font ainsi partie des projets phares du référentiel de développement quinquennal du bénin intitulé « programme d’actions du gouvernement » (pag, 2016-2021), en raison de leur contribution à la sécurité alimentaire et nutritionnelle et à la création d’emplois et de revenus.
+en 2021, le bénin a soumis au financement du groupe de la banque le projet d’appui au développement des filières lait et viande et à la promotion des entreprises d’élevage. l’objectif était d’améliorer la productivité et la profitabilité de la filière ovine de façon durable et climato-intelligente. pour sa mise en œuvre prévue sur cinq ans (2022-2026), le projet bénéficie d’un prêt de 15,17 de dollars et d’un don de 13,40 de dollars du fonds africain de développement.
+le projet prévoit notamment la réhabilitation de dix retenues d’eau pour l'alimentation en eau du bétail et la réalisation de 57 forages pour équiper des abreuvoirs et des pompes immergées solaires, dont neuf seront reliés à des châteaux d’eau. d’autres travaux sont programmés, dont l’aménagement de 2 500 hectares d’aires de pâturage, le traçage et le balisage de 500 kilomètres de couloirs de passage des animaux, et la construction de trois marchés de bétail et trois postes d’abattage.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>riz, mil</t>
-        </is>
+          <t>mil</t>
+        </is>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Afrique du Sud</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Le Burkina Faso face au défi de l’augmentation de la demande de riz</t>
+          <t>Afrique du Sud : Rainbow Chicken renoue avec le profit en 2023/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>07-2023</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(agence ecofin) - sur la dernière décennie, le riz a gagné en importance dans les ménages burkinabè devant peu à peu un composant essentiel de la ration alimentaire quotidienne. un tel contexte met sous pression l’appareil productif qui doit s’adapter à cette situation impulsée notamment par l’urbanisation et la croissance démographique.  
-si au burkina faso, le riz est la 4ème céréale la plus produite derrière le sorgho, le mil et le maïs, elle est la denrée de base dont la croissance de l’utilisation est la plus importante depuis quelques années. selon les données du département américain de l’agriculture (usda) consultées par l’agence ecofin, la consommation a augmenté au total de près de 300 000 tonnes entre 2015 et 2022.
-la céréale est de plus en plus plébiscitée dans les principaux centres urbains de bobo-dioulasso et de ouagadougou avec une préférence de moins en moins marquée pour les graminées traditionnelles.
-sur le plan national, la consommation frôle les 1 million de tonnes chaque année avec un volume par tête qui dépasse désormais les 60 kg d’après l’usda. un niveau inférieur à celui de pays comme la côte d’ivoire ou la gambie (117 kg), mais qui dépasse celui du ghana estimé à 43 kg par an.
-des importations en hausse 
-avec la dynamique de sa consommation et la faiblesse de l’offre locale, le riz est devenu sur la dernière décennie, la principale céréale importée. d’après les statistiques de l’usda, les achats de riz blanchi du pays ont presque doublé entre 2015/2016 et 2022/2023 passant de 350 000 tonnes à 600 000 tonnes. un tel volume fait du pays, le 6ème importateur de la région derrière le nigéria, la côte d’ivoire, le sénégal, la guinée et le ghana.                                 
-cette dépendance vis-à-vis de l’extérieur qui permet de satisfaire près de 60 % des besoins nationaux a un coût financier important. d’après les données de la direction générale du commerce consultées par l’agence ecofin, les achats de riz ont ainsi coûté en moyenne annuellement 68 milliards fcfa sur la période 2016-2020, ce qui en fait le 3ème produit de grande consommation le plus importé après les hydrocarbures et les médicaments essentiels.
-une production qui doit suivre le rythme
-au burkina faso, le riz représente encore moins de 10 % de l’offre céréalière. à l’heure où d’après certaines prévisions des autorités, la demande nationale pourrait grimper à 1,5 million de tonnes dès 2025, les observateurs soulignent que la filière a encore une énorme marge de progression.      
-en effet, si actuellement la production de riz paddy avoisine les 520 000 tonnes sur seulement 230 000 hectares, la filière peut compter sur la forte disponibilité des terres cultivables pour combler le gap dans les prochaines années.
-selon les données officielles, le pays dispose d’un potentiel d’environ 500 000 hectares de bas-fonds et de plus de 233 500 hectares de terres irrigables pouvant servir à la culture du riz. sur ce total, la fao rapporte que seulement 10 % des bas-fonds et moins de 5 % des superficies irrigables sont mis en valeur.
-il s’agit pour les acteurs privés d’une véritable opportunité pour accroître la performance de la filière avec des investissements dans les aménagements pour améliorer les rendements aussi bien en riziculture irriguée que de bas-fonds notamment dans les trois régions les plus importantes pour le riz (hauts-bassins, cascades, boucle du mouhoun).
-d’après la fao, la productivité moyenne varie dans les deux systèmes de culture respectivement de 5 tonnes/ha à 2,6 tonnes/ha contre des potentiels de 9 tonnes et de 4 tonnes à l’hectare.  
-lire aussi :
-17/07/2023 - afrique subsaharienne : la production rizicole pourrait atteindre un nouveau record en 2023/2024</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>blé, maïs, riz, sorgho, mil</t>
-        </is>
+          <t>(agence ecofin) - en afrique du sud, rainbow chicken est le deuxième acteur de poids sur le marché de la volaille derrière astral foods. l’entreprise qui est autonome depuis peu après sa scission avec rcl foods a clôturé son exercice fiscal 2024 dans le vert.
+en afrique du sud, rainbow chicken, un des leaders de la production de volaille a enregistré un bénéfice net de 169,6 de rands (9,7 $) au terme de son exercice fiscal de 2024 qui s’est clôturé le 30 juin dernier.
+un an plus tôt, l’entreprise agroalimentaire déclarait une perte nette de 299,9 de rands (17,2 $). cette embellie est principalement attribuée à une amélioration du chiffre d’affaires de 7,9 % d’une année sur l’autre à 14,5 de rands (834 $).
+« le gain global par rapport à la période précédente peut être attribué à une meilleure performance agricole, à des rendements de transformation plus élevés, à une gestion efficace des coûts, à une amélioration des prix de vente, à une augmentation des volumes des canaux de vente au détail et en gros, à une baisse des prix des produits de base ainsi qu’à une réduction des coûts de délestage », peut-on lire dans le résultat financier de l’entreprise.
+en plus de la croissance du chiffre d’affaires, l’entreprise a également déclaré une réduction de ses coûts de financement net de 43,2 de rands (2,5 $) qui a permis d’alléger les charges financières. selon les responsables, cette baisse des coûts de financement est à mettre en lien avec la scission avec l’entreprise l’agroalimentaire rcl foods dans le cadre de son introduction à la bourse de johannesburg en juin 2024. « l’impact de cette scission a entraîné l’arrêt de l’amortissement et des impacts fiscaux différés associés jusqu’au 30 juin 2024 », indique l’entreprise.
+en afrique du sud, rainbow chicken contrôle environ 18,5 % des parts du marché de la volaille, d’après les données de l’association sud-africaine de la volaille (sapa). l’entreprise y exploite 5 usines de transformation de poulets.
+stéphanas assocle
+lire aussi:
+25/09/2024 - afrique du sud : daybreak foods bénéficie d’un prêt de 14,5 $
+20/09/2024 - afrique du sud : légère hausse attendue de l’offre en viande de poulet en 2024</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Le Niger interdit les exportations de mil et de riz jusqu’à nouvel ordre</t>
+          <t>West Kenya Sugar veut injecter plus de 29 millions $ dans une distillerie</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>07-2023</t>
+          <t>10-2024</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(agence ecofin) - au niger, les céréales constituent la base de l’alimentation de la population. alors que le marché mondial de cette catégorie de denrées s’apprête à connaitre de nouveaux troubles, l’exécutif prend déjà des dispositions pour en assurer la disponibilité sur le marché local. 
-au niger, le ministère du commerce intérieur a publié le 21 juillet dernier un arrêté interdisant jusqu’à nouvel ordre les exportations de deux céréales de base, en l’occurrence le mil et le riz. « les agents du ministère du commerce, les agents des douanes, les forces de défense et de sécurité, sont habilités à constater et réprimer les infractions aux dispositions du présent arrêté conformément aux textes en vigueur », peut-on lire dans le document.
-selon l’organisme public, cette initiative vise à assurer l’approvisionnement régulier du marché national et devrait permettre de juguler les risques d’inflations des produits alimentaires. il faut noter qu’avec une production annuelle de 3,6 millions de tonnes, le mil est la première céréale cultivée au niger ainsi que la première céréale consommée avec une demande intérieure avoisinant les 3,1 millions de tonnes par an.
-en ce qui concerne le riz, le pays dépend à hauteur de 80 % des importations pour satisfaire ses besoins de consommation qui se chiffre à plus de 500 000 tonnes de riz blanchi par an alors qu’il n’en produit que 83 000 tonnes.
-par ailleurs, l’annonce intervient alors que le marché mondial des céréales devrait connaitre de nouvelles perturbations notamment avec les décisions de la russie le 17 juillet de se retirer de l’accord sur l'initiative céréalière de la mère noir d’un côté et celle de l’inde premier exportateur mondial de riz, le 20 juillet de restreindre de près de 45 % ses expéditions de la céréale.
-stéphanas assocle 
-lire aussi:
-21/07/2023 - inde : après le riz brisé, les expéditions de riz blanc non-basmati sont désormais suspendues</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>riz, mil</t>
-        </is>
+          <t>(agence ecofin) - west kenya sugar est le principal fabricant de sucre sur le marché kényan. l’entreprise qui nourrit des ambitions de croissance veut se diversifier en investissant dans des secteurs d’activité connexes. west kenya sugar company limited, leader sur le marché sucrier au kenya, projette de construire une distillerie sur le site de sa sucrerie de kakamega, selon une information rapportée par business daily africa, mercredi 2 octobre.
+d’un coût total évalué à 3,8 de shillings (29,4 $) ce projet d'investissement s’inscrit dans le cadre d’une stratégie de diversification des activités de l’entreprise, en dehors du segment du sucre. selon les responsables du projet, la distillerie sera conçue pour transformer la mélasse, sous-produit de la fabrication de sucre, en vue de produire de l'alcool extraneutre (aen - éthanol contenant au minimum 96 % d'alcool par volume), de l'huile de fusel et de l'alcool dénaturé. il convient de noter que l'aen est la matière première principale de l’industrie des boissons alcoolisées où les perspectives de croissance attendue dans ce secteur devraient en stimuler la demande. les projections formulées sur la plateforme statista indiquent que les ventes sur le marché kényan des boissons alcoolisées devraient générer plus de 3 $ de recettes en 2024 et croitre de 6,24 % en moyenne par an jusqu’en 2029.
+au kenya, west kenya sugar factory exploite également deux autres sucreries basées dans les comtés de bungoma et busia. d’après les données de l’autorité de l’agriculture et de l’alimentation (afa), l’entreprise a fourni près de 22 % de la production nationale de sucre qui a atteint 796 554 tonnes en 2022.
+stéphanas assocle
+lire aussi:
+10/09/2024 - kenya : victory farms veut injecter 6 $ dans la pisciculture
+04/09/2024 - le kenya suspend temporairement ses importations de sucre</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sierra Leone : la FAO et le Vietnam s’associent pour soutenir la filière rizicole</t>
+          <t>Burkina Faso : interdiction d’importation de fil de tissage et pagnes tissés</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>06-2023</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(agence ecofin) - en sierra leone, le riz est un produit de grande consommation. le pays qui cible l’autosuffisance dans la denrée multiplie les coopérations internationales pour améliorer le niveau de sa production. 
-en sierra leone, abu bakarr karim, ministre de l’agriculture, des forêts et de la sécurité alimentaire a signé le 9 juin un accord avec saeed abubakar bancie, représentant-pays de la fao, pour la mise en œuvre en collaboration avec le vietnam d’un programme visant à renforcer la filière rizicole. l’annonce a été faite dans un communiqué publié sur le site de l’organisme onusien.
-today, the government of sierra leone @gosl signed a tripartite agreement #tpa with the food and agriculture organization @fao, to facilitate a south-south cooperation project with vietnam to strengthen the rice value chain in sierra leone. pic.twitter.com/cc44h48mmu
-— fao in sierra leone (@faosierraleone) june 9, 2023
-d’un coût total de 5 millions $, ce nouveau programme s’étendra sur une période de 4 ans. il devrait permettre selon les responsables d’aider les différents acteurs de la filière sierra-léonaise à accroître leur productivité et leur production de riz grâce à un meilleur accès aux technologies améliorées et à la transposition à plus grande échelle des meilleures pratiques tout au long de la chaîne de valeur.
-« des experts et des techniciens spécialisés dans la production de riz, l’irrigation, la sélection du riz, la mécanisation et la gestion post-récolte seront déployés sur différents sites nationaux, y compris des stations de recherche. en outre, des initiatives de renforcement des capacités telles que des voyages d’études, des formations sur le terrain et des formations de formateurs seront mises en œuvre pour renforcer les capacités des parties prenantes locales », peut-on lire dans le communiqué.
-dans le cadre de ce partenariat tripartite, le vietnam, 5ème producteur mondial de riz blanchi et 3ème fournisseur du continent africain après l’inde et la thaïlande, s’engage à mettre à contribution son expertise dans le secteur.
-en sierra leone, la culture du riz est réalisée sur une superficie de plus de 820 000 hectares. dans le pays, la production locale de riz blanchi couvre environ 70 % des besoins de consommation qui sont évalués à plus de 1,4 million de tonnes par an d’après les données de l’usda.
-stéphanas assocle 
-lire aussi : 
-02/06/2023 - nigeria : tingo mobile accorde 6,5 millions $ pour financer la production de riz et de blé
-01/06/2023 - en 2022, l’afrique a importé pour près de 570 millions $ de riz depuis le vietnam</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>riz, blé, mil</t>
-        </is>
+          <t>(agence ecofin) - le burkina faso fait partie des principaux producteurs de coton africain. dans le pays, le segment de la transformation est encore à ses débuts avec moins de 10 % de la production qui est absorbée par l’industrie.
+au burkina faso, les importations de fil de tissage et de pagnes tissés sont interdites depuis le 24 septembre, et ce jusqu’à nouvel ordre pour « promouvoir la chaîne de valeurs coton-textile-habillement ». c’est ce qu’a indiqué un communiqué publié par le gouvernement sur le réseau social x. communiqué portant interdiction de l'importation de fils de tissage et des tissés #burkinafaso #com_gouv_bf #sigburkina pic.twitter.com/z5ihzrev5t — sig burkina faso (@sigbf) september 26, 2024
+« les opérateurs économiques qui disposent des autorisations d’importation de fils de tissage et de pagnes tissés en cours de validité disposent d’un délai de trois (03) mois à compter de la date de signature du présent communiqué pour accomplir leurs procédures d’importation. passé ce délai, l’autorisation est considérée comme caduque. ceux disposant également des stocks de ces fils et pagnes tissés importés sont tenus de bien vouloir faire la déclaration auprès de la brigade mobile de contrôle économique et de la répression des fraudes (bmcrf) ou auprès des directions régionales du ministère en charge du commerce », indique ledit communiqué.
+plus globalement, cette décision est à mettre en lien avec les interventions publiques allant dans le sens du développement de la production intérieure de fil, de tissu et de vêtements à partir du coton cultivé sur place et la promotion de l’artisanat local.
+dans le pays, le pagne traditionnel tissé « faso danfani » (pagne tissé de la patrie en langue dioula) dispose depuis 2019 d’une indication géographique protégée (igp) auprès de l’organisation africaine de la propriété intellectuelle (oapi). ce catalogue qui comprend plus de 400 motifs créés par les femmes de toutes les régions du pays s’accompagne également aussi d’un logotype pour lutter contre les contrefaçons.
+pour rappel, le gouvernement a annoncé le 4 septembre dernier en conseil des ministres, la généralisation du port de la tenue scolaire en faso danfani dans les établissements d’enseignement publics et privés pour la rentrée scolaire 2024/2025.
+lire aussi :
+23/09/2024 - au burkina faso, ecobank décroche 17 $ auprès de la boad pour le coton</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Guinness Ghana Breweries et SNV lancent un plan quinquennal pour la production locale de sorgho</t>
+          <t>Burkina Faso : début de la construction d’une unité de production de pâtes alimentaires</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>06-2023</t>
+          <t>09-2024</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(agence ecofin) - au ghana, le sorgho est la troisième céréale cultivée après le maïs et le riz. alors que le pays produit la denrée presque autant qu’il n’en consomme, la filière peine à couvrir la demande de plus en plus croissante de la céréale dans l’industrie brassicole. 
-guinness ghana breweries (ggb plc), la filiale locale du géant britannique des boissons diageo vient de lancer un programme de 5 ans en collaboration avec l’organisation néerlandaise de développement (snv) pour améliorer son approvisionnement en sorgho auprès des agriculteurs.  
-dénommé « partnership for sustainable sorghum sourcing in ghana » (p3sg), ce nouveau projet sera mis en œuvre entre 2023 et 2028 et permettra selon les autorités d’aider plus de 12 500 petits exploitants agricoles à produire 72 375 tonnes de sorgho au cours de la période considérée.
-selon les détails relayés par le quotidien local ghanaian times le 23 juin dernier, la snv mettra à contribution son expertise dans le renforcement des systèmes agroalimentaires. les interventions prévues dans le cadre du p3sg porteront entre autres sur la réorganisation des agriculteurs opérant dans la filière, l’amélioration des contrats de production ou encore la mise œuvre de formation sur les techniques de production améliorée de sorgho.
-« actuellement, l’incapacité des agriculteurs à répondre à notre demande de sorgho découle de faibles rendements résultant d’un accès inadéquat aux ressources de production, y compris les semences améliorées, les intrants agricoles, tels que les engrais, les services financiers pour l’investissement dans la production, et les variations climatiques », a déclaré hélène weesie, directrice générale de la ggb.
-pour rappel, la compagnie met en œuvre actuellement un programme d’approvisionnement qui implique près de 30 000 producteurs auprès desquels elle achète 55 % de ses matières premières, dont le sorgho, le maïs et le manioc. elle a réalisé un chiffre d’affaires de 1,3 milliard de cédis (113,5 millions $) et un profit de 5,3 millions de cédis (463 000 $) durant son exercice financier 2022. 
-lire aussi : 
-20/06/2023 - sorgho : les usa devraient détrôner le nigeria pour redevenir le premier producteur mondial en 2023/2024
-09/06/2023 - face aux changements climatiques, le sorgho pourrait être un atout majeur dans le futur</t>
+          <t>(agence ecofin) - au burkina faso, les produits à base de blé sont parmi les denrées les plus consommées par la population urbaine avec le riz. depuis peu, les autorités veulent promouvoir l’investissement privé dans la production locale de farine afin de réduire la dépendance aux importations.
+au burkina faso, les travaux de construction d’une unité de fabrication de pâtes alimentaires ont été lancés le 26 septembre à koulpélé dans la commune de toecé par apollinaire kyelèm de tambèla, premier ministre du pays. ce projet nécessitera un investissement global de 8,5 fcfa (14,4 $) pour une durée du chantier estimée à 6 mois. selon les informations relayées par l’agence d’information du burkina (aib), l’initiative est le fruit d’un partenariat entre la turquie, le qatar et les autorités locales. il devrait en résulter une installation ayant la capacité journalière de produire 100 tonnes de pâtes alimentaires de 5 différents types. baptisée « anadolu industrie », cette unité devrait être suppléée par une minoterie dotée d’une capacité de 100 tonnes de farine par jour alimentée en matières premières par des producteurs locaux exploitants 2 000 hectares.
+ce nouveau projet agroalimentaire s’inscrit dans un contexte où le gouvernement ambitionne depuis 2023 de relancer la production locale de blé afin de réduire sa dépendance vis-à-vis des importations.
+en avril dernier, les autorités ont ainsi annoncé des prévisions de récolte de 250 tonnes de blé sur une superficie de 125 hectares au terme de la campagne 2023/2024. un tel objectif, s’il était réalisé permettrait au pays d’enregistrer un rendement de 2 tonnes par hectare, un niveau encore faible par rapport à celui de l’egypte (6 tonnes), mais proche de celui de l’ethiopie (2,8 tonnes) et qui serait supérieure aux rendements du nigéria, du maroc et de l’algérie variant entre 1 et 1,6 tonne/ha. en attendant les résultats de la moisson, le gouvernement a suspendu les importations de farine de blé jusqu’à nouvel ordre et a fixé comme nouvel objectif l’emblavure de 1 500 hectares pour porter la production de blé à 6 500 tonnes d’ici à 2025. lire aussi : 26/09/2024 - burkina faso : une unité de fabrication de farine infantile lancée à ouagadougou
+26/09/2024 - après 7 ans de réflexion, le burkina faso pourrait de nouveau opter pour le coton ogm</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>riz, sorgho, maïs, mil</t>
-        </is>
+          <t>riz, blé</t>
+        </is>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Nigéria</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nigéria : BUA Foods veut augmenter sa production de pâtes alimentaires</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - acteur majeur sur le marché des produits alimentaires de grande consommation au nigéria, le groupe bua foods souhaite renforcer sa présence dans le pays. le groupe vient d’annoncer un projet d’augmentation de sa capacité de production sur le segment des pâtes alimentaires. au nigéria, le groupe agroalimentaire bua foods a conclu un accord avec l’italien fava spécialisé dans la conception d’équipements pour l’industrie agroalimentaire, dans le but d’accroître sa capacité production de pâtes alimentaires. l’annonce a été faite dans un communiqué publié le mercredi 25 septembre sur le site du groupe. cet accord porte notamment sur l’installation de 9 nouvelles lignes dotées chacune d’une capacité de production de 6 tonnes par heure de pâtes alimentaires au sein de l’usine de bua foods basée à port harcourt dans l’état de rivers. si le coût et la date de livraison du projet n’ont pas été révélés, on sait que l’investissement devrait permettre d’augmenter la capacité annuelle de production de l’unité de 80 % pour atteindre 900 000 tonnes à terme. l’entreprise cotée à la bourse de lagos (ngx) indique que cet investissement s’aligne sur son ambition d’améliorer l’approvisionnement local en pâtes alimentaires et d’accroître son empreinte manufacturière dans le pays le plus peuplé de l’afrique.
+il convient de noter que le chiffre d’affaires réalisé par bua foods au cours du premier semestre de son exercice fiscal 2024 sur le segment des pâtes alimentaires a doublé pour atteindre plus de 74 de nairas (45,2 $). dans son résultat financier, le groupe indique d’ailleurs que les pâtes alimentaires constituent son 3ème produit alimentaire commercialisé après le sucre et la farine panifiable. rappelons qu’en août dernier, l’entreprise avait également conclu un accord similaire avec le groupe industriel turc imas pour augmenter sa capacité de production de farine de 3 200 tonnes par jour.
+stéphanas assocle
+lire aussi:
+21/09/2024 - nigeria : l’etat du niger signe pour installer 6 nouvelles sucreries
+20/09/2024 - nigeria : coca-cola veut injecter 1 $ dans ses activités d’ici à 2029
+18/09/2024 - nigeria : l’état d’enugu signe un accord de 24 $ pour relancer une minoterie</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>blé, mil</t>
+        </is>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Afrique du Sud</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Afrique du Sud : Daybreak Foods bénéficie d’un prêt de 14,5 millions $</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - en afrique du sud, l’industrie avicole est principalement dominée par le géant de l’agroalimentaire rcl foods. dans le pays, d’autres opérateurs comme daybreak foods sont également actifs dans le secteur et souhaitent améliorer leur capacité de production. en afrique du sud, le gestionnaire de fonds public investment corporation (pic) a octroyé un prêt de 250 de rands (14,5 $) à sa filiale daybreak foods, une entreprise agroalimentaire spécialisée dans la production de viande de poulets. l’information rapportée par bloomberg, le 20 septembre dernier, a été révélée par richard manzini, pdg de daybreak foods. selon le responsable, cet appui financier servira de fonds de roulement à l’entreprise qui nourrit des ambitions de croissance. « l’enveloppe sera principalement utilisée pour la mise à niveau technologique des abattoirs et des machines [...] afin d’augmenter la vitesse de traitement des poulets », a déclaré m. manzini.
+il faut noter que daybreak foods possède 2 abattoirs basés respectivement dans les provinces de gauteng et de mpumalanga affichant actuellement une capacité combinée d’abattage de 1,5 de têtes d’oiseaux par semaine. selon les données officielles, l’entreprise contrôlerait 7 % du marché sud-africain de poulet. globalement, cet investissement est à inscrire dans un contexte où l’industrie avicole retrouve des couleurs en 2024. en 2023, l’afrique du sud a connu la pire épizootie de grippe aviaire de son histoire ayant conduit à l’abattage de plus de 10,5 d’oiseaux, entraînant au passage des pertes économiques évaluées à plus de 529 $ pour la filière.
+selon les dernières estimations du département américain de l’agriculture (usda) la production de viande de poulet dans la nation arc-en-ciel est attendue sur un rebond de 5,7 % à 1,59 de tonnes en 2024.
+stéphanas assocle
+lire aussi:
+20/09/2024 - afrique du sud : légère hausse attendue de l’offre en viande de poulet en 2024
+16/09/2024 - afrique du sud : nestlé veut céder ses activités de production de crèmes à lactalis</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Algérie</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Algérie : le qatari Al Rayan veut investir dans l’agriculture irriguée</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - l’algérie est confrontée depuis plusieurs années à une sécheresse persistante qui affecte la disponibilité de ses ressources en eau comme dans la plupart des pays d’afrique du nord. dans le pays, l’investissement dans l’irrigation agricole est encouragé pour soutenir la production agricole.
+en algérie, l’office national des terres agricoles (onta) a délivré le vendredi 20 septembre dernier, un certificat de qualification pour l’exploitation d’une concession agricole à la société qatarie, al rayan. ladite concession est un domaine de 1 811 hectares basé à hassi el f'hel dans la wilaya d’el menia dans le sud du pays. selon les informations relayées par l’agence algérie presse service (aps), la société al rayan, prévoit d’investir dans la production agricole irriguée de culture stratégique, en l’occurrence les céréales et les cultures fourragères. « il sera procédé prochainement à l’installation de 27 pivots d’irrigation dans le but d’élargir les superficies irriguées de diverses filières agricoles. l’objectif étant d’élargir le projet à d’autres superficies si les résultats sont encourageants et la production abondante dans ce créneau d’investissement », a déclaré djakhdem hadj aissa, représentant de la société al rayan. par ailleurs, la société bénéficiera du soutien des autorités locales à travers l’accélération du processus d’attribution d’autorisation de forage de puits agricoles ou encore des programmes d’appui et d’accès aux semences mis en œuvre par le gouvernement. alors que le coût du projet n’a pas encore été révélé, les responsables estiment que cet investissement devrait contribuer à l’expansion des périmètres irrigués dans la région. en algérie, la superficie des surfaces agricoles irriguées était évaluée à près de 1,5 d’hectares par le ministère de l’agriculture en 2021, ce qui représentait près de 17 % de la surface agricole utile (sau) du pays. pour rappel, le pays d’afrique du nord est classé parmi les pays les plus exposés au stress hydrique, avec une pluviométrie de 89 mm par an, principalement concentrée dans le nord du pays.
+stéphanas assocle
+lire aussi:
+27/08/2024 - algérie : le projet sucrier de tafadis coûtera plus de 595 $
+28/06/2024 - le qatar se lance dans la culture de blé en algérie</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>blé</t>
+        </is>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Kenya : la Banque nationale lance un fonds de 15 millions $ en soutien à l’agriculture</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au kenya, l’agriculture contribue à hauteur de 21,3 % au pib et emploie environ 33 % de la population active. cependant, les prêts alloués par les institutions financières au secteur agricole demeurent encore faibles, notamment en raison des risques qui y sont associés. au kenya, la banque nationale (nbk) a lancé le jeudi 19 septembre un fonds de 2 de shillings (15 $) destiné au financement du secteur agricole. l’initiative baptisée kilimo konnect devrait permettre de fournir des prêts aux agriculteurs pour le financement de leurs activités, l’acquisition d’équipements et le traitement post-récolte.
+selon les informations relayées par le quotidien local business daily africa, cette solution financière prévoit également des interventions et la formation des agriculteurs pour promouvoir l’adoption de solutions agricoles axées sur les nouvelles technologies. d’après george odhiambo directeur général de la nbk, ce second volet sera réalisé avec la coopération de la société kényane de conseil aux entreprises private equity support (pes), l’agence néerlandaise pour les entreprises (rvo) et l’entreprise grobox limited. « cette solution s’inscrit dans le cadre du programme de développement durable de la nbk, qui consiste à fournir des solutions de financement vertes aux agriculteurs pour leur permettre d’assurer un avenir durable. grâce à kilimo konnect, nous cherchons à transformer le paysage agricole du kenya, en veillant à ce que les agriculteurs soient bien équipés pour relever les défis de l’agriculture moderne et prospérer sur un marché compétitif », a ainsi déclaré m. odhiambo.
+en 2022, le secteur agricole kényan n’a capté que 3,4 % de l’ensemble du portefeuille de prêts des banques commerciales allouées aux entreprises privées, d’après les données de la banque centrale du pays (cbk). l’institution financière a attribué cet accès limité aux prêts bancaires à l’impact de la sécheresse sur l’activité agricole, affectant la capacité des agriculteurs à gérer leurs prêts ou à en contracter de nouveaux.
+stéphanas assocle
+lire aussi:
+11/09/2024 - kenya : l’industrie floricole table sur un nouveau record à l’export en 2024
+04/09/2024 - le kenya suspend temporairement ses importations de sucre</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Tanzanie</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Tanzanie : la BAD octroie un prêt de 129 millions $ pour l’emploi pour des jeunes dans l’agro-industrie</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>(banque africaine de developpement) - le conseil d’administration du groupe de la banque africaine de développement a donné son approbation, le 20 septembre 2024 à abidjan, à l’octroi d’un prêt de 129,71 de dollars à la tanzanie. l’appui financier doit servir à la mise en œuvre de la première phase du programme « bâtir un avenir meilleur : les jeunes dans l’agro-industrie ».
+outre le prêt, représentant 53,76% du coût total du projet estimé à 241,27 de dollars, le financement de la banque consiste également en un premier don de 1,15 de dollars et un second don de 210 000 dollars mobilisés respectivement auprès du fonds fiduciaire de la coopération économique entre la corée et l’afrique (koafec) et d’east-west seed. les fonds de contrepartie du gouvernement de tanzanie viendront compléter ces ressources à hauteur de 110,41 de dollars, soit 45,76 % du coût total du projet.
+l’objectif du projet est de créer des possibilités commerciales et des emplois décents pour les jeunes le long des chaînes de valeur agricoles prioritaires. « ce projet devrait permettre d’incuber et d’autonomiser environ 11 000 agripreneurs, dont au moins 6 000 jeunes propriétaires d’entreprises agro-industrielles, a indiqué patricia laverley, cheffe du bureau de la banque en tanzanie. de plus, il vise à faciliter l’accès au financement pour 2 500 autres jeunes déjà engagés dans l’agro-industrie, mais avec peu ou pas d’accès aux prêts commerciaux pour développer leur entreprise. on s’attend à ce que chaque entreprise agro-industrielle dirigée par un jeune emploie en moyenne cinq ouvriers. »
+le projet prévoit l’élaboration et la mise en œuvre d’une stratégie de sensibilisation, de gestion et de diffusion des connaissances en utilisant des technologies de l’information et de la communication adaptées aux jeunes (réseaux sociaux, réseautage, etc.). cette stratégie permettra de promouvoir le programme et les débouchés dans l’agriculture moderne et adaptée au climat, en veillant notamment à attirer des candidatures féminines.
+en outre, des programmes de formation et d'accompagnement seront menés en matière d'incubation et d'accélération d’entreprises agroalimentaires. cela permettra aux coopératives de jeunes agriculteurs de surveiller et d'optimiser les intrants agricoles, de gérer plus efficacement leur chaîne de valeur, d'améliorer la productivité agricole et d'accéder aux marchés. l'utilisation des technologies numériques, y compris les technologies satellitaires et l'intelligence artificielle, fournira aux coopératives de jeunes agriculteurs des observations précises en temps réel sur les facteurs affectant la productivité, tels que l'irrigation et la gestion de l'eau, la santé des plantes, la qualité des sols, les conditions météorologiques, les ravageurs et les maladies des cultures, entre autres, afin d’améliorer les processus de prise de décision.
+le projet sera mis en œuvre dans les régions de dodoma et mbeya, qui sont bien avancées en termes de sécurisation des terres, de définition des sauvegardes environnementales et sociales, et d’analyses des sols.
+les jeunes bénéficiaires ciblés se répartissent en deux catégories : d’une part, des diplômés sans emploi qui ont terminé leurs études post-secondaires (incubation) ; d’autre part, des jeunes déjà engagés dans l’agro-industrie, mais avec peu ou pas accès à des prêts commerciaux pour développer leur entreprise. le 30 juin 2024, la banque africaine de développement avait réalisé 25 opérations en tanzanie, pour un engagement total de 3,48 de dollars.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>blé</t>
+        </is>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Malawi : Lilongwe abritera une unité de traitement de cannabis de 10 millions $</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - depuis 2020, le malawi fait partie des pays d’afrique australe où la culture du cannabis à des fins médicinales est légalisée. les perspectives de croissance de l’industrie locale suscitent l’intérêt des opérateurs privés qui souhaitent investir dans la filière. au malawi, l’entreprise pharmaceutique mmc laboratories basée au royaume-uni a donné, le mardi 17 septembre, le coup d’envoi pour les travaux de construction d’une unité de traitement de cannabis. d’un coût total de 18 de kwachas (10,3 $), l’installation est basée sur un site à mbabzi dans la capitale lilongwe. we proudly supported the groundbreaking ceremony of the mmc laboratories at mbabzi estate in lilongwe, a cutting-edge facility expected to produce high-quality wellness products and active pharmaceutical ingredients (apis) from cannabis biomass for global export. pic.twitter.com/ds2hahlelx — export development fund (@exportfund) september 17, 2024
+selon les informations relayées par les médias locaux, ce projet est mis en œuvre avec la coopération du fonds de développement des exportations (edf), de la société d'investissement agricole et industriel du malawi (maiic).
+brian tempest, président du conseil d’administration de mmc laboratories a déclaré que l’usine produira des ingrédients pharmaceutiques actifs (api) issus de la biomasse de cannabis dédiée à l’exportation sur le marché international. « elle est prévue pour entrer en service au début de l'année prochaine ». cet investissement devrait contribuer à renforcer l’industrie locale du cannabis légal. l’annonce intervient après que le parlement du malawi a approuvé en mars dernier la culture du chamba, une variété locale de cannabis à des fins industrielles et médicinales, en plus du chanvre industriel, dont l’exploitation était autorisée depuis 2020. « il est envisagé que lorsque nous commencerons à cultiver notre propre chamba, nous pourrons générer jusqu’à 200 $ par an au stade initial de l’industrie. mais lorsque l’industrie aura atteint sa maturité, nous pourrons porter les recettes jusqu’à 700 $ », avait déclaré peter dimba, un parlementaire qui se confiait sur le potentiel de la filière.
+stéphanas assocle
+lire aussi:
+11/09/2024 - maroc : une usine de transformation de cannabis entre en service à taounate 07/05/2024 - maroc : l’anrac veut attirer des investissements étrangers dans l’industrie du cannabis légal 29/03/2024 - le malawi approuve la culture d’une variété locale de cannabis</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Bénin</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Bénin : clap de fin pour la 18ème Conférence et Exposition de l’Alliance africaine du cajou</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - le bénin est avec le mozambique, l’un des seuls pays à avoir accueilli 3 fois la conférence annuelle de l’alliance africaine du cajou (aca). avec l’édition 2024 qui s’achève, les yeux sont désormais tournés vers la tanzanie pour l’année prochaine. la 18ème conférence et exposition de l’alliance africaine du cajou (aca) a pris fin ce jeudi 19 septembre à l’hôtel sofitel de cotonou. la cérémonie de clôture s’est déroulée en présence de gaston dossouhoui (photo), ministre de l’agriculture, de l’élevage et de la pêche.
+pendant 3 jours, l’évènement rythmé par des sessions en plénières, des panels, des expositions et des conférences-débats a vu défiler experts, chercheurs, transformateurs, exportateurs, producteurs ou encore partenaires techniques et financiers impliqués dans l’industrie de l’anacarde. avec pour thème « politiques visant à promouvoir la transformation du cajou en afrique : faisons-nous un impact ? », cet évènement aura attiré selon les organisateurs près de 400 personnes.
+dans son discours de clôture, m. dossohoui a notamment salué l’engagement pour la filière anacarde sur plus de 25 ans de rita weidinger, chef du projet de la coopération allemande « market oriented chains value for jobs and growth (giz/move) ». mettant en avant le succès global de l’évènement et « la fierté du bénin d’avoir abrité la conférence », le dirigeant a plaidé pour une synergie des interventions des acteurs de l’industrie. « je lance un appel du haut de cette tribune à tous les acteurs de la filière qu’ils soient transformateurs, exportateurs, chercheurs, institutions financières ou pouvoirs publics afin que nous travaillions de façon concertée pour faire de la filière cajou un moteur de développement pour nos pays respectifs et le continent […]. ensemble construisons une filière cajou forte, prospère et durable », a-t-il déclaré.
+en marge de cette cérémonie officielle de clôture, il faut souligner que l’alliance africaine du cajou (aca) a enregistré un changement à sa tête. babatola faseru qui dirigeait l’organisation depuis 5 ans a ainsi cédé sa place à ibrahim sanfo, élu comme nouveau président. pour l’édition 2025 de cette rencontre désormais incontournable sur le continent, m. sanfo a annoncé officiellement que le pays hôte serait la tanzanie, premier producteur de la noix en afrique de l’est. espoir olodo
+lire aussi 20/09/2024 - cajou : le ghana envisage une taxe sur les exportations de noix brutes</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>cajou</t>
+        </is>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Burkina Faso : exonération de taxes sur la production locale de farines de céréales</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au burkina faso, les céréales constituent la base de l’alimentation de la population. dans la filière, les minotiers jouent un rôle important dans le développement du segment de la transformation. au burkina faso, le gouvernement a consenti à une exonération de taxe au profit de la production locale de farine de blé, de maïs, de sorgho et d’autres céréales produites localement. l’annonce a été faite le jeudi 19 septembre dans un communiqué publié sur le site du gouvernement. cette décision est en lien avec l’adoption le même jour, en conseil des ministres d’un projet de loi de finances rectificative de la loi de finances pour l’exécution du budget de l’état pour l’exercice de 2024. « la nouvelle loi de finances rectificative va permettre de renforcer le dispositif de protection sociale du capital humain et d’accompagner l’industrialisation du pays », peut-on lire dans le communiqué. globalement, l’exonération de taxes sur la production locale de farine de céréales est un coup de pouce qui devrait réduire les charges fiscales des minotiers et pourrait encourager l’investissement des opérateurs privés dans le secteur. il faut rappeler qu’en avril dernier, le gouvernement burkinabè avait déjà posé un ban sur l’importation de farine de blé. d’après les données compilées par l’institut national de la statistique et de la démographie (insd), les achats de farines de blé effectués par le pays en 2023 ont augmenté de 31 % pour atteindre 16 360 tonnes. il faut également noter que sur la même année, les achats de blé sur le marché international ont grimpé de 26 %, atteignant plus de 270 000 tonnes. rappelons que le burkina faso importe la quasi-totalité de ses besoins en blé.
+stéphanas assocle
+lire aussi:
+19/09/2024 - burkina faso : le gouvernement suspend l’exportation de karité
+5/07/2024 - burkina faso : le gouvernement injectera 200 $ dans la production agricole</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>blé, karité, maïs, sorgho</t>
+        </is>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Afrique du Sud</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Afrique du Sud : légère hausse attendue de l’offre en viande de poulet en 2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - en afrique du sud, l’industrie avicole est l’une des plus développées d’afrique. le pays qui a connu l’épizootie de grippe aviaire la plus meurtrière de son histoire en 2023, relance sa production de viande de poulet. en afrique du sud, la production de viande de poulet est attendue en hausse de 5,7 % à 1,59 de tonnes sur l’ensemble de l’année 2024. c’est ce que révèlent les dernières estimations du département américain de l’agriculture (usda). dans un rapport publié le mercredi 4 septembre dernier, l’organisme américain anticipe également une croissance consécutive de 3,5 % de la production locale de viande à plus de 1,64 de tonnes en 2025.
+ces perspectives optimistes se fondent notamment sur la relance de l’industrie avicole locale touchée en 2023 par la pire épizootie de grippe aviaire de son histoire et qui a vu son offre de viande de poulet se contracter de 4,6 % à 1,5 de tonnes.
+selon les données officielles, cette crise sanitaire a conduit à l’abattage de plus de 10,5 d’oiseaux, soit 3 de reproducteurs et 7,5 de poules pondeuses, entraînant au passage des pertes économiques évaluées à plus de 529 $ pour la filière. il faut rappeler que dans le souci de reconstituer le cheptel perdu, le ministère de l’agriculture a autorisé en novembre 2023, l’importation de 9 d’unités d’œufs fécondés, et près de 1 de poussins d’un jour. dans la nation arc-en-ciel, la consommation annuelle de viande de poulet est attendue à plus de 1,8 de tonnes en 2024. avec la relance de l’industrie locale, l’usda estime que l’importation de viande de poulet devrait se contracter de 22 000 tonnes.
+lire aussi:
+16/09/2024 - afrique du sud : nestlé veut céder ses activités de production de crèmes à lactalis</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Afrique du Sud</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Afrique du Sud : Nestlé veut céder ses activités de production de crèmes à Lactalis</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - le groupe suisse nestlé est un acteur de poids dans l’industrie agroalimentaire en afrique. dans la sous-région d’afrique australe, l’entreprise se lance dans une restructuration de ses activités. en afrique du sud, nestlé east and southern africa region (esar), la division du groupe agroalimentaire nestlé en afrique orientale et australe a entamé le processus pour vendre ses activités de production de nestlé cremora, une marque phare de crème au groupe laitier français lactalis. l’annonce a été faite dans un communiqué publié le 11 septembre dernier sur le site d’esar. si les principaux détails de la cession n’ont pas été révélés, on sait que dans la nation arc-en-ciel, nestlé cremora est exclusivement fabriquée dans 2 usines respectivement basées dans les villes de babelegi et potchefstroom. d’après le communiqué, cette transaction reste encore soumise à l’approbation des autorités réglementaires en charge de la concurrence. pour les responsables de nestlé, la démarche s’inscrit dans le cadre d’une réorientation stratégique des activités du groupe pour faire évoluer son modèle d’affaires et rester compétitif et durable sur le long terme. « cette décision a été prise après avoir examiné divers facteurs et n’a pas été prise à la légère. nous pensons que cremora est entre de bonnes mains avec lactalis sa. cette transition est dans le meilleur intérêt de notre entreprise, de nos employés, de nos clients, de nos partenaires et des consommateurs » a déclaré, mota mota, responsable de la communication externe de nestlé. il faut noter qu’en 2023, le groupe suisse avait déclaré une baisse de 9 % de son chiffre d’affaires provenant des ventes de produits laitiers dans la zone asie, océanie et afrique (aoa) à 3,3 de francs suisses (3,9 $). au terme du premier semestre de son exercice fiscal de 2024, nestlé a en outre enregistré une baisse de 6,8 % de son chiffre d’affaires global dans cette zone à 8,4 de francs suisses (9,9 $). « par régions, les principaux moteurs de croissance ont été l’afrique centrale et l’afrique de l’ouest, l’asie du sud et la thaïlande. la zone aoa a gagné des parts de marché dans la confiserie et le café prêt à boire, mais a perdu des parts dans les produits laitiers », expliquait alors le groupe dans son résultat financier publié le 25 juillet dernier.
+pour la multinationale française lactalis, l’acquisition de nestlé cremora est une opportunité de diversifier son offre de produits et de consolider sa présence dans l’industrie laitière sud-africaine.
+stéphanas assocle
+lire aussi:
+20/08/2024 - alger abritera une unité de production de lait en poudre et de farine infantile
+25/07/2024 - l’afrique du sud revoit à la baisse ses prévisions d’exportations d’oranges en 2024
+28/06/2024 - afrique du sud : les expéditions de maïs devraient chuter de 58 % en 2024/2025</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>maïs</t>
+        </is>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Burkina Faso : le gouvernement suspend l’exportation de karité</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au burkina faso, la production d’amande de karité est la 2ème plus importante au monde après le nigéria. alors que la production est principalement exportée sous forme brute, le gouvernement promeut la transformation locale pour améliorer la création de valeur ajoutée dans la filière. au burkina faso, l’exportation d’amandes de karité est interdite jusqu’à nouvel ordre. l’annonce a été faite dans un communiqué conjoint publié le 18 septembre par le ministère de l’industrie, du commerce et de l’artisanat et celui en charge de l’économie et des finances. cette décision a pour objectif de rendre disponible l’amande de karité utilisée comme matière première par les unités industrielles de transformation au niveau national. « la suspension des exportations s’aligne sur la dynamique du gouvernement visant à soutenir le développement de l’industrie locale », souligne le communiqué. cette annonce est à inscrire dans un contexte où les exportations burkinabè de beurre de karité ont baissé de 14,35 % en moyenne par an entre 2020 et 2023, passant de 22 700 tonnes à 12 215 tonnes, d’après les données compilées par l’institut national de la statistique et de la démographie (insd). parallèlement, les expéditions d’amande de karité ont grimpé de 19,37 % en moyenne par an sur la même période, passant de 104 700 tonnes en 2020 à 212 600 tonnes en 2023. en ce qui concerne les derniers développements sur le segment de la transformation, il faut noter qu’en avril 2024, le président ibrahim traoré a inauguré une huilerie de 18 de francs cfa (30,6 $) dans la ville de bobo-dioulasso. il s’agit d’un complexe industriel doté d’une capacité de production de 25 000 tonnes de beurre de karité appartenant à l’agence deli internationale prod industries (adiprod industries sa). au burkina faso, les expéditions d’amandes de karité et de beurre de karité ont généré 60,9 de francs cfa (103,5 $) de recettes en 2023, selon l’insd.
+stéphanas assocle
+lire aussi:
+25/07/2024 - burkina faso : le gouvernement injectera 200 $ dans la production agricole
+18/07/2024 - burkina faso : vers la relance des brasseries du faso
+04/07/2024 - mali : un complexe agro-industriel de 23 $ lancé à sanankoroba</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>karité</t>
+        </is>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Bénin</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Lancement de la 18ème Conférence &amp; Exposition annuelle de l’Alliance africaine sur le cajou au Bénin</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - depuis 2006, l’alliance africaine sur le cajou (aca) tient annuellement la plus importante rencontre panafricaine sur la filière cajou. cette année, c’est le bénin qui accueille pour la troisième fois cet évènement. la 18ème conférence et exposition annuelle de l’alliance africaine du cajou (aca) s’est ouverte ce mardi 17 septembre à cotonou. la cérémonie de lancement s’est tenue en présence de alimatou assouman, ministre de l’industrie et du commerce, andré tandjiekpon, secrétaire exécutif du conseil international consultatif du cajou (cicc), de moussa do rego, président de l’interprofession béninoise de la filière anacarde (ifa) et babatola faseru(photo), président de l’aca.
+cet évènement réunira sur 3 jours, différents acteurs de la chaîne de valeur africaine du cajou autour du thème « bâtir les capacités pour une industrie du cajou africain durable ». alors que cette rencontre se déroule pour la 3ème fois au bénin, babatola faseru rappelle que cette nouvelle édition s’inscrit dans un contexte où le pays s’est distingué depuis 5 ans par une politique engagée vers l’amélioration de l’environnement des affaires et de la transformation. alimatou assouman, ministre de l’industrie et du commerce du bénin « le bénin a fait des efforts importants dans la transformation en mettant en œuvre une politique de transformation audacieuse qui est un exemple dans la sous-région à l’image de la côte d’ivoire. tous ces efforts visent à mettre en place une industrie compétitive. ce n’est pas juste de la rhétorique », indique m. faseru.
+« nous sommes parfaitement en phase avec le thème de cette année. je souhaite que durant ces trois jours, nous puissions trouver des réponses à la question de l’approvisionnement des usines en matières premières en afrique pour dépasser le seuil des 10 % de la production transformée habituellement. les compétences, le financement et les capacités existent. au bénin nous sommes prêts et nous allons continuer les efforts pour permettre que les industries existantes soient approvisionnées et limiter les exportations de noix brutes », a déclaré alimatou assouman, ministre de l’industrie et du commerce dans son allocution d’ouverture.
+au programme de l’évènement, une dizaine de communication sous la forme de sessions d’information, d’ateliers et panels autour de différentes thématiques comme la production, la commercialisation, la transformation, l’implication des femmes, la conformité aux exigences des marchés d’exportation comme l’union européenne (ue). les quelque 350 participants attendus à la conférence auront également l’occasion de visiter les stands d’exposition d’entreprises de la sous-région et du reste du monde, actifs dans la filière. espoir olodo lire aussi :
+08/07/2024 - côte d’ivoire : ouverture d’un incubateur pour l’anacarde avec l’appui de la banque mondiale</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>cajou</t>
+        </is>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Ghana : avec près de 368 000 tonnes, la production de niébé a atteint en 2022, un niveau historique</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>06-2023</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>(agence ecofin) - en afrique de l’ouest, les légumineuses représentent une importance source de protéines pour les populations à bas revenus. dans plusieurs pays de la région, elles permettent une diversification des rations alimentaires et participent à la sécurité alimentaire. 
-au ghana, l’année 2022 a été historique pour la filière niébé. selon les données officielles relayées par le département américain de l’agriculture (usda), la production s’est en effet établie à 367 787 tonnes, soit le plus important volume jamais enregistré.       
-ce niveau record vient couronner une décennie de développement de cette culture qui aura vu la récolte progresser de 5 % en moyenne par an entre 2012 et 2022 d’après les calculs de l’agence ecofin. dans le pays d’afrique de l’ouest, cette tendance positive de l’appareil productif a été d’abord portée par l’essor de la consommation du niébé.
-il s’agit en effet de la légumineuse la plus nutritive étant donné sa forte teneur en protéines et en énergies. ces différentes caractéristiques couplées à son accessibilité économique en font une denrée de choix pour de nombreux ménages à bas revenu aussi bien en milieu urbain que rural.
-réduite en farine ou en semoule, le niébé peut ainsi servir à la fabrication de pain ou peut être préparé sous forme de bouillie ou être associé à des céréales comme le riz. au ghana, la consommation annuelle globale est estimée 325 000 tonnes pour une utilisation par tête atteignant les 10 kg par an.
-le niébé bt, un coup d’accélérateur au développement de la filière ? 
-ces dernières décennies, la croissance de la filière s’est faite en dépit des nombreuses contraintes liées aux ravageurs de la légumineuse dont le principal est le foreur de gousses « maruca vitrata ». 
-l’insecte lépidoptère (papillon) qui peut réduire les rendements de 20 à 80 % selon la sévérité des attaques est une menace majeure pour la culture de la denrée qui s’effectue principalement dans les régions du nord, du nord est, du haut-ghana occidental, du haut-ghana oriental et de savannah. 
-dans un tel contexte, il faut noter que les autorités ont donné en juin 2022, le feu vert au niébé génétiquement modifié (niébé bt) pour la culture et l’alimentation humaine et animale. comme détaillé dans un des rapports ecofin pro revenant sur l’état du marché des ogm en afrique de l’ouest, cette approbation de l’autorité nationale de biosécurité (nba) pourrait changer la donne dans la filière.
-actuellement les producteurs doivent traiter les champs avec les insecticides entre 8 et 12 fois durant un cycle de culture s’étalant sur 3 mois. ce nombre d’applications pourrait être divisé par 3 avec la nouvelle variété. une situation qui devrait réduire les coûts de production chez les exploitants et leur permettre d’investir dans le développement de leurs exploitations.
-dans un tel contexte, plusieurs analystes pronostiquent déjà une hausse de la récolte dans les prochaines années dans l’hypothèse d’un accès massif des producteurs au niébé bt. il faut noter que le ghana n’est pas le premier pays en afrique de l’ouest à miser sur le niébé bt. déjà en 2019, le nigéria est devenu le premier pays à approuver la culture de la légumineuse génétiquement modifiée. 
-espoir olodo 
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ghana : l’exploitation minière illégale inquiète l’industrie horticole</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au ghana, l’exploitation minière illégale constitue une menace sérieuse pour la production agricole. en dehors du cacao, d’autres secteurs comme l’horticulture sont également confrontés aux effets négatifs de cette pratique. au ghana, l’association des producteurs et exportateurs de légumes (vepeag) tire la sonnette d’alarme sur la menace que représente l’exploitation minière illégale localement appelée « galamsey » pour l’industrie horticole. dans une déclaration rapportée par les médias locaux le 17 septembre, felix kamassah, président de la vepeag, indique que l’intensification des activités minières illégales menace la qualité des légumes qui sont produits dans le pays. pour expliquer cette crainte, le responsable met en avant le fait que cette pratique est responsable de la pollution des masses d’eau utilisées pour l’irrigation, ce qui rend les légumes produits impropres à la consommation.
+« les effets négatifs des activités de galamsey sur la production de légumes comprennent la perte de terres agricoles pour la culture de légumes, la faible production de légumes pour les marchés locaux et d’exportation ainsi que des légumes impropres à la consommation, ce qui constitue une menace pour la sécurité alimentaire », explique kamassah. pour le vepeag, la principale crainte sur le segment des exportations serait l’interdiction des légumes ghanéens sur les marchés internationaux, en l’occurrence l’ue, le principal débouché de la filière. il faut rappeler qu’entre 2015 et 2017, le bloc économique avait déjà imposé un ban sur les importations de certains légumes en provenance du ghana pour non-conformité aux normes réglementaires, une sanction qui aura coûté environ 36 $ à l’industrie horticole, selon les données officielles.
+stéphanas assocle lire aussi:
+17/09/2024 - ghana : la contrebande aurait concerné 160 000 tonnes de cacao en 2023/2024 13/09/2024 - ghana : la production de maïs est attendue en baisse de 36 % en 2024/2025</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>maïs</t>
+        </is>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mozambique</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mozambique : le terminal céréalier du port de Maputo abritera 4 nouveaux silos</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au mozambique, le terminal céréalier du port de maputo est l’un des plus importants du pays. il joue un rôle central dans l’importation et l’exportation de grains, facilitant le commerce non seulement au sein du pays, mais aussi avec des pays voisins comme l’afrique du sud et le zimbabwe.
+la maputo port development corporation (mpdc), en charge de la gestion du principal port du mozambique, a conclu un accord avec la société en charge de la gestion du terminal céréalier du port de maputo (mgt) et le minotier merec industries. l’annonce a été faite dans un communiqué publié le 13 septembre sur le site de la mpdc. ce partenariat porte sur la mise en œuvre d’un projet visant à augmenter la capacité du terminal céréalier du port de maputo. d’un coût total de 5 $, ledit projet prévoit concrètement la construction de 4 nouveaux silos à grains d’une capacité combinée de 20 000 tonnes ainsi que l’amélioration de l’infrastructure ferroviaire afin d’optimiser la logistique et l’efficacité du terminal. la construction des nouveaux silos est prévue pour durer 18 mois.
+« avec l’expansion prévue, cette phase du projet comprendra l’extension des services de manutention à d’autres producteurs de céréales, ainsi que l’exploration de nouvelles opportunités pour l’exportation et le transit de céréales destinées aux pays voisins et au marché international », peut-on lire dans le communiqué. une fois réalisé, ce projet devrait permettre d’augmenter la capacité de stockage en silos du terminal de 80 % pour atteindre 45 000 tonnes alors que la capacité de manutention devrait passer de 170 000 tonnes à 350 000 tonnes par an à terme. selon les données officielles, le terminal céréalier de maputo a manutentionné 166 000 tonnes de grains en 2023.
+stéphanas assocle lire aussi:
+05/09/2024 - mozambique : la chine autorise l’importation d’anacardes en franchise de droits 15/05/2024 - trafic de bois vers la chine : le mozambique perd 500 $ par an (rapport)
+08/03/2024 - côte d'ivoire : le japon octroie 17 $ en soutien au développement du terminal céréalier du port d’abidjan</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Maroc</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Maroc : l'OCP obtient un prêt de 108 millions $ de la SFI pour un pipeline</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - le maroc est confronté depuis quelques années à une sécheresse persistante qui affecte sa disponibilité en ressources hydriques. cette situation limite aussi bien l’approvisionnement en eau potable et d’irrigation que celui des industries. au maroc, la société financière internationale (sfi) a annoncé, vendredi 13 septembre, l’allocation d’un prêt de 108 $ à l’office chérifien des phosphates (ocp), principal fournisseur d’engrais du pays. dans un communiqué publié sur son site, l’ocp indique que l’enveloppe servira à financer la construction d’un pipeline de 219 kilomètres et d’une station de pompage pour transporter de l’eau depuis ses usines de dessalement basées à jorf lasfar sur l’océan atlantique, jusqu’aux sites de production de khouribga dans le centre du maroc. il convient de noter qu'environ 70 % de la production de phosphate du groupe provient du bassin minier de khouribga. selon les responsables du projet, le pipeline sera doté d'une capacité annuelle totale de 80 m³. « en soutenant la construction de ce pipeline, la sfi permet au groupe ocp de répondre non seulement à ses propres besoins en eau, mais également de fournir des ressources en eau vitales aux communautés et de soutenir la production de cultures à forte valeur ajoutée. », peut-on lire dans le communiqué. plus largement, ce projet s’aligne sur l’ambition de l’ocp de s’approvisionner exclusivement en eaux non conventionnelles (eau de mer dessalée et eau usée traitée) pour alimenter ses usines d’ici la fin de 2024. au maroc, l’industrie capte 1,5 % des ressources en eau du pays, estimées à 22 m3 d’après les données du ministère de l'équipement et de l'eau. selon la banque mondiale, le royaume chérifien se trouve en situation de stress hydrique structurel, la disponibilité en eau étant passée de 2560 m³ par habitant et par an en 1960 à près de 620 m³ depuis 2020, notamment en raison de la sécheresse persistante.
+dans le pays, l’ocp prévoit de porter sa production d’engrais à 20 de tonnes d'ici à 2027 contre une offre qui s’élevait à 12 de tonnes en 2022.
+stéphanas assocle
+lire aussi:
+11/09/2024 - maroc : une usine de transformation de cannabis entre en service à taounate
+09/09/2024 - maroc : le projet textile du chinois sunrise coûtera plus de 420 $
+06/09/2024 - maroc : bientôt une loi contre le gaspillage alimentaire</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guinée</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>La BAD accorde 102 millions $ pour les agriculteurs de Guinée, du Sénégal et du Togo</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>( banque africaine de developpement) - le conseil d’administration du groupe de la banque africaine de développement a approuvé un financement de 102,79 de dollars en faveur du programme multinational de promotion des chaînes de valeur agricoles durables dans les zones spéciales de transformation agro-industrielle (sapz) couvrant la guinée, le sénégal et le togo.
+ce programme élargit l’intégration du changement climatique et de la réduction des émissions de gaz à effet de serre dans trois projets de sapz actuellement mis en œuvre dans les trois pays participants, à savoir : le projet de transformation agro-industrielle du togo ; sénégal agropole-sud ; et le programme de développement des zones spéciales de transformation agro-industrielle de boké et kankan en guinée.
+le programme soutient des petits systèmes d’irrigation couvrant au moins 39 179 hectares et la fourniture de 2,59 mégawatts (mw), soit la totalité de l’énergie solaire nécessaire au pompage de l’eau ; il finance aussi l’installation de petits équipements d’énergie renouvelable d’une capacité cumulée de 14,69 mw et la fourniture de 10,24 mw d’énergie à partir du biogaz généré par des biodigesteurs pour un volume cumulé de 24 576 m3 afin de traiter les déjections du bétail et de générer du biogaz pour la production d’électricité.
+le programme appuie l’adoption de pratiques et de technologies agricoles résilientes au climat par les acteurs de la chaîne de valeur agricole (petits exploitants agricoles, sociétés coopératives agricoles et associations de producteurs locaux), couvrant environ 40 000 hectares de terres.
+par ailleurs, le programme soutient le développement d’environ 40 000 hectares d’agroforesterie pour séquestrer le carbone ainsi que des activités visant à améliorer les services d’information climatique (création et expansion d’un réseau de stations agrométéorologiques et pluviométriques, déploiement de technologies pour renforcer les services d’information climatique et les systèmes d’alerte précoce, etc.).
+enfin, le programme complète d’autres actions en faveur de l’égalité de genre déjà en cours dans les projets sapz actuellement menés dans les trois pays. il permettra aux femmes d’accéder à des techniques innovantes d’irrigation à petite échelle et d’établir des liens entre exploitants agricoles et entreprises coopératives de transformation. il leur permettra également d’accéder à des services d’information climatique et à des systèmes d’alerte précoce et d’avoir accès à des technologies de séchage, de transformation et d’emballage à faible émission de carbone.
+le programme devrait bénéficier directement à 1 104 728 agriculteurs, et indirectement à 5 612 415 au total. au moins 50 % des bénéficiaires seront des femmes.
+« je suis heureux de franchir cette étape importante, car il s’agit du premier financement du fonds vert pour le climat (green climate fund, gcf de son acronyme en anglais) destiné à soutenir le programme des zones spéciales de transformation agro-industrielle (sapz) de la banque en afrique », a déclaré kazuhiro numasawa, chef de la division chargée des opérations des sapz à la banque africaine de développement.
+« le risque lié au changement climatique s’est accru sur le continent et ce financement du gcf permettra de répondre au besoin urgent de soutenir les communautés rurales confrontées aux défis climatiques en s’appuyant sur des technologies éprouvées. cette intervention arrive à point nommé pour renforcer le soutien aux femmes et aux jeunes dans les secteurs de l’agriculture et de l’alimentation dans ces pays, tout en tirant parti de la collaboration avec les acteurs du secteur privé associés aux projets de zones spéciales de transformation agro-industrielle en guinée, au sénégal et au togo », a-t-il ajouté.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Niger</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Le Niger négocie un financement supplémentaire de 80 millions $ auprès du FIDA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au niger comme dans la majorité des pays du sahel, la production agricole doit faire face à des épisodes de sécheresses sévères et cycliques. avec en plus la recrudescence de l’insécurité liée aux conflits depuis quelques mois, la sécurité alimentaire est mise à rude épreuve. au niger, le premier ministre mahaman ali lamine zeine a signé, le 11 septembre, deux accords de financement d’une valeur totale de 47,6 de francs cfa (80,4 $) avec le fonds international de développement agricole (fida). selon le responsable, il s’agit d’un financement additionnel pour la mise en œuvre du programme de développement de l’agriculture familiale dans les régions de maradi, tahoua, zinder (prodaf mtz) et du programme de développement de l’agriculture familiale dans la région de diffa (prodaf diffa). « le prodaf mtz et le prodaf diffa visent à opérer une transformation rurale profonde, en renforçant l’agriculture familiale durable et l’accès aux marchés. ils visent à améliorer durablement les revenus des ménages, à renforcer leur adaptation au changement climatique et à faciliter l’intégration socio-économique des populations déplacées au sein des communautés d’accueil », explique bernard hien, directeur régional du fida pour l’afrique de l’ouest et du centre. globalement, ces deux projets devraient bénéficier à plus de 2,6 de personnes, incluant des réfugiés, des personnes déplacées et/ou des rapatriés à travers plus de 24 communautés rurales. pour le gouvernement, cette initiative devrait également contribuer à améliorer la sécurité alimentaire dans le pays. au niger, les dernières projections formulées par la famine early warning systems network (fews net) en juin dernier indiquent que l’insécurité alimentaire aiguë persiste dans les zones de conflits situées dans les régions de tillabéry, du nord-ouest de tahoua, de diffa et du sud-ouest de maradi. dans le pays, l’organisation estime qu’entre 2,5 et 3 de personnes auront besoin d’une assistance alimentaire jusqu’en janvier 2025.
+stéphanas assocle
+lire aussi:
+28/08/2024 - nigeria : plus de 31 de personnes affectées par l’insécurité alimentaire (gouvernement)
+11/07/2024 - sécurité alimentaire: le burkina faso lance 2 initiatives de 34 $
+02/07/2024 - guinée : le pam débloque 143 $ en faveur de la sécurité alimentaire</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>mil</t>
+        </is>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Maroc</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Maroc : une usine de transformation de cannabis entre en service à Taounate</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - depuis la légalisation du marché du cannabis au maroc en 2021, les investissements se multiplient dans le secteur. l’entreprise somacan qui se positionne déjà comme l’un des principaux producteurs de la feuille, se renforce sur le segment de la transformation.
+au maroc, l’agence nationale de réglementation des activités relatives au cannabis (anrac) a procédé le 10 septembre à l’inauguration d’une usine de transformation de cannabis dans la province de taounate. basée sur un site de 0,3 hectare, l’installation a nécessité un investissement total de 20 de dirhams (2 $). selon les médias locaux, elle a été financée par l’entreprise marocaine somacan spécialisée dans la culture du cannabis légal. d’après mustapha el missouri, son directeur général, la production de l’usine sera dédiée à la fabrication de produits médicinaux à base de cannabis. « cette usine intègre des pépinières et des unités industrielles d’extraction de résine ou d’huile de cannabis à la pointe de la technologie », explique le responsable. cet investissement devrait permettre à somacan de renforcer sa présence dans l’industrie marocaine du cannabis légal et stimuler la production locale de la feuille. en juin 2023, l’entreprise avait déjà signé un protocole d’accord avec le gouvernement pour la réalisation d’une unité de transformation de cannabis à usage pharmaceutique d’un coût de 60 de dirhams (6,1 $) dans le parc industriel d’ain cheggag dans la province de sefrou. au maroc, la première récolte de cannabis légale, réalisée sur une superficie de 277 hectares, s’est établie à 294 tonnes en 2023. pour le compte de l’année 2024, l’anrac a accordé des autorisations pour la culture de cannabis couvrant une superficie totale de 2552 hectares.
+stéphanas assocle
+lire aussi:
+07/05/2024 - maroc : l’anrac veut attirer des investissements étrangers dans l’industrie du cannabis légal
+29/03/2024 - le malawi approuve la culture d’une variété locale de cannabis
+19/03/2024 - maroc : la première récolte de cannabis légal s’est établie à 294 tonnes en 2023</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Tanzanie</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Tanzanie : le régulateur veut renforcer la traçabilité dans la filière café</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - l’afrique de l’est est le principal foyer de production de café en afrique. 3ème exportateur de la région après l’ouganda et l’éthiopie, la tanzanie met en œuvre des stratégies pour se conformer à la loi de l’union européenne sur la déforestation. en tanzanie, l’office du café (tcb) vient de lancer un programme pour enregistrer tous les producteurs de la filière. c’est ce qu’a annoncé primus kimaryo, directeur général du tcb, le 7 septembre, en précisant que cette initiative vise à renforcer la traçabilité des fèves dans le secteur. « nous commencerons l’enregistrement au cours du mois de septembre dans la région de kagera qui produit plus de 40 % du café tanzanien. chaque agriculteur sera enregistré en fournissant une pièce d’identité, en se faisant photographier et en documentant son exploitation et l’historique de sa production de café », explique m. kimaryo.
+l’annonce intervient alors que le pays comme d’autres pays producteursc de café, est engagé dans une course contre-la-montre pour se conformer à la réglementation de l’union européenne relative à l’élimination de la déforestation (eudr). ladite réglementation prévue pour entrer en vigueur d’ici fin décembre 2024 ou début 2025, interdira l’importation de produits de base liés à la déforestation comme le café, le cacao ou encore l’huile de palme par les pays du bloc. selon le tcb, le marché européen représente plus de 50 % des exportations de la filière tanzanienne. les données compilées par la banque centrale du pays, indiquent que la tanzanie a expédié plus de 84 000 tonnes de café d’une valeur de 228 $ en 2023. dans le pays d’afrique de l’est, la culture du café occupe plus de 260 000 hectares de terres agricoles à travers 17 régions productrices, d’après les données du département américain de l’agriculture (usda).
+stéphanas assocle
+lire aussi:
+05/09/2024 - ouganda : le régulateur veut enregistrer tous les producteurs de café d’ici décembre
+30/08/2024 - cameroun : une initiative lancée pour renforcer la traçabilité dans le cacao</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sénégal</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sénégal : la région de Saint-Louis abritera un projet aquacole de 30 millions $</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - le sénégal est le deuxième producteur de poisson en afrique de l’ouest, derrière le nigeria. alors que la pêche fournit la quasi-totalité de l’approvisionnement local, le gouvernement souhaite accroître la contribution de l’aquaculture dans le secteur. au sénégal, la china national fisheries and aquaculture (cnfa) veut installer et développer un parc industriel aquacole dans la région de saint-louis. l’annonce a été faite dans un communiqué publié le 7 septembre par l’agence nationale sénégalaise de l’aquaculture (ana). selon les responsables, ce projet mobilise un investissement total de 18 de francs cfa (30,2 $) et devrait bientôt être lancé. d’après l’ana, toutes les études préliminaires ont été déjà réalisées. si des détails supplémentaires n’ont pas été communiqués, il faut noter que l’information a été révélée au cours du forum sur la coopération sino-africaine (focac) qui s’est tenu du 04 au 06 septembre 2024 à pékin. cet événement a également été l’occasion pour l’ana de signer un protocole d’accord avec l’entreprise china machinery engineering corporation (cmec) spécialisée dans l’ingénierie aquacole ainsi que dans l’aménagement et la construction d’infrastructures de grande envergure.
+« l’objectif de ce protocole d’accord est de nouer un partenariat pour la mise en place d’un projet de développement de l’aquaculture marine au sénégal », peut-on lire dans le communiqué. globalement, ces deux partenariats devraient appuyer les efforts de l’ana pour stimuler l’industrie aquacole au sénégal. dans le cadre de sa nouvelle feuille de route pour le développement de l’aquaculture, l’ana prévoit de faire passer la production aquacole locale à 68 000 tonnes à l’horizon 2032 contre un stock tournant autour de 1 600 tonnes actuellement. dans le pays de la teranga, la production totale de poissons s’est élevée à 500 000 tonnes en 2023, d’après la fao.
+stéphanas assocle
+lire aussi:
+09/09/2024 - la banque agricole du sénégal négocie un prêt de 33 $ 26/07/2024 - sénégal-pêche inn : 24 navires de pêche sanctionnés depuis janvier 2024</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>riz</t>
+        </is>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Kenya : Victory Farms veut injecter 6 millions $ dans la pisciculture</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - le kenya dépend à hauteur de 70 % des importations pour ses besoins en poissons. dans ce contexte, l’aquaculture est une alternative pour améliorer l’approvisionnement local et les perspectives sont prometteuses pour les investissements dans le secteur. au kenya, l’entreprise aquacole victory farms vient de soumettre un projet d’élevage de tilapias en cage flottante dans le lac victoria à l'autorité nationale de gestion de l'environnement (nema). d’un coût total de 750 de shillings (5,8 $), ledit projet prévoit une production annuelle de 30 000 tonnes de tilapias par an. selon les informations relayées par le quotidien local business daily africa le 6 septembre, cet investissement s’inscrit dans le cadre d’un programme d’expansion de l’entreprise qui veut accroître sa production pour répondre à la demande sur le marché local. dans le cadre de ce nouveau projet, victory farms compte acquérir de nouvelles concessions d’aquaculture sur les plages litare, jiudendi, ngeri, nyagwethe, kamogo, uterere et kisegi du lac victoria dans le comté de homa bay. il faut rappeler qu'en avril 2023, l’entreprise aquacole avait annoncé avoir levé un fonds de 35 $ pour financer l’expansion de ses activités au kenya et au rwanda, ainsi que pour une éventuelle entrée en éthiopie, en ouganda et en tanzanie.
+au kenya, l’approvisionnement local de poissons couvre moins de 30 % des besoins de consommations qui sont évalués à 600 000 tonnes par an. d’après le bureau national des statistiques (knbs), la production totale de poissons au kenya s’est établie à 164 000 tonnes en 2023, dont 42 %, soit 70 300 tonnes, proviennent de captures et des prises effectuées dans le lac victoria. stéphanas assocle
+lire aussi:
+04/09/2024 - le kenya suspend temporairement ses importations de sucre
+02/09/2024 - kenya : le gouvernement table sur une production de maïs record en 2024</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>maïs</t>
+        </is>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Ghana : le régulateur veut renforcer la lutte contre la contrebande de cacao</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au ghana, la campagne cacaoyère 2024/2025 devrait bientôt débuter. entre la maladie virale du swollen shoot qui touche les plantations, l’exploitation minière illégale ou encore le renforcement de la contrebande des fèves vers les pays voisins, la filière est confrontée à de nombreux défis. au ghana, l’office national du cacao (cocobod) souhaite intensifier les efforts de lutte contre la contrebande de cacao à travers les frontières, en prélude à la nouvelle campagne cacaoyère qui devrait débuter en septembre. dans le cadre de cette ambition, le régulateur sollicite l’intervention des forces de l’ordre pour la mise en œuvre d’un programme spécial conçu à cet effet. « nous avons écrit au ministre de la défense pour demander une intervention militaire. l’implication de l’armée est désormais nécessaire pour traiter le problème de manière plus efficace. l’armée s’est déclarée prête à diriger l’opération et le cocobod parrainera le programme national de lutte contre la contrebande de cacao », a déclaré joseph aidoo, directeur général du cocobod qui se confiait aux médias le 6 septembre dernier.
+selon les données officielles, les pertes de cacao associées à la contrebande au ghana ont progressé d’environ 66 % atteignant plus de 250 000 tonnes durant la campagne cacaoyère 2023/2024.
+cette situation devrait occasionner un manque à gagner considérable pour le pays qui a également enregistré une baisse d’environ 37 % de sa récolte à 425 000 tonnes sur la période considérée.
+pour le compte de la campagne 2024/2025, le cocobod anticipe un rebond de plus de 50 % de la production à 650 000 tonnes.
+rappelons que dans l’ex gold coast, la filière cacao fournit environ 10 % du pib. en 2023, les expéditions ghanéennes de cacao et produits dérivés ont généré près de 1,9 $, d’après les données compilées sur la plateforme trade map.
+stéphanas assocle
 lire aussi :
-17/05/2023 - l’ue pourrait interdire les importations de niébé en provenance de madagascar</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>riz, niébé, mil</t>
-        </is>
+06/09/2024 - ghana : le régulateur se dote d’un système de traçabilité du cacao
+04/09/2024 - ghana : le gouvernement injecte 70 $ dans la construction d’un silo</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>mil</t>
+        </is>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Sénégal</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>La Banque agricole du Sénégal négocie un prêt de 33 millions $</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au sénégal, le secteur agricole contribue à hauteur d’environ 15 % au pib et emploie plus de 20 % de la population active. comme dans la majorité des pays d’afrique subsaharienne, l’accès au financement agricole reste encore limité. la banque agricole du sénégal (lba) a signé le 6 septembre un accord de prêt de 30 d’euros (33,1 $) auprès de la banque européenne d’investissement (bei). l’annonce a été faite dans un communiqué publié sur le site de la bei. cette initiative vise, notamment à renforcer, le développement durable des chaînes de valeur agricoles dans les filières céréales, horticulture, arachide et anacarde. selon les informations relayées par l’agence de presse sénégalaise (aps) 70 % du prêt, soit 23,2 $ est destiné à financer l’octroi de prêts pour l’achat d’équipements agricoles au profit des agriculteurs. le reste de l’enveloppe devrait servir à financer l’entrepreneuriat agricole des femmes.
+« la qualité de ce partenariat sera répercutée sur les clients et bénéficiaires des financements de lba qui pourront ainsi bénéficier d’une durée plus longue des financements pour notamment la prise en charge des besoins d’irrigation, de mécanisation et de stockage des matières premières, ou encore de prêts saisonniers pluriannuels afin de répondre à la variabilité des revenus agricoles avec la saison des pluies », peut-on lire dans un communiqué.
+globalement, cet appui financier obtenu par la lba devrait bénéficier à plus de 3000 personnes travaillant dans le secteur agricole. au sénégal, seuls 6,2 % des ménages agricoles ont contracté des prêts en 2021, dont 59 % auprès d’institutions formelles, d’après les données compilées par la direction de l’analyse, de la prévision et des statistiques agricoles (dapsa).
+stéphanas assocle
+lire aussi:
+26/07/2024 - sénégal-pêche inn : 24 navires de pêche sanctionnés depuis janvier 2024
+17/07/2024 - sénégal : le fida allouera 30 $ au profit du secteur agricole</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>arachide</t>
+        </is>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Maroc</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Maroc : le projet textile du chinois Sunrise coûtera plus de 420 millions $</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au maroc, l’industrie du textile et de l’habillement est l’un des principaux pourvoyeurs d’emplois du secteur manufacturier et fournit environ 11 % des recettes d’exportation de marchandises du pays. le gouvernement encourage les opérateurs locaux et étrangers à investir davantage dans le secteur. le groupe chinois sunrise injectera 4,1 de dirhams (421,5 $) dans la réalisation d’un projet textile au maroc. l’annonce a été faite au cours d’une réunion qui s’est tenue le 8 septembre à shanghai, entre le chef du gouvernement marocain aziz akhannouch et lei xu, président de sunrise en chine. ledit projet porte sur l’établissement d’un parc industriel textile intégré avec des activités de transformations en amont et en aval de la chaîne de valeur allant de la filature du coton à la fabrication de vêtements. si l’emplacement de l’infrastructure n’a pas été révélé, on sait que ce projet a fait l’objet d’un protocole d’accord signé entre mohcine jazouli, ministre de l’investissement, de la convergence et de l’évaluation des politiques publiques et des représentants du groupe chinois le 30 avril dernier. les autorités tablent sur la création de 10 000 emplois directs dans le pays d’ici 2027. plus largement, cet investissement devrait permettre de renforcer l’industrie locale qui est principalement tournée vers l’exportation. les expéditions marocaines de produits textiles et d'habillement ont généré 4,3 $ de recettes en 2022, ce qui représente 73 % des ventes totales réalisées dans le secteur qui ont atteint 5,8 $.
+stéphanas assocle
+lire aussi:
+06/09/2024 - maroc : bientôt une loi contre le gaspillage alimentaire 23/08/2024 - maroc : hausse de 25 % des expéditions de myrtilles en 2023/2024</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cameroun</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Le Cameroun a exporté 16 105 tonnes de bananes en août, +15% en glissement annuel</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - la banane fait partie des principaux pourvoyeurs de recettes d’exportation au cameroun, avec pour principal marché l’europe. selon le cabinet bkp economic advisors, le royaume-uni capte 13% des exportations u pays, soit pour environ 6,53 fcfa.
+le cameroun a exporté 16 105 tonnes de bananes en août 2024, soit 2103 tonnes de plus en glissement annuel (+15%). excepté l’agro-industriel public cameroon development corporation (cdc), les producteurs ont tous vu leurs exportations augmenter, révèle investir au cameroun après analyse des données de l’association bananière.
+cette unité agro-industrielle exploitant aussi le palmier à huile et le caoutchouc dans les régions du sud-ouest et du littoral, n’a exporté que 2268 tonnes de bananes le mois concerné, soit -19% rapporté aux 2795 tonnes d’août 2023.
+le marché local de la banane a encore été principalement animé par la société des plantations du haut penja (php). cette première filiale du groupe agro-industriel français compagnie fruitière de marseille a vu ses exportations progresser de 14,3% entre août 2023 et août 2024. en effet, au cours de ce mois en 2024, les exportations de ce producteur ont culminé à 11 424 tonnes, contre 9996 tonnes un an plus tôt, révélant une augmentation de 1428 tonnes en valeur absolue.
+avec ce volume des exportations de la php, le français compagnie fruitière de marseille conforte son leadership sur le marché camerounais de la banane, grâce également aux performances de la compagnie des bananes de mondoni (cdbm), sa 2e filiale dans le pays. selon l’assobacam, ce producteur a effectué des exportations de 1102 tonnes en août 2024, en hausse de 490% par rapport aux 187 tonnes exportées en août 2023.
+la cdbm réalise ainsi son 2e plus gros volume (après les 1208 tonnes d’avril 2024) depuis le lancement de ses activités au cameroun en juin 2023. cette performance n’a cependant pas permis à ce producteur de reprendre la place de n°3 du marché local chipée à boh plantations dès avril 2024, mais perdue en juillet 2024. au demeurant, l’on peut observer en compilant les données de l’assobacam qu’avec 12 526 tonnes de bananes exportées par ses 2 filiales, la compagnie fruitière de marseille a contrôlé près de 78% du marché de la banane au cameroun.
+un marché sur lequel boh plantations, redevenu n°3 du marché depuis juillet 2024, a également vu ses expéditions de bananes vers le marché international progresser de 23,4% (+287 tonnes) en août 2024 (glissement annuel). elles sont en effet parties de 1024 tonnes en août 2023 à 1311 tonnes cette année.
+selon les données de l’ins, pour la seule année 2023, le cameroun a exporté pour 42,9 fcfa de bananes vers le g7 (canada, italie, japon, france, grande-bretagne, usa et allemagne).</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Maroc</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Maroc : bientôt une loi contre le gaspillage alimentaire</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - les gaspillages alimentaires occasionnent chaque année des pertes économiques considérables et constituent un obstacle majeur dans la lutte contre la faim à travers le monde.
+au maroc, un projet de loi visant à limiter le gaspillage alimentaire, est dans une phase préliminaire d’adoption au parlement. selon les médias locaux, l’entrée en vigueur de cette proposition de loi est prévue 3 mois après sa publication dans le bulletin officiel.
+pour les autorités, cette initiative vise une gestion plus responsable des ressources alimentaires par l’ensemble des intervenants de la chaîne alimentaire depuis les agriculteurs jusqu’aux consommateurs finaux.
+parmi les dispositions prévues par la nouvelle législation figure la réaffectation de produits alimentaires excédentaires qui n’ont pas été consommés à d’autres usages. il est également prévu l’imposition en cas de gaspillage avéré d’une amende équivalente au double de la valeur marchande de la nourriture gaspillée par les contrevenants. par ailleurs, l’office national de sécurité sanitaire des produits alimentaires (onssa) sera mandaté pour veiller à l’application de la loi. au maroc, les ménages ont gaspillé plus de 4,2 de tonnes de nourriture en 2022, selon les données compilées par le programme des nations unies pour l’environnement (pnue).
+d’après l’organisation onusienne, le coût des pertes et des gaspillages alimentaires pour l’économie mondiale est estimé à environ 1 000 $ par an.
+stéphanas assocle
+lire aussi:
+23/08/2024 - maroc : hausse de 25 % des expéditions de myrtilles en 2023/2024
+21/08/2024 - le maroc dédie plus de 5000 hectares de terres agricoles aux investisseurs privés
+02/04/2024 - les gaspillages alimentaires mondiaux ont progressé de 13 % entre 2019 et 2022 (pnue)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ghana : le régulateur se dote d’un système de traçabilité du cacao</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - deuxième producteur mondial de cacao après la côte d’ivoire, le ghana exporte principalement sa récolte vers l’europe. la filière est préoccupée par l’approche imminente de l’entrée en vigueur de la loi de l’union européenne sur la déforestation.
+au ghana, l’office national du cacao (cocobod) a expérimenté avec succès un système de traçabilité des fèves de cacao dans le cadre d’une phase pilote. c’est ce que rapporte reuters le 5 septembre, citant michael amoah, responsable de la recherche et du développement au sein du cocobod. « nous avons cartographié tout le cacao du ghana, établi un système de traçabilité de bout en bout et l’avons testé avec succès », a ainsi déclaré le responsable. l’annonce a été faite lors d’un séminaire en ligne organisé par les groupes environnementaux à but non lucratif fern et mighty earth.
+cette initiative s’inscrit dans le cadre des démarches mises en œuvre par le gouvernement pour se conformer à la nouvelle législation de l’union européenne relative à l’élimination de la déforestation (eudr). ladite réglementation prévue pour entrer en vigueur d’ici fin décembre 2024 ou début 2025, interdira l’importation de produits de base liés à la déforestation comme le café, le cacao ou encore l’huile de palme par les pays du bloc. il convient de noter que l’ue est la principale destination du cacao ghanéen, absorbant plus de 60 % des expéditions annuelles. alors que la filière ghanéenne sort d’une campagne 2023/2024 difficile, le cocobod anticipe un rebond de plus de 50 % de la production cacaoyère à 650 000 tonnes pour le compte de la campagne de 2024/2025 qui devrait débuter en septembre. le prix d’achat aux producteurs de la tonne de cacao à la production est également attendu sur une hausse de 45 % à 48 000 cedis (3067 $), selon des sources citées par reuters le 2 septembre dernier.
+stéphanas assocle
+lire aussi:
+02/09/2024 - cacao : le déficit mondial pour 2023/2024 revu à 462 000 tonnes (icco)
+30/08/2024 - cameroun : une initiative lancée pour renforcer la traçabilité dans le cacao
+27/08/2024 - côte d’ivoire : les exportateurs locaux de cacao obtiendront un coup de pouce financier en 2024/2025</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ouganda</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ouganda : le régulateur veut enregistrer tous les producteurs de café d’ici décembre</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - en ouganda, le café est le premier produit agricole d’exportation. face à l’approche imminente de l’entrée en vigueur de la loi de l’union européenne sur la déforestation, le gouvernement souhaite renforcer la traçabilité dans la filière. en ouganda, l’autorité de développement du café (ucda) souhaite enregistrer tous les producteurs de café opérant dans la filière d’ici la fin de l’année 2024. c’est ce qu’a révélé robert nangatsa, responsable de la vulgarisation à l’ucda le 3 septembre. .@coffeeuganda is to start the registration of all coffee value chain actors across the country.@victor_tayebwa #nbsat430 #nbsupdates pic.twitter.com/tiwxx94lfu — nbs television (@nbstv) september 3, 2024
+l’initiative s’inscrit dans le cadre des démarches mises en œuvre pour se conformer aux exigences de la réglementation de l’union européenne relative à l’élimination de la déforestation (eudr). ladite réglementation prévue pour entrer en vigueur d’ici fin décembre 2024 ou début 2025, interdira l’importation de produits de base liés à la déforestation comme le café, le cacao ou encore l’huile de palme par les pays du bloc. « nous avons développé un système de suivi et d’évaluation géospatial et une application pour enregistrer les agriculteurs et autres acteurs de la chaîne de valeur. l’enregistrement implique la capture de la géolocalisation des exploitations agricoles et des détails sur les agriculteurs afin d’assurer la traçabilité », a souligné gérald kyalo, directeur des services de développement à l’ucda.
+selon les données officielles, le gouvernement a déjà mobilisé 13 de shillings (3,5 $) dans le cadre de ce processus. en ouganda, la culture du café occupe plus de 1,7 de ménages agricoles, d’après les données de l’ucda. le pays a exporté 367 800 tonnes de café d’une valeur de 1,14 $ au cours de son exercice fiscal 2023/2024, l’ue étant la principale destination absorbant plus de 70 % des envois en volume.
+stéphanas assocle
+lire aussi:
+30/08/2024 - cameroun : une initiative lancée pour renforcer la traçabilité dans le cacao
+19/07/2024 - ouganda : les recettes d’exportations de café au plus haut en 30 ans
+11/07/2024 - côte d’ivoire : les exportateurs nationaux de café-cacao bénéficieront d’une subvention jusqu’en 2026/2027</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ouganda</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Ouganda : Eabl veut racheter le reste des actions d’Uganda Breweries Limited</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - en afrique, l’industrie brassicole est en pleine croissance. un des principaux leaders de la production en afrique de l’est, la east african breweries plc (eabl) concentre principalement ses activités au kenya, en tanzanie et en ouganda. le groupe brassicole east african breweries plc (eabl) souhaite racheter la participation restante de 1,81 %, dans le brasseur uganda breweries limited (ubl), soit 2,18 d’actions, détenues par des actionnaires minoritaires. dans le cadre de cette ambition, le groupe brassicole a lancé le 3 septembre une offre publique d’achat (opa) qui sera clôturée le 3 mars 2025.
+eabl prévoit une enveloppe de 12,3 de shillings ougandais (3,3 $) pour la réalisation de cette opération à raison de 5 630 shillings (1,5 $) par action achetée. cette démarche, si elle aboutit, devrait permettre au groupe brassicole qui détient déjà une participation de 98,19 % dans ubl de devenir le seul actionnaire du brasseur ougandais. il convient de noter que l’ouganda est le 2ème marché d’écoulement pour les boissons d’eabl en afrique de l’est après le kenya, comptant pour environ 21 % des ventes annuelles. au terme de son exercice fiscal de 2024, le groupe brassicole a déclaré une croissance de 13 % de son chiffre d’affaires à 124,1 de shillings kenyan (964 $). dans son résultat financier publié le 21 août dernier, le groupe avait également déclaré une croissance de 12 % de ses ventes de boissons en ouganda. filiale du fabricant britannique de spiritueux, diageo, eabl produit et commercialise une large gamme de boissons alcoolisées dont les marques phares « tusker », « serengeti » ou encore « bell ».
+stéphanas assocle
+lire aussi:
+03/09/2024 - 2023, année record pour l’industrie africaine de la bière</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Gabon</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Le Gabon assouplit sa réglementation sur l’exploitation du bois de Kevazingo</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au gabon, le secteur forestier fournit environ 60 % du pib hors hydrocarbures. depuis 2010, le pays d’afrique centrale interdit les exportations de bois sous forme brute pour stimuler la transformation locale et accroître la création de valeur ajoutée dans le secteur. au gabon, le gouvernement a approuvé le 31 août dernier en conseil des ministres, un décret autorisant à nouveau l’exploitation réglementée du bois de kevazingo. l’exploitation de cette essence forestière était interdite depuis 2018 par le gouvernement de l’ex-président ali bongo, notamment en raison du trafic illégal dont elle fait l’objet. la nouvelle réglementation autorise l’abattage et la transformation de bois du kevazingo provenant uniquement des concessions forestières aménagées de manière durable. en outre, le gouvernement exige la mise en place d’un système de géoréférencement pour renforcer la traçabilité et un permis cites (convention sur le commerce international des espèces de faune et de flore sauvages) pour l’exportation des produits finis.
+selon les autorités, cette initiative devrait permettre de favoriser la transformation locale et de stimuler le développement économique des régions forestières tout en créant de nouvelles opportunités d’emploi.
+« un mètre cube de kevazingo scié ou sous forme de grume se vend entre 300 000 fcfa et 800 000 fcfa (506,2 et 1350 $) ; transformé en meubles, la valeur est multipliée par 100 pour atteindre 30 à 60 de fcfa (50 633 et 101 266 $) », expliquait l’ancien ministre des eaux et forêts, lee white, qui s’exprimait sur les enjeux économiques de l’exploitation du bois de kevazingo, rapporté par les médias locaux en 2019.
+il faut noter que le pays d’afrique centrale a connu une 2ᵉ année consécutive de baisse de ses expéditions de bois transformé en 2023. en 2021, les expéditions gabonaises de bois sciés et d’ouvrages ont rapporté 487,1 de francs cfa (822 $) de recettes, d’après les données de la direction générale de la statistique (dgs).
+stéphanas assocle
+lire aussi:
+08/07/2024 - gabon : 2ème année consécutive de baisse des exportations de bois transformé</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Kenya : le gouvernement table sur une production de maïs record en 2024</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>09-2024</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - kenya, le maïs est la principale denrée de base consommée par la population. la filière anticipe une amélioration de la production en 2024, grâce à des conditions météorologiques favorables et un soutien accru de la part du gouvernement. au kenya, la récolte de maïs est attendue à 70 de sacs de 90 kg, soit 6,3 de tonnes en 2024. c’est ce qu’a révélé andrew karanja (photo), ministre de l’agriculture, le 1ᵉʳ septembre. cette prévision, si elle se réalisait, signerait une hausse de 46 %, soit plus de 20 de sacs de plus que le stock de 47,6 de sacs (4,3 de tonnes) récolté un an plus tôt. il s’agirait en outre d’un record historique dans l’histoire de la filière. pour expliquer cette projection optimiste, le ministre met en avant les conditions climatiques favorables dont les agriculteurs ont bénéficié au cours de la saison agricole et le soutien apporté par le gouvernement. il faut rappeler qu’en février dernier, le ministère de l’agriculture avait annoncé l’intention de doubler le volume d’engrais subventionné à 600 000 tonnes en 2024.
+« les bonnes pluies enregistrées et la fourniture d’engrais subventionnés par le gouvernement ont aidé les agriculteurs à augmenter les surfaces cultivées. nous sommes très enthousiastes à l’idée d’une récolte exceptionnelle, car elle permettra au pays de disposer d’un approvisionnement alimentaire adéquat », a déclaré m. karanja, rapporté par le média local the star.
+globalement, une telle amélioration de la production de maïs devrait permettre au kenya de réaliser l’autosuffisance en maïs. pour l’heure, la première économie d’afrique de l’est dépend à hauteur de 20 % des importations pour ses besoins en maïs qui s’élèvent à plus de 5,2 de tonnes par an, d’après la fao.
+stéphanas assocle
+lire aussi:
+27/08/2024 - kenya : naivasha abritera une unité de transformation de pomme de terre
+24/07/2024 - kenya : un programme quinquennal de 5,3 $ est lancé dans la filière riz</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>riz, maïs</t>
+        </is>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Ghana : lancement d’un mécanisme de financement agricole dans le nord du pays</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au ghana, le secteur agricole contribue à hauteur de 21 % au pib et emploie environ 40 % de la population active. comme dans la plupart des pays d’afrique subsaharienne, l’accès au financement agricole est encore insuffisant. au ghana, une délégation de l’union européenne (ue) a procédé le 27 août au lancement officiel du programme baptisé « agriculture financing initiative » (agrifi) à wa dans le nord du pays. il s’agit d’un mécanisme de financement de l’ue ciblant les microentreprises agricoles dans des pays en développement.
+au ghana, l’initiative est dotée d’une enveloppe de 10 d’euros (11 $) en vue de faciliter l’accès au crédit, dans les chaînes de valeur stratégique, dont l’anacarde, l’arachide, la mangue, le riz, le sorgho, le soja et les légumes. d’après lionel dieu, gestionnaire du fonds agrifi, cette enveloppe sera déboursée sur une période de 12 ans aux bénéficiaires.
+selon le responsable, les interventions ciblent 5 régions du nord du pays, à savoir le haut-ghana occidental, le haut-ghana oriental, la région du nord-est, la région du nord et la région de savannah et devraient toucher environ 12 000 petits exploitants agricoles à terme.
+« les subventions jouent un rôle essentiel pour relever les défis de financement, mais elles ne sont pas toujours suffisantes. c’est là que le guichet national agrifi ghana entre en jeu. agrifi est un système de prêt unique pour les agriculteurs. ces prêts permettent de développer les activités des principaux acteurs de l’agriculture, tels que les institutions de microfinance ou les agrégateurs », explique pour sa part jonas claes, ambassadeur adjoint de l’ue au ghana.
+au ghana, le secteur agricole ne reçoit actuellement qu’environ 5 % du total des prêts bancaires, selon les données officielles. plus largement, l’opérationnalisation de l’agrifi est à inscrire dans un contexte où le ghana est confronté à une sécheresse qui affecte les principales zones de production agricole basées dans le nord du pays. face à cette situation, le gouvernement a interdit le 26 août avec effet immédiat, l’exportation de grains stratégique pour la sécurité alimentaire (maïs, riz et soja) dans le cadre des mesures prévues pour éviter une potentielle pénurie sur le marché intérieur.
+stéphanas assocle
+lire aussi: https://www.agenceecofin.com/agro/1302-116138-via-edfi-agrifi-l-union-europeenne-realise-un-investissement-de-suivi-de-2--dans-la-pme-east-africa-foods
+27/08/2024 - sécheresse au ghana : le gouvernement interdit l’exportation de grains</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>soja, maïs, arachide, riz, sorgho</t>
+        </is>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Cameroun</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Cameroun : une initiative lancée pour renforcer la traçabilité dans le cacao</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au cameroun, le cacao est l’un des principaux produits agricoles expédiés sur le marché européen. face à l’approche imminente de l’entrée en vigueur de la loi de l’union européenne sur la déforestation, les acteurs de la filière s’adaptent. au cameroun, le conseil interprofessionnel du cacao et du café (cicc) a procédé le 28 août à la signature de l’accord de mutualisation des données de géolocalisation des parcelles cacaoyères et caféières. l’annonce a été faite dans un communiqué publié par le ministère du commerce.
+selon les informations relayées par reuters, cet accord implique 6 acteurs de la filière cacao, dont le fonds de développement des sous-secteurs du cacao et du café (fodecc) et des négociants parmi lesquels telcar cocoa, ofi cam, neo industry, atlantic cocoa corporation et sic-cacaos.
+dans le cadre de ce partenariat, ces opérateurs s’engagent à partager volontairement leurs données de géolocalisation en vue de mettre en place une « plateforme de mutualisation » qui servira de base de données centralisée offrant une cartographie « précise et dynamique du secteur ».
+selon le ministère du commerce, cette initiative vise à accompagner les efforts mis en œuvre pour rendre la production de la filière camerounaise conforme aux exigences de la réglementation de l’union européenne relative à l’élimination de la déforestation (eudr).
+ladite réglementation prévue pour entrer en vigueur d’ici fin décembre 2024 à début 2025 interdira l’importation de produits de base liés à la déforestation comme le cacao, le café ou encore l’huile de palme par les pays du bloc. « la plateforme de mutualisation sera gérée par le cicc. l’objectif est de maintenir l’accès au marché européen pour les petits exportateurs nationaux. une meilleure traçabilité devrait renforcer la confiance des acheteurs et potentiellement se traduire par des prix plus élevés », peut-on lire dans le communiqué.
+pour rappel, environ 78 % des exportations camerounaises de cacao sont destinées au marché européen. les données compilées par l’office national du cacao et du café (oncc), indiquent que le pays d’afrique centrale a exporté 185 613 tonnes de fèves en 2023/2024.
+stéphanas assocle
+lire aussi:
+27/08/2024 - côte d’ivoire : les exportateurs locaux de cacao obtiendront un coup de pouce financier en 2024/2025
+26/08/2024 - le cocobod envisage une refonte totale du modèle de financement de ses achats de cacao</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Tchad</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Tchad : des inondations précoces menacent la production agricole (FAO)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au tchad, les céréales telles que le sorgho, le mil ou le maïs sont les produits agricoles les plus consommés. entre les périodes de sécheresse et les inondations qui touchent le pays sahélien, la production locale peine à se développer.
+au tchad, environ 157 000 hectares de terres agricoles cultivées ont été touchés par les inondations au 1ᵉʳ août 2024. c’est ce qu’indiquent les données collectées par la fao sur ce phénomène climatique en ce qui concerne le pays d’afrique centrale. alors que la période de risque d’inondation au tchad débute habituellement en août, l’organisation onusienne indique que de fortes précipitations ont été enregistrées dès le début du mois de juillet. les principales zones de production les plus exposées sont basées dans les provinces de tandjilé ouest, salamat, kabia et mayo-boneye, le logone occidental et le logone oriental. si pour l’heure l’évaluation des dégâts sur les cultures n’est pas encore possible, il faut noter que le mois de juillet est essentiel dans le calendrier agricole, car il correspond à la période de semis pour le maïs, le mil, le riz et le sorgho, les principales céréales cultivées. « ces inondations peuvent endommager le développement des cultures et réduire la production. en août et septembre, les inondations peuvent avoir un impact sur le développement végétatif des cultures de base, en raison des engorgements et de la destruction subséquente des cultures », indique la fao.
+en dehors des préjudices portés aux cultures agricoles, la fao a également déclaré l’emportement de 7 000 têtes de bétail par les eaux de pluie. pour rappel, la production céréalière tchadienne s’est élevée à 2,6 de tonnes en 2023, s’affichant en baisse de 7 % par rapport à la moyenne quinquennale de 2,8 de tonnes.
+stéphanas assocle
+lire aussi:
+29/08/2024 - afrique australe : bientôt des conditions climatiques moins extrêmes en 2024/2025</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>riz, sorgho, maïs, mil</t>
+        </is>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Tanzanie</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Utilisation d’engrais : la Tanzanie cible le million de tonnes en 2024/2025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - la tanzanie affiche l’un des niveaux d’utilisation d’engrais les plus faibles d’afrique subsaharienne. dans le pays, des politiques sont mises en œuvre par le gouvernement qui souhaite accroitre le recours à l’intrant. en tanzanie, l’utilisation d’engrais devrait atteindre 1 de tonnes en 2024/2025. c’est ce qu’indiquent les projections de l’autorité tanzanienne de régulation des engrais (tfra), rapportées par le quotidien local daily news, le 28 août. cette prévision, si elle se réalisait, signerait une hausse de 20 % par rapport aux stocks de 840 000 tonnes de l’intrant utilisé par les agriculteurs au cours de la campagne précédente. s’exprimant sur le sujet, joël laurent, directeur général de la tfra, indique que cette augmentation traduit la reconnaissance croissante du rôle des engrais dans l’amélioration de la productivité agricole et de la sécurité alimentaire dans le pays.
+il faut noter que dans le cadre de son programme national de subvention des engrais, le gouvernement facilite l’accès aux agriculteurs en réduisant de plus de 50 % le coût d’achat des intrants. « nous voulons que tous les agriculteurs utilisent des engrais pour maximiser la production et assurer ainsi un surplus de nourriture dans le pays tout en garantissant les exportations », a déclaré m. laurent.
+pour le responsable, le principal défi sera de réduire la dépendance aux importations qui permet de couvrir environ 86 % des besoins du pays. en tanzanie, le niveau d’utilisation d’engrais était évalué à 9,3 kg par hectare de terres cultivables en 2021, d’après la banque mondiale, soit un niveau presque 6 fois inférieur au taux de 50 kg recommandé par la déclaration d’abuja de 2006.
+stéphanas assocle lire aussi:
+05/08/2024 - tanzanie : la région de mtwara abritera une usine d’engrais de 1,3 $</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Éthiopie</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>L’Éthiopie annonce l’importation de 50 000 tonnes d’huile de cuisson</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - l’éthiopie dépend à hauteur de 90 % des importations pour ses besoins en huile de cuisson. la denrée est l’une des plus touchées par l’inflation sur le marché intérieur. en éthiopie, le gouvernement a commandé un stock de 50 000 tonnes d’huile de cuisson sur le marché international. c’est ce qu’a révélé kassahun gofe, ministre du commerce et l'intégration régionale, dans un communiqué publié le 26 août, qui précise que la marchandise sera acheminée via le port de djibouti. l’initiative vise notamment à stabiliser les prix de cette denrée sur le marché intérieur en vue d’améliorer son accessibilité pour la population. en effet selon les médias locaux, les prix de certains produits alimentaires importés ont grimpé après que la banque centrale du pays ait annoncé le 29 juillet, l’introduction avec effet immédiat d’un régime de change flottant pour le birr, la monnaie locale.
+ainsi, les sondages réalisés par certains quotidiens auprès des commerçants de la capitale addis-abeba ont révélé que les prix des huiles de cuisson avaient augmenté de plus de 25 % à la suite de cette décision. par ailleurs, l’inflation alimentaire a atteint 20,6 % en juillet 2024 contre 22,7% en juin, d’après les données du service statistique éthiopien (ess).
+pour rappel, l’éthiopie a affiché une consommation annuelle d’huile de cuisson qui s’élevait à plus de 630 000 tonnes en 2021, selon le département américain de l’agriculture (usda). le pays des négus importe principalement de l’huile de palme qui représente environ 80 % de son approvisionnement sur le marché international.
+stéphanas assocle lire aussi:
+28/08/2024 - huile de palme : le ghana veut devenir un membre à part entière du conseil des producteurs
+11/07/2024 - éthiopie : hausse de 10 % des recettes d’exportation de café en 2023/2024
+16/05/2024 - éthiopie : africa improved foods compte investir 40 $ dans l’industrie alimentaire</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Sécheresse au Ghana : le gouvernement interdit l’exportation de grains</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au ghana comme dans la majorité des pays d’afrique subsaharienne, les céréales constituent la base de l’alimentation de la population. le pays qui est confronté à des conditions climatiques extrêmes anticipe une diminution des récoltes et de son approvisionnement local. au ghana, les expéditions de grains stratégiques tels que le riz, le maïs et le soja sont suspendues jusqu’à nouvel ordre avec effet immédiat. c’est ce qu’a annoncé bryan acheampong (photo), ministre de l’alimentation et de l’agriculture, le 26 août. selon le responsable, cette interdiction vise à garantir la disponibilité de ces cultures sur le marché intérieur dans un contexte où la sécheresse affecte la récolte dans les principales zones de production situées dans le nord du pays. d’après les données du ministère de l’agriculture, 8 régions qui fournissent annuellement 62 % de l’approvisionnement national en céréales sont touchées par ce phénomène climatique. il s’agit des régions du nord, du nord est, de bono, de bono est, d’oti, savannah, le haut ghana oriental et le haut ghana occidental. parmi les autres cultures affectées figurent l’arachide, le sorgho, le millet et l’igname.
+« 435 872 agriculteurs cultivant une superficie estimée à 871 745 hectares ont été directement touchés par la sécheresse. les pertes d’investissement qui y sont associées sont évaluées à 3,5 de cedis [224 $], ce qui représente une perte de revenus potentielle de 10,4 de cedis (666 $) », indique m. acheampong. 500 $ pour atténuer l’impact de la sécheresse face à cette situation, le ministère de l’agriculture a également annoncé la mise en œuvre d’un programme d’aide d’urgence pour soutenir les agriculteurs et remédier à la pénurie de céréales qui se profile. pour financer ce programme, le gouvernement prévoit notamment de lever 500 $ auprès de ses partenaires financiers, dont la banque mondiale. d’après mohammed amin adam, ministre des finances, l’enveloppe servira pour l’essentiel à fournir des transferts d’argent en espèce d’un montant de 1 000 cedis (64 $) par hectare aux agriculteurs les plus vulnérables. « nous prévoyons de puiser dans la réserve céréalière de la cedeao et de collaborer avec le secteur privé pour importer jusqu’à 300 000 tonnes de maïs et 150 000 tonnes de riz en vue de stabiliser l’approvisionnement alimentaire », ajoute le responsable.
+au ghana, la production de céréales s’est élevée à 5,8 de tonnes en 2023, d’après les données de la fao, le maïs comptant généralement pour plus de la moitié du stock.
+stéphanas assocle
+lire aussi:
+26/08/2024 - le cocobod envisage une refonte totale du modèle de financement de ses achats de cacao
+21/08/2024 - ghana : le cocobod ne contractera pas de prêt syndiqué en 2024/2025, une première depuis 32 ans
+20/08/2024 - ghana : le cocobod négocie un prêt de 500 $ auprès des négociants de cacao</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>soja, maïs, arachide, riz, sorgho, mil</t>
+        </is>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Huile de palme : le Ghana veut devenir un membre à part entière du conseil des producteurs</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - le ghana est le 5ème producteur africain d’huile de palme derrière le nigéria, la côte d’ivoire, le cameroun et la rdc. le gouvernement qui souhaite améliorer les performances de la filière, compte renforcer la coopération avec les principaux acteurs du marché mondial. le ghana souhaite devenir un membre à part entière du conseil des pays producteurs d’huile de palme (cpopc). l’annonce a été faite par bryan acheampong, ministre de l’alimentation et de l’agriculture, dans un communiqué publié le 25 août. alors que le pays est un membre observateur du cpopc depuis 4 ans, le responsable estime que ce changement de statut devrait accorder certains privilèges pour améliorer la performance de l’industrie ghanéenne de l’huile de palme. « l’adhésion du ghana en tant que membre à part entière devrait profiter aux petits exploitants agricoles qui auront accès aux conférences et aux activités organisées par l’organisation. cette démarche a le potentiel de transformer le secteur de l’huile de palme, d’améliorer la productivité et d’augmenter les opportunités d’emploi », peut-on lire dans le communiqué.
+a cette fin, l’autorité de développement des cultures arboricoles (tcda) a été mandatée pour entamer la démarche et mener à bien le processus pour le changement de statut du ghana.
+il faut noter que le cpopc est une organisation mondiale qui vise à promouvoir le développement de l’industrie de l’huile de palme par l’échange d’expertise, de technologie et de meilleures pratiques et la défense de ses intérêts. l’organisation a été fondée en 2015 par l’indonésie et la malaisie qui sont respectivement 1ᵉʳ et 2ème producteurs et exportateurs mondiaux d’huile de palme.
+au ghana, la production d’huile de palme s’est élevée à 300 000 tonnes en 2022/2023, d’après l’usda.
+stéphanas assocle
+lire aussi:
+27/08/2024 - sécheresse au ghana : le gouvernement interdit l’exportation de grains 26/08/2024 - le cocobod envisage une refonte totale du modèle de financement de ses achats de cacao</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Zambie</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>La RDC interdit l’importation de farines de maïs en provenance de Zambie</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - en afrique subsaharienne, le commerce transfrontalier de produits agricoles est à l’origine de nombreux différends entre les pays. entre les barrières tarifaires et non tarifaires, les relations commerciales sont mises à rude épreuve dans la région.
+la rdc, interdit jusqu’à nouvel ordre l’importation sur son territoire de 8 marques de farine de maïs produites en zambie. il s’agit de « africa milling », « roller meal and breakfast », « farm feed superdog meal », « continental milling », « shabco milling », « girad milling », « busu milling » et « star milling ». l’annonce a été faite dans un communiqué publié le 25 août par le ministère du commerce extérieur qui soupçonne une contamination à l’aflatoxine dans les marques de farines susmentionnées.
+la prudence nous invite à la prévention. attention aux voies non officielles qui risquent d'être les lieux de passage de cette farine contaminée. pic.twitter.com/ubpwp94yyk
+— julien paluku (@julienpalukucom) august 25, 2024
+d’après les autorités, plusieurs institutions, dont la direction des douanes et des accises (dgda), l’office congolais de contrôle, (occ) ou encore la police nationale, ont été mandatées pour appliquer des mesures de restriction en vue de protéger la population contre les dangers de la toxine sur la santé.
+« ces mesures comprennent l’interdiction, sur l’ensemble du territoire national, de l’importation, la consommation, la commercialisation et la distribution de la farine de maïs des marques précitées ; le retraçage de l’existant de ces produits et leur retrait du circuit du commerce national ainsi que des sanctions pour tous les contrevenants », peut-on lire dans le communiqué. il convient de noter que l’aflatoxine peut aggraver la malnutrition, retarder la croissance infantile, affaiblir le système immunitaire ou causer le cancer du foie même à faible dose. un nouveau coup pour les relations commerciales entre les deux pays ?
+l’annonce de la contamination de farines zambiennes par l’aflatoxine pourrait à nouveau mettre la reprise des échanges commerciaux frontaliers entre les deux pays à l’épreuve.
+la rdc et la zambie sortent à peine d’un différend commercial survenu un peu plus tôt dans le mois. en effet, le pays d’afrique australe avait annoncé le 10 août dernier la fermeture de ses postes-frontière en réponse à une décision des autorités congolaises interdisant l’importation des boissons gazeuses et de bières.
+cependant, les frontières ont rouvert le 13 août, un jour après une séance de pourparlers concluante entre les délégations des deux pays menées respectivement par le ministre congolais du commerce extérieur et son homologue zambien de l’industrie.
+en rdc environ 70 % de la farine de maïs consommée dans les provinces du haut-katanga, lualaba et tanganyika au sud du pays, proviennent de la zambie, d’après les données de la banque centrale du congo (bcc).
+stéphanas assocle lire aussi:
+22/07/2024 - rdc : suspension temporaire des importations de boissons 12/07/2024 - rdc : la crise agricole en zambie pourrait affecter les provinces frontalières</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>maïs, mil</t>
+        </is>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Algérie</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>L’Algérie prévoit un stock stratégique de viandes pour les fêtes religieuses</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - en algérie, la consommation de viandes est la 4ème plus importante d’afrique derrière l’afrique du sud, l’égypte et le nigéria. dans le pays, cette catégorie de produits est fortement sollicitée durant les fêtes religieuses telles que le ramadan. en algérie, la société de développement des cultures agricoles stratégiques (sdcas), le groupe des industries agroalimentaires et logistiques (agrolog) et la caisse nationale de mutualité agricole (cnma) ont signé une convention de partenariat le 25 août. cet accord prévoit la constitution d’un stock de 10 000 tonnes de viandes blanches et d’un cheptel de 50 000 têtes d’ovins pour l’approvisionnement du marché local en prélude aux fêtes de ramadan et de l’aïd-el-adha à venir.
+dans le cadre de ce projet, la sdcas mettra à disposition de l’office national des aliments du bétail (onab) et de la société algérienne des viandes rouges (alviar) des infrastructures d’élevage qu’il administre. pour sa part, la cnma fournira des assurances pour couvrir les risques liés aux interventions prévues ainsi qu’un accompagnement technique, une évaluation et un suivi par des experts et spécialistes du domaine. « nous disposons de toute une série d’infrastructures non utilisées, d’anciennes fermes pilotes qui peuvent être rentabilisées de façon optimale pour accroître la production nationale », a déclaré youcef cherfa, ministre de l’agriculture et du développement rural. selon le responsable, cette initiative devrait permettre notamment de réguler le marché et de stabiliser les prix des viandes au cours des fêtes religieuses susmentionnées. en algérie, les besoins en viandes rouges importées pour satisfaire la demande durant le mois de ramadan de 2024, étaient évalués à 100 000 tonnes, d’après le ministère du commerce et de la promotion des exportations. selon la fao, le pays d’afrique du nord a consommé plus de 812 000 tonnes de viandes en 2023.
+stéphanas assocle
+lire aussi:
+21/08/2024 - algérie : agrodiv renforce la capacité nationale de stockage de céréales
+08/07/2024 - algérie : 455 $ de l’italien bonifiche ferraresi dans la céréaliculture
+28/06/2024 - le qatar se lance dans la culture de blé en algérie</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>blé</t>
+        </is>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Nigéria</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Nigéria : le gouvernement prévoit un mécanisme d’assurance pour les agriculteurs</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au nigéria, l’agriculture contribue à hauteur de 22,7 % au pib et emploie environ 38 % de la population active. entre la sécheresse et les inondations, les risques associés au secteur agricole constituent une préoccupation pour le gouvernement.
+au nigéria, le gouvernement a décidé d’intégrer un mécanisme d’assurance agricole dans le cadre du national agricultural growth scheme agro-pocket (nags-ap). c’est ce qu’a annoncé aliyu abdullahi (photo), ministre de l’agriculture et de la sécurité alimentaire, le 21 août. fg moves to integrate agricultural insurance to nags-ap program to enhance sustainability and food securityin a bid to curtail harvest losses due to climate change, federal government has expedited action to incorporate the agricultural insurance scheme into the national… pic.twitter.com/0lceozubgo — nig federal ministry of agriculture &amp;food security (@ngfmafs) august 23, 2024
+ce programme, d’un coût total de 134 $ financé par la banque africaine de développement (bad), vise notamment à renforcer la productivité agricole en favorisant un meilleur accès des petits exploitants agricoles aux intrants.
+pour expliquer la décision du gouvernement, m. abdullahi met en avant la menace que représentent les différents risques associés aux secteurs agricoles. a titre indicatif, les producteurs de gingembre de l’état de kaduna ont déclaré des pertes financières évaluées à 8,7 $ en 2023 en raison de l’apparition d’une maladie fongique qui a réduit les récoltes de 90 %.
+« il est plus évident que jamais que nous avons besoin d’une solution d’atténuation pour combler les nombreuses lacunes de protection découlant des risques liés au changement climatique [inondations, sécheresses], les ravageurs ou encore les maladies qui sont susceptibles d’entraîner de mauvaises récoltes », a déclaré le ministre. des prévisions climatiques inquiétantes pour 2024
+au nigéria, 148 zones de gouvernement local réparties à travers 31 etats dont adamawa akwa-ibom, anambra, bauchi, bayelsa, benue ou encore borno, devraient être confrontées à des risques élevés d’inondation en 2024. c’est ce qu’indiquent les projections formulées par le ministère des ressources en eau et de l’assainissement dans son rapport annuel sur les perspectives d’inondation. selon le ministère de l’agriculture, cette prévision concernera 51 % des zones agricoles du pays. pour rappel, le programme nags-ap cible environ 5 d’agriculteurs opérant principalement dans les filières blé, maïs, riz et soja.
+stéphanas assocle
+lire aussi :
+21/08/2024 - nigéria : bua foods veut augmenter sa production de farines
+02/08/2024 - hausse de 31 % du chiffre d’affaires de guinness nigeria en 2023/2024
+23/07/2024 - nigéria : le gouvernement pourrait suspendre la taxe sur les boissons sucrées</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>riz, soja, blé, maïs</t>
+        </is>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Namibie</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Namibie : Namibia Breweries renforce sa capacité de conditionnement de vin</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - en namibie, la namibia breweries est l’un des principaux fournisseurs de bières du pays. l’entreprise qui est devenue depuis 2023 une filiale du brasseur néerlandais heineken, renforce sa capacité de production de vins et spiritueux. en namibie, l’entreprise brassicole namibia breweries (nbl) a mis en service le 22 août une nouvelle ligne de conditionnement de vin et spiritueux. c’est ce qu’a révélé peter simons, directeur général de l’entreprise qui précise que la nouvelle installation a coûté 337 de dollars namibiens (18,7 $).
+d’après le responsable, cet investissement devrait permettre à l’entreprise de conditionner localement de nouvelles marques de vins et de cidres dont « tassenberg », « castelo », « granada », « savanna » et « hunters ».
+« le lancement de la nouvelle ligne de conditionnement du vin enrichit notre portefeuille, nous permettant d’offrir une gamme plus diversifiée de boissons au-delà de la bière, y compris le vin, le cidre, les spiritueux, et même des options à faible teneur en alcool ou sans alcool », explique m. simons. le responsable indique par ailleurs que ce renforcement de la capacité de la nbl est en lien avec la fusion opérationnelle entamée avec le fabricant sud-africain de spiritueux distell. il faut rappeler que ces deux entreprises ont été rachetées en 2023 par le brasseur néerlandais heineken qui a décidé de les fusionner avec heineken south africa (hsa) pour former une nouvelle société baptisée newco. en 2023, la nbl a déclaré une croissance de 12 % de son chiffre d’affaires qui s’est établi à 4 de dollars namibiens (223 $). la bière arrive en tête des ventes de l’entreprise, comptant pour 90 % des recettes.
+stéphanas assocle
+lire aussi:
+22/08/2024 - kenya : bidcoro africa veut se renforcer dans l’industrie des boissons
+02/08/2024 - hausse de 31 % du chiffre d’affaires de guinness nigeria en 2023/2024
+22/07/2024 - rdc : suspension temporaire des importations de boissons</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Le Malawi reçoit 11,2 millions $ d’indemnités pour faire face aux conséquences d’El Niño</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>( banque africaine de developpement) - des représentants du groupe african risk capacity (arc) et de la banque africaine de développement ont remis au gouvernement du malawi un chèque de 11,2 de dollars à titre d’indemnité d’assurance afin d’aider le pays à se remettre d’une sécheresse dévastatrice due à un phénomène climatique connu sous le nom d’el niño.
+le paiement des prestations d’assurance, effectué en réponse à la politique d’assurance sécheresse du gouvernement, a été financé par le fonds africain de développement et le fonds fiduciaire multidonateurs du programme de financement des risques de catastrophe en afrique (adrifi). le fonds fiduciaire du programme adrifi est le fruit d’une collaboration entre le groupe de la banque africaine de développement et le groupe arc, une agence de l’union africaine qui aide les gouvernements africains à renforcer leurs capacités de planification, de préparation et de réponse aux phénomènes climatiques extrêmes et aux catastrophes naturelles. les fonds remis au gouvernement malawite permettront de fournir une aide alimentaire à quelque 235 000 ménages de la région de la basse vallée du shire et du sud du malawi, et des transferts de fonds à 118 000 ménages du centre du pays.
+« l’indemnité d’assurance que nous recevons aujourd’hui n’est pas une simple transaction financière, c’est une bouée de sauvetage pour nos populations vulnérables », a déclaré le président chakwera en recevant le chèque. « elle témoigne du pouvoir de la prévoyance et de la planification, qui nous permettent de répondre rapidement et efficacement aux besoins de notre population. ce versement nous permettra de lui apporter un secours immédiat grâce auquel aucun malawite ne souffrira d’une faim insoutenable en raison de la récente période de sécheresse », a-t-il ajouté. el niño se caractérise par un réchauffement anormal des eaux du pacifique est, qui réchauffe l’air par rayonnement et entraîne un temps sec en afrique australe et humide en afrique de l’est. en 2024, il a entraîné la pire sécheresse que l’afrique australe ait connue depuis des années. selon l’organisation météorologique mondiale, le phénomène el niño de 2024 est l’un des cinq plus forts jamais enregistrés, avec des températures élevées et des précipitations inférieures à la moyenne en afrique australe de novembre 2023 à avril 2024. le phénomène el niño a durement frappé de nombreuses régions du malawi, surtout la basse vallée du shire et le sud du pays, aggravant une pénurie alimentaire déjà sévère causée par une sécheresse persistante.
+en mars 2024, le gouvernement du malawi a déclaré l’état de catastrophe naturelle dans les régions les plus touchées du pays et, en avril, il a lancé un appel national à la réponse à el niño afin de mobiliser des ressources pour les interventions humanitaires et de stimuler la production alimentaire nationale. « la sécheresse dévastatrice en afrique australe due à el niño souligne le besoin vital de préparation face à l’escalade des catastrophes météorologiques », a déclaré ibrahima cheikh diong, sous-secrétaire général des nations unies et directeur général du groupe arc. « nous avons été témoins du rôle joué par le mécanisme de l’arc pour faciliter les interventions opportunes, et nous sommes reconnaissants envers les partenaires tels que la banque africaine de développement qui permettent aux gouvernements africains de participer aux groupes de partage de risques de l’arc. grâce à votre soutien financier, nous pouvons accroître notre portée et notre impact et faire la différence dans la vie des plus vulnérables. »
+« il existe un lien étroit entre le changement climatique et la fragilité, étant donné les effets négatifs croissants du premier sur la sécurité alimentaire et les moyens de subsistance. la banque africaine de développement, par l’intermédiaire de la facilité d’appui à la transition, appuiera les efforts du gouvernement pour renforcer les capacités de prévention, de préparation et de résilience face aux chocs climatiques au malawi », a déclaré yero baldeh, directeur du bureau de coordination des états en transition du groupe de la banque africaine de développement.
+le groupe de la banque africaine de développement, par l’intermédiaire du programme de financement des risques de catastrophe en afrique (adrifi), a contribué au paiement de polices d’assurance contre la sécheresse au bénéfice des gouvernements de madagascar, du malawi, du mozambique, de la zambie et du zimbabwe, ainsi qu’au paiement de primes d’assurance contre les risques de catastrophes liées aux cyclones tropicaux au bénéfice du gouvernement de madagascar. d’ici septembre 2024, le groupe de la mutuelle panafricaine de gestion des risques devrait avoir versé un total de 62 de dollars d’indemnités d’assurance contre les risques de catastrophe aux pays d’afrique australe touchés par el niño, à savoir le malawi (11,6 de dollars), le mozambique (5,5 de dollars), la zambie (13,3 de dollars) et le zimbabwe (31,8 de dollars). à propos du programme de financement des risques de catastrophe en afrique (afrifi)
+le programme adrifi a permis de renforcer les capacités et de soutenir les primes d’assurance souveraine de seize pays africains, protégeant plus de cinq de personnes contre les sécheresses graves et les cyclones tropicaux. il a également facilité le décaissement de 150 de dollars américains pour des demandes d’indemnisation depuis 2014. le fonds fiduciaire multidonateurs du programme adrifi est soutenu par les contributions des gouvernements du canada, de la suisse, du royaume-uni, des états-unis d’amérique et du royaume de norvège.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Kenya : Bidcoro Africa veut se renforcer dans l’industrie des boissons</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au kenya, le secteur des boissons non alcoolisées est l’une des principales branches de l’industrie agroalimentaire. avec les perspectives de croissance attendues sur le marché intérieur, certains opérateurs souhaitent renforcer leur présence dans le secteur.
+au kenya, l’autorité en charge de la concurrence (cak) a approuvé la demande de l’entreprise agroalimentaire bidcoro africa limited pour acquérir la totalité du capital social du fabricant de boissons non alcoolisées suntory beverage &amp; food kenya limited (suntory kenya). l’annonce a été faite dans un communiqué publié par la cak le 20 aout dernier.
+alors que le cout de la transaction n’a pas encore été révélé, cette opération, si elle se concrétise, devrait permettre à bidcoro africa de renforcer sa présence dans l’industrie des boissons au kenya. selon les données fournies par la cak, suntory kenya détient actuellement 1,8 % des parts du marché des boissons non alcoolisées prêtes à boire dans le pays d’afrique de l’est avec des marques phares telles que « ribena » et « lucozade ». il convient de noter que ce marché est principalement dominé par coca-cola beverages africa qui en détient 65 % des parts. parmi les autres fabricants de boissons de poids qui opèrent dans le secteur figurent notamment delmonte (5,2 %) et kevian (4,4 %) qui complètent le top 3. d’après les projections formulées sur la plateforme statista, les ventes de boissons non alcoolisées devraient générer 5,4 $ de recettes au kenya en 2024 et afficher une croissance moyenne de 9,6 % par an jusqu’en 2029.
+opérant au kenya depuis 2017, l’entreprise bidcoro africa produit et commercialise plusieurs marques de boissons non alcoolisées, dont « suntop », « sunquick », ou « suncola » à travers 17 pays.
+stéphanas assocle lire aussi:
+21/08/2024 - nigéria : bua foods veut augmenter sa production de farines
+02/08/2024 - hausse de 31 % du chiffre d’affaires de guinness nigeria en 2023/2024</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Maroc</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Le Maroc dédie plus de 5000 hectares de terres agricoles aux investisseurs privés</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - le maroc est confronté à un épisode de sécheresse prolongé qui dure depuis plus de 6 ans. cette situation affecte aussi bien la production agricole que les emplois au sein du secteur. au maroc, l’agence pour le développement agricole (ada) vient de mettre en location plus de 5 200 hectares de terres agricoles appartenant à l’état au profit des investisseurs privés. selon les médias locaux, la superficie allouée est répartie à travers 9 régions à savoir casablanca-settat, marrakech-safi, draâ-tafilalet, rabat-salé-kénitra, tanger-tétouan-al hoceïma, l’oriental, fès-meknès, souss-massa et béni mellal-khénifra.
+dans le cadre de ce partenariat public-privé, la durée des baux accordés par le gouvernement peut s’étendre jusqu’à 40 ans pour les projets de plantations d’arbres ou d’installation d’infrastructures agroindustrielles. les projets d’élevage bénéficient de baux de 25 ans, tandis que la durée des contrats pour les cultures annuelles est fixée à 17 ans.
+d’après l’ada, l’initiative s’aligne sur les objectifs de la stratégie génération green (2020-2030) visant à renforcer développement du secteur agricole et stimuler la création d’emplois dans les zones rurales. pertes massives d’emplois enregistrées dans l’agriculture au maroc, la part du secteur agricole dans la création d’emploi est passée de 37,8 % en 2008 à moins de 28 % en 2023. c’est ce qu’indique la banque centrale du pays (bam) dans son rapport annuel de 2023 qui précise que le secteur a accusé des pertes d’emplois évaluées à 15 000 postes en moyenne par an entre 2008 et 2017 et 136 000 entre 2018 et 2023. « au total, le secteur agricole a enregistré une perte cumulée sur l’ensemble de la période de près de 965 000 postes », souligne le document.
+selon l’institution financière, cette contre-performance serait en partie liée au réchauffement climatique qui s’est traduit par une succession d’années de sécheresse et une accentuation du stress hydrique.
+stéphanas assocle
+lire aussi:
+19/08/2024 - maroc : baisse de la facture des importations de blé au premier semestre 2024</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>blé</t>
+        </is>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Cameroun</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Le Cameroun a produit 266 725 tonnes de cacao pour la saison 2023-2024</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - selon l’ins, les exportations camerounaises de fèves de cacao et dérivés ont généré 512 fcfa en 2023, soit +10,4% par rapport aux 463,6 enregistrés en 2022. 180 095 tonnes de fèves brutes ont été exportées en 2023, soit -55 445 tonnes que 2022, générant un peu plus de 359 fcfa.
+le ministre du commerce, luc magloire mbarga atangana, préside ce 8 août 2024 à mvengue, localité de la région du sud du cameroun, le lancement officiel de la campagne cacaoyère 2024-2025 dans le pays. comme à l’accoutumée, cette cérémonie sera l’occasion de dresser le bilan de la saison 2023-2024, qui s’est officiellement étendue du 1er août 2023 au 15 juillet 2024.
+à ce sujet, les données compilées par l’office national du cacao et du café (oncc), auxquelles investir au cameroun a eu accès, révèlent que la campagne cacaoyère 2023-2024 dans le pays s’est soldée par une production commercialisée de 266 725 tonnes de fèves, en hausse de 1,17% par rapport aux 263 613 tonnes de la campagne précédente. l’on peut cependant observer que ce volume est en baisse par rapport aux pics de 292 472 tonnes et 295 164 tonnes des saisons 2020-2021 et 2021-2022, qui sont les plus prolifiques des cinq dernières campagnes.
+la plus grosse embellie de la saison est venue des prix aux producteurs, qui ont explosé au cours de la campagne, battant tous les records. dans le détail, souligne l’oncc, les prix bord-champ sont ressortis à un minimum de 1 150 fcfa le kg (2 023 fcfa en valeur fob ou prix final des fèves rendues à bord du bateau), contre un maximum de 6 300 fcfa le kg (5 648 fcfa en valeur fob) enregistré au cours d’une opération de vente groupée dans la région du centre.
+ce relèvement exponentiel des cours aussi bien à l’intérieur qu’à l’international a permis de générer des revenus globaux en valeur fob d’un montant de 488,8 de fcfa, en hausse de plus de 220 de fcfa, en comparaison avec la campagne précédente.
+la principale ombre sur ce tableau plutôt reluisant a été la transformation locale. en effet, révèle l’onc, alors que de nouvelles unités de transformation à grande échelle se multiplient dans le pays depuis trois campagnes, avec des capacités cumulées dépassant 100 000 tonnes, seulement 85 789 tonnes de fèves ont été transformées au cameroun en 2023-2024, en baisse de 3 415 tonnes par rapport aux 89 204 tonnes de la campagne 2022-2023.
+le marché local a donc une nouvelle fois été dominé par les exportateurs, qui ont affiché des expéditions de 185 613 tonnes tout au long de la saison. sur ce registre, telcar cocoa, négociant local de la firme américaine cargill, a conservé le leadership des exportations en assurant à lui seul 35,1% des ventes de fèves à l’international. contre respectivement 24,9% pour ofi cam et 9,8% pour la société sbet.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guinée</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Guinée : la BID finance l’acquisition de près de 300 équipements agricoles</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - en guinée, l’agriculture contribue à hauteur de 27,3 % au pib et emploie environ 60 % de la population active. le gouvernement qui souhaite intensifier la production agricole mise sur une amélioration de la mécanisation du secteur. en guinée, elhadj mamadi condé, conseiller principal chargé des questions de production et d'alimentation animales au sein du ministère de l’agriculture, a procédé le 7 août dernier à la remise d’un lot de près de 300 unités d’équipements agricoles au profit des agriculteurs. l’annonce a été faite dans un communiqué publié sur la page x (anciennement twitter) dudit ministère. le conseiller principal, elhadj mamadi condé, a présidé ce mercredi 7 août la remise des équipements agricoles du projet de développement rural intégré gaoual-koundara-mali. plus de 300 équipements ont été acquis pour les producteurs de la zone d’intervention dudit projet. pic.twitter.com/xk9emrqjlu— ministère de l’agriculture et de l’elevage guinée (@magelguinee) august 7, 2024
+ce lot d’équipement est constitué entre autres de tracteurs, de moissonneuses-batteuses, de motoculteurs, de batteuses motorisées de riz, de moulins à céréales, de décortiqueuses d’arachides et de riz ou encore de presses à arachides.
+d’après m. condé, cette acquisition s’inscrit dans le cadre du projet de développement rural intégré gaoual-koundara-mali (pdri-gkm) fiancé par la banque islamique de développement (bid). d’un coût total de 21,7 d’euros (23 $), ce projet initié en 2019 vise notamment à réduire les contraintes liées au développement de l’agriculture dans les préfectures de gaoual, koundara et mali situées dans le nord du pays. les interventions prévues ciblent principalement 5 filières agricoles : le maïs, le riz, l’arachide, la tomate et l’oignon. pour rappel, la guinée est le deuxième producteur de riz blanchi en afrique de l'ouest après le nigeria avec un stock de près de 1,95 de tonnes fournies en 2022/2023.
+stéphanas assocle
+lire aussi :
+17/07/2024 - guinée : la banque mondiale injecte 100 $ dans l'agriculture
+02/07/2024 - guinée : le pam débloque 143 $ en faveur de la sécurité alimentaire 02/07/2024 - sénégal-guinée : lancement d’un projet agropastoral transfrontalier de 3 ans</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>riz, arachide, maïs</t>
+        </is>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Maroc</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Le restaurateur américain Krispy Kreme s’implante au Maroc</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au maroc, la restauration hors domicile représente environ 10 % du chiffre d’affaires de l’industrie agroalimentaire. les perspectives de croissance attendues dans le secteur suscitent de plus en plus l’intérêt de grandes enseignes internationales. au maroc, la chaîne de restauration américaine krispy kreme, spécialisée dans la fabrication et la vente de beignets et de café, prévoit de lancer son premier point de vente basé à agdal dans la capitale rabat, le 9 août. cette initiative s’inscrit dans le cadre d’une stratégie de l’entreprise qui souhaite étendre sa présence dans la région afrique du nord et moyen-orient (mena).
+« le choix du maroc pour notre nouvelle implantation est motivé par sa vitalité économique et les habitudes de consommation de sa population. pour répondre spécifiquement aux goûts marocains, nous avons développé une gamme de beignets exclusifs inspirés des saveurs locales », a déclaré raphaël duvivier, directeur du développement chez krispy kreme dans un communiqué relayé par plusieurs médias locaux. pour cette aventure en terre marocaine, krispy kreme s’est associée au restaurateur koweïtien americana restaurants qui détient, de fait, les droits en franchise pour exploiter l’enseigne américaine dans le royaume chérifien. il faut noter que americana restaurants est l’un des principaux opérateurs de restauration déjà bien enracinées dans la région mena où elle opère à travers 13 pays, y compris le maroc.
+au maroc, les dépenses nominales des ménages dans les restaurants et les hôtels devraient augmenter de 3,9 % en moyenne par an jusqu’en 2026, d’après les projections formulées par fitch solutions en 2022. dans le pays, le segment de la restauration est dominé entre autres par les enseignes américaines mcdonald’s, pizza hut, domino’s pizza, kfc, burger king ou encore le français pomme de pain.
+stéphanas assocle
+lire aussi:
+01/07/2024 - maroc : label’vie prévoit plus de 700 $ pour son expansion d’ici 2028</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Ghana : l’italien BF lance un projet agricole de près de 100 millions $</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - au ghana, le secteur agricole contribue à hauteur de 21 % au pib et emploie plus de 40 % de la population active. le gouvernement qui cible l’autosuffisance et la sécurité alimentaire, compte également sur des partenariats avec des opérateurs étrangers pour stimuler la production agricole. au ghana, l’entreprise italienne bonifiche ferraresi (bf) vient d’entamer un projet de production agricole de 90 d’euros (98,5 $) à aveyime-battor, dans le district de north tongu de la région de la volta. l’annonce a été faite dans un communiqué publié le 5 août sur la page x (anciennement twitter) de l’ambassade italienne basée à accra. commissioning of #bonificheferraresi agricultural project in the @voltaregion with ?? ambassador @danieladorlandi, bf ghana chairman, georges mikhael, ?? deputy minister of food &amp; agriculture, hon. frimpong yaw addo, and battor traditional area's paramount chief. pic.twitter.com/871zkqwt28 — italy in ghana (@italyinghana) august 5, 2024
+selon le média local graphic online, ledit projet s’inscrit dans le cadre d’un partenariat public privé conclu avec le gouvernement. il porte notamment sur l’installation et le développement d’un domaine agricole de 5 000 hectares dédié à la culture de riz, de maïs, de soja, de tomates, de bananes et de blé.
+d’après les responsables du projet, le domaine sera élargi à 25 000 hectares à terme et la production de l’entreprise est destinée à l’approvisionnement du marché local ainsi qu’à l’exportation.
+« nous pensons que le ghana peut grandement bénéficier de l’expertise, du savoir-faire, de la technologie et de l’équipement de l’italie pour développer et transformer ses ressources naturelles, créer de la valeur et atteindre la sécurité alimentaire. ce projet contribuera énormément au développement, à la modernisation et à la diversification de l’agro-industrie dans le pays », a déclaré daniela d’orlandi, l’ambassadrice italienne.
+plus largement, cet investissement s’inscrit dans le cadre du plan mattei, un programme de « partenariat stratégique » entre l’italie et les pays africains adopté par le gouvernement italien en janvier 2024. dans le cadre de ce programme, l’entreprise italienne bf avait déjà conclu en juillet dernier un accord de 455 $ pour la production de grains et de pâtes alimentaires dans le sud de l’algérie.
+stéphanas assocle
+lire aussi:
+03/08/2024 - ghana : la komenda sugar factory va être gérée par l’indien west africa agro
+30/07/2024 - ghana : déploiement commercial du niébé transgénique
+08/07/2024 - algérie : 455 $ de l’italien bonifiche ferraresi dans la céréaliculture</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>soja, blé, maïs, riz, niébé</t>
+        </is>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Bénin</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Bénin : la BAD appuie une étude visant à renforcer la filière textile grâce au secteur privé</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>(banque africaine de developpement) - le bureau pays du groupe de la banque africaine de développement au bénin a organisé le 31 juillet 2024 à cotonou, un atelier de restitution d’une étude sur la dynamisation de la filière textile béninoise par les acteurs du secteur privé. la rencontre clôture un processus entamé le 9 mars 2023 par un atelier sectoriel qui a permis de collecter des données importantes pour une meilleure compréhension des enjeux de la filière dans ce pays d’afrique de l’ouest qui fait partie des principaux producteurs de coton en afrique.
+l’atelier a réuni plusieurs experts et autorités nationales dont la vice-présidente du bénin, mme mariam chabi talata zimé yérima,, les acteurs du secteur privé opérant sur l’ensemble de la chaîne de valeur locale du coton, les métiers de support (finance, formation, transport, logistique, etc.) ainsi que les représentants des partenaires techniques et financiers du bénin. la rencontre a permis d’identifier les opportunités et de faire des propositions structurantes pour renforcer la dynamisation de la filière coton.
+l’étude a révélé de nombreuses opportunités de développer la chaîne de valeur textile allant des unités de production pour les accessoires, à la confection, la logistique, la distribution ou encore les solutions pour l’entretien des articles textiles. d’autres opportunités portent sur la production d’articles textiles à usage médical, ou pour l’ameublement, les cosmétiques, l’automobile ou l’alimentation. la seule filière des serviettes hygiéniques pourrait générer plus de 13 de dollars (8 de francs cfa) par an de ressources pour le pays. l’étude a souligné les nombreuses opportunités de création de dizaines de d’emplois qualifiés pour les jeunes et les femmes.
+le rapport a aussi mis en lumière les possibilités pour la banque de contribuer au développement socioéconomique de l’industrie textile au bénin et appelé les dirigeants à prendre des décisions pour accompagner le développement de nouvelles filières locales.
+outre la fibre textile à partir du coton, l’étude a mis en exergue les potentiels économiques colossaux, et la possibilité de créer plus de 45.000 emplois dans une nouvelle filière structurée autour de la fibre de feuille d’ananas. mme nathalie daouda, consultante experte secteur privé textile au bureau pays de la banque africaine de développement au bénin qui a réalisé l’étude a déclaré : « les potentiels de revenus additionnels pour l’économie béninoise sont supérieurs à cinq de dollars américains (3.000 de fcfa) par an. et pour convertir ces projections, il n’y a pas beaucoup d’efforts à fournir car le bénin dispose déjà des ressources naturelles et humaines pour effectuer le travail. il reste à élaborer un plan national et à le mettre en œuvre. l’état béninois a largement prouvé sa capacité à relever des paris ambitieux ».
+la vice-présidente de la république, mme mariam chabi talata zime yérima a félicité la banque pour son engagement à soutenir une économie béninoise inclusive mais surtout, pour « le réalisme, la complétude, la faisabilité » de l’étude. « ce rapport (…) est une sorte de plan stratégique sur le renforcement de notre économie à travers la filière textile, et reste pertinente pour nous, parce que le développement de notre économie par le renforcement de cette filière permettra de créer de nombreux emplois », a-t-elle souligné. « ce plan stratégique est déjà le premier maillon des étapes à suivre pour passer des idées aux actions et de la théorie à la pratique », a ajouté mme yérima. elle a insisté sur le potentiel de création d’emplois pour les femmes et les jeunes, mais aussi sur le potentiel économique et social d’une exploitation stratégique de la fibre de feuille d’ananas pour l’industrie textile béninoise.
+fondatrice de la maison mod’ukpè, spécialisée dans le pagne tissé et la confection de vêtements pour femmes, mme faridatou yekini, a reconnu que plusieurs actions sont en cours pour dynamiser les petites et moyennes entreprises (pme) locales, avec une attention particulière pour les entreprises dirigées par des femmes. « je suis particulièrement reconnaissante de constater qu'il est désormais possible pour les jeunes créateurs de bénéficier d'accompagnement et de financement pour leurs initiatives dans le secteur du textile. cette évolution marque une étape significative vers la croissance et la durabilité de notre industrie », s’est-elle félicitée.
+« la banque africaine de développement a bien fait de créer un cadre favorable pour encourager les collaborations, notamment par les visites de la zone industrielle de glo djigbé et des séances de renforcement des capacités des petites et moyennes entreprises. ces initiatives ont permis de formaliser et structurer mon entreprise, safari textiles afrique et de nouer des partenariats fructueux. la suite logique serait maintenant le financement des entreprises qui font les efforts de se mettre au pas, accompagné d'un suivi sérieux pour assurer une bonne gestion des fonds », a plaidé caleb menou, co-fondateur de la marque, safari textiles afrique.
+le chef du bureau pays de la banque au bénin, robert masumbuko, a souligné le potentiel économique et de développement social inclusif dans cette filière, une véritable aubaine pour le bénin, a-t-il dit. « l’écosystème béninois regorge de femmes et d’hommes talentueux qui produisent tous les jours des articles textiles d’une grande beauté. mais toutes et tous, ont largement exprimé le besoin d’un plan concerté pour les aider à augmenter non seulement les volumes mais également la qualité de leur formation. ils ont besoin d’assistance pour acquérir ou accéder à des équipements modernes de qualité pour la transformation et la confection et surtout pour accéder aux marchés locaux et internationaux avec des solutions textiles qualitatives et compétitives », a-t-il déclaré.
+l’une des missions de la banque auprès du secteur privé, est d’intervenir financièrement de manière intelligente et agile pour apporter un soutien efficace aux acteurs des différentes chaînes de valeur, a conclu m. masumbuko</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Tanzanie</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Tanzanie : la région de Mtwara abritera une usine d’engrais de 1,3 milliard $</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - la tanzanie est le 3ème marché pour les engrais en afrique de l’est après l’éthiopie et le kenya. alors que le pays dépend à hauteur de 90 % des importations pour ses besoins, les autorités comptent sur les réserves de gaz naturel en vue de renforcer la production locale. en tanzanie, la société publique du pétrole (tpdc), l’autorité nationale de régulation des engrais (tfra) et le centre national des investissements (tic) ont signé le 1ᵉʳ août dernier, un protocole d’accord avec l’entreprise agrochimique indonésienne pt essa industries. ce nouveau partenariat porte sur la réalisation d’un projet de production d’engrais à base de gaz naturel et d’urée. d’un coût total de 3 500 de shillings (1,3 $), ledit projet prévoit l’installation d’une usine basée dans la région de mtwara au cours des 5 prochaines années sur la période 2024-2029.
+« la réserve de gaz naturel dont nous disposons en tanzanie est de 54,57 trillions de pieds cubes standard. mais depuis que nous avons commencé à exploiter le gaz naturel, nous n’avons même pas consommé plus de 1 trillion de pieds cubes, donc l’approvisionnement de l’usine ne sera pas un problème », a déclaré francis mwakapalila, directeur général par intérim de la tpdc. selon les autorités, l’usine, une fois opérationnelle, consacrera 60 % de sa production à la satisfaction des besoins sur le marché local, tandis que le reste sera expédié sur le marché international. d’un autre côté, le gouvernement table sur la création de plus de 400 000 nouveaux emplois dans le pays avec ce nouvel investissement dans l’industrie des engrais. en tanzanie, l’utilisation apparente d’engrais se chiffrait à plus de 584 300 tonnes en 2022, d’après les données compilées par le centre international de développement des engrais (ifdc).
+stéphanas assocle
+lire aussi:
+23/07/2024 - egypte : le gouvernement prévoit d’augmenter le prix des engrais subventionnés
+09/07/2024 - l’émirati fertistream se renforce sur le marché africain des engrais</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Togo : le FIDA débloque un financement de 2,4 millions $ pour l’agriculture</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>08-2024</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>(agence ecofin) - mi-juillet, le fonds international de développement agricole avait également débloqué 30 usd pour développer ce secteur au sénégal.
+le fonds international de développement agricole apporte un nouveau soutien financier au secteur agricole togolais à hauteur de 2,4 usd, soit environ 1,5 fcfa. l’accord de financement qui sera destiné à la mise en œuvre du projet soutien à la promotion du maraîchage agro écologique paysan au togo (prosmat) a été signé en fin de semaine dernière à lomé. signature d'un accord de don de 2,430 d’usd entre le fida et la coordination togolaise des organisations paysannes et de producteurs agricoles -ctop pour le soutien à la promotion du maraîchage agroécologique au #togo . pic.twitter.com/orbwhg6y7n — fida afrique de l’ouest (@fidafriqueouest) july 30, 2024
+la convention a été paraphée du côté du fida par son directeur pays, kabore jean pascal, et le président du conseil d’administration de la coordination togolaise des organisations paysannes et de producteurs agricoles (ctop), ayéfoumi olou-adara, pour le compte du togo, lors d’une cérémonie officielle.
+avec cette enveloppe, le togo va poursuivre sa politique de sécurité alimentaire et de durabilité des pratiques agricoles. concrètement via le prosmat, la ctop va apporter un appui technique aux maraîchers de 16 préfectures des six régions agricoles du pays notamment dans l’adoption des pratiques de production agroécologique. ceci dans le but d’améliorer les rendements et la qualité des légumes, tout en réduisant la pollution des sols et de l’eau.
+le projet va se concentrer également sur des initiatives visant la réduction des pertes post-récoltes, et la facilitation de la commercialisation des produits maraîchers agroécologiques. ce financement devrait en outre, servir à soutenir les unités de transformation portées par des coopératives de femmes et des entreprises de jeunes engagés dans la production d’intrants agroécologiques.
+le projet devrait durer 40 mois et toucher près de 10.000 agriculteurs dont 58% de femmes, indique-t-on. il vient s'ajouter à d’autres initiatives du fida en faveur de l’agriculture togolaise, informe togofirst, notamment le financement du projet de ‘’transformation agricole dans des états au nigeria et dans les régions togolaises en vue d'atteindre la faim zéro’’.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
